--- a/SALES STATEMENTS/OCTOBER 2025/WEEK19-10-25TO25-10-25.xlsx
+++ b/SALES STATEMENTS/OCTOBER 2025/WEEK19-10-25TO25-10-25.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="95">
   <si>
     <t>DETAILS</t>
   </si>
@@ -299,16 +299,23 @@
   <si>
     <t>25/10/2025</t>
   </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Grand Total  =</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
     <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="166" formatCode="#.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +390,12 @@
       <color indexed="8"/>
       <name val="ARIAL"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ARIAL"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -784,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -980,6 +993,15 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1038,279 +1060,28 @@
       <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="1">
-          <cell r="B1">
-            <v>0</v>
-          </cell>
-          <cell r="C1">
-            <v>0</v>
-          </cell>
-          <cell r="D1">
-            <v>0</v>
-          </cell>
-          <cell r="E1">
-            <v>0</v>
-          </cell>
-          <cell r="F1">
-            <v>0</v>
-          </cell>
-          <cell r="G1">
-            <v>0</v>
-          </cell>
-          <cell r="H1">
-            <v>0</v>
-          </cell>
-          <cell r="I1">
-            <v>0</v>
-          </cell>
-          <cell r="J1">
-            <v>0</v>
-          </cell>
-          <cell r="K1">
-            <v>0</v>
-          </cell>
-          <cell r="L1">
-            <v>0</v>
-          </cell>
-          <cell r="M1">
-            <v>0</v>
-          </cell>
-          <cell r="N1">
-            <v>0</v>
-          </cell>
-          <cell r="O1">
-            <v>0</v>
-          </cell>
-          <cell r="P1">
-            <v>0</v>
-          </cell>
-          <cell r="Q1">
-            <v>0</v>
-          </cell>
-          <cell r="R1">
-            <v>0</v>
-          </cell>
-          <cell r="S1">
-            <v>0</v>
-          </cell>
-          <cell r="T1">
-            <v>0</v>
-          </cell>
-          <cell r="U1">
-            <v>0</v>
-          </cell>
-          <cell r="V1">
-            <v>0</v>
-          </cell>
-          <cell r="W1">
-            <v>0</v>
-          </cell>
-          <cell r="X1">
-            <v>0</v>
-          </cell>
-          <cell r="Y1">
-            <v>0</v>
-          </cell>
-          <cell r="Z1">
-            <v>0</v>
-          </cell>
-          <cell r="AA1">
-            <v>0</v>
-          </cell>
-          <cell r="AB1">
-            <v>0</v>
-          </cell>
-          <cell r="AC1">
-            <v>0</v>
-          </cell>
-          <cell r="AD1">
-            <v>0</v>
-          </cell>
-          <cell r="AE1">
-            <v>0</v>
-          </cell>
-          <cell r="AF1">
-            <v>0</v>
-          </cell>
-          <cell r="AG1">
-            <v>0</v>
-          </cell>
-          <cell r="AH1">
-            <v>0</v>
-          </cell>
-          <cell r="AI1">
-            <v>0</v>
-          </cell>
-          <cell r="AJ1">
-            <v>0</v>
-          </cell>
-          <cell r="AK1">
-            <v>0</v>
-          </cell>
-          <cell r="AL1">
-            <v>0</v>
-          </cell>
-          <cell r="AM1">
-            <v>0</v>
-          </cell>
-          <cell r="AN1">
-            <v>0</v>
-          </cell>
-          <cell r="AO1">
-            <v>0</v>
-          </cell>
-          <cell r="AP1">
-            <v>0</v>
-          </cell>
-          <cell r="AQ1">
-            <v>0</v>
-          </cell>
-          <cell r="AR1">
-            <v>0</v>
-          </cell>
-          <cell r="AS1">
-            <v>0</v>
-          </cell>
-          <cell r="AT1">
-            <v>0</v>
-          </cell>
-        </row>
+      <sheetData sheetId="0">
         <row r="2">
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>0</v>
-          </cell>
-          <cell r="E2">
-            <v>0</v>
-          </cell>
-          <cell r="F2">
-            <v>0</v>
-          </cell>
-          <cell r="G2">
-            <v>0</v>
-          </cell>
-          <cell r="H2">
-            <v>0</v>
-          </cell>
           <cell r="I2">
             <v>46001</v>
           </cell>
-          <cell r="J2">
-            <v>0</v>
-          </cell>
-          <cell r="K2">
-            <v>0</v>
-          </cell>
-          <cell r="L2">
-            <v>0</v>
-          </cell>
-          <cell r="M2">
-            <v>0</v>
-          </cell>
           <cell r="N2" t="str">
             <v>13/10/25</v>
           </cell>
-          <cell r="O2">
-            <v>0</v>
-          </cell>
-          <cell r="P2">
-            <v>0</v>
-          </cell>
-          <cell r="Q2">
-            <v>0</v>
-          </cell>
-          <cell r="R2">
-            <v>0</v>
-          </cell>
           <cell r="S2" t="str">
             <v>14/10/2025</v>
           </cell>
-          <cell r="T2">
-            <v>0</v>
-          </cell>
-          <cell r="U2">
-            <v>0</v>
-          </cell>
-          <cell r="V2">
-            <v>0</v>
-          </cell>
-          <cell r="W2">
-            <v>0</v>
-          </cell>
           <cell r="X2" t="str">
             <v>15/10/2025</v>
           </cell>
-          <cell r="Y2">
-            <v>0</v>
-          </cell>
-          <cell r="Z2">
-            <v>0</v>
-          </cell>
-          <cell r="AA2">
-            <v>0</v>
-          </cell>
-          <cell r="AB2">
-            <v>0</v>
-          </cell>
           <cell r="AC2" t="str">
             <v>16/10/2025</v>
           </cell>
-          <cell r="AD2">
-            <v>0</v>
-          </cell>
-          <cell r="AE2">
-            <v>0</v>
-          </cell>
-          <cell r="AF2">
-            <v>0</v>
-          </cell>
-          <cell r="AG2">
-            <v>0</v>
-          </cell>
           <cell r="AH2" t="str">
             <v>17/10/2025</v>
           </cell>
-          <cell r="AI2">
-            <v>0</v>
-          </cell>
-          <cell r="AJ2">
-            <v>0</v>
-          </cell>
-          <cell r="AK2">
-            <v>0</v>
-          </cell>
-          <cell r="AL2">
-            <v>0</v>
-          </cell>
           <cell r="AM2" t="str">
             <v>18/10/2025</v>
-          </cell>
-          <cell r="AN2">
-            <v>0</v>
-          </cell>
-          <cell r="AO2">
-            <v>0</v>
-          </cell>
-          <cell r="AP2">
-            <v>0</v>
-          </cell>
-          <cell r="AQ2">
-            <v>0</v>
-          </cell>
-          <cell r="AR2">
-            <v>0</v>
-          </cell>
-          <cell r="AS2">
-            <v>0</v>
-          </cell>
-          <cell r="AT2">
-            <v>0</v>
           </cell>
         </row>
         <row r="3">
@@ -1472,110 +1243,8 @@
           <cell r="H4">
             <v>81040</v>
           </cell>
-          <cell r="I4">
-            <v>0</v>
-          </cell>
-          <cell r="J4">
-            <v>0</v>
-          </cell>
-          <cell r="K4">
-            <v>0</v>
-          </cell>
-          <cell r="L4">
-            <v>0</v>
-          </cell>
-          <cell r="M4">
-            <v>0</v>
-          </cell>
-          <cell r="N4">
-            <v>0</v>
-          </cell>
-          <cell r="O4">
-            <v>0</v>
-          </cell>
-          <cell r="P4">
-            <v>0</v>
-          </cell>
-          <cell r="Q4">
-            <v>0</v>
-          </cell>
-          <cell r="R4">
-            <v>0</v>
-          </cell>
-          <cell r="S4">
-            <v>0</v>
-          </cell>
           <cell r="T4">
             <v>46000</v>
-          </cell>
-          <cell r="U4">
-            <v>0</v>
-          </cell>
-          <cell r="V4">
-            <v>0</v>
-          </cell>
-          <cell r="W4">
-            <v>0</v>
-          </cell>
-          <cell r="X4">
-            <v>0</v>
-          </cell>
-          <cell r="Y4">
-            <v>0</v>
-          </cell>
-          <cell r="Z4">
-            <v>0</v>
-          </cell>
-          <cell r="AA4">
-            <v>0</v>
-          </cell>
-          <cell r="AB4">
-            <v>0</v>
-          </cell>
-          <cell r="AC4">
-            <v>0</v>
-          </cell>
-          <cell r="AD4">
-            <v>0</v>
-          </cell>
-          <cell r="AE4">
-            <v>0</v>
-          </cell>
-          <cell r="AF4">
-            <v>0</v>
-          </cell>
-          <cell r="AG4">
-            <v>0</v>
-          </cell>
-          <cell r="AH4">
-            <v>0</v>
-          </cell>
-          <cell r="AI4">
-            <v>0</v>
-          </cell>
-          <cell r="AJ4">
-            <v>0</v>
-          </cell>
-          <cell r="AK4">
-            <v>0</v>
-          </cell>
-          <cell r="AL4">
-            <v>0</v>
-          </cell>
-          <cell r="AM4">
-            <v>0</v>
-          </cell>
-          <cell r="AN4">
-            <v>0</v>
-          </cell>
-          <cell r="AO4">
-            <v>0</v>
-          </cell>
-          <cell r="AP4">
-            <v>0</v>
-          </cell>
-          <cell r="AQ4">
-            <v>0</v>
           </cell>
           <cell r="AR4">
             <v>46000</v>
@@ -1609,110 +1278,8 @@
           <cell r="H5">
             <v>5210</v>
           </cell>
-          <cell r="I5">
-            <v>0</v>
-          </cell>
-          <cell r="J5">
-            <v>0</v>
-          </cell>
-          <cell r="K5">
-            <v>0</v>
-          </cell>
-          <cell r="L5">
-            <v>0</v>
-          </cell>
-          <cell r="M5">
-            <v>0</v>
-          </cell>
-          <cell r="N5">
-            <v>0</v>
-          </cell>
-          <cell r="O5">
-            <v>0</v>
-          </cell>
-          <cell r="P5">
-            <v>0</v>
-          </cell>
-          <cell r="Q5">
-            <v>0</v>
-          </cell>
-          <cell r="R5">
-            <v>0</v>
-          </cell>
-          <cell r="S5">
-            <v>0</v>
-          </cell>
-          <cell r="T5">
-            <v>0</v>
-          </cell>
-          <cell r="U5">
-            <v>0</v>
-          </cell>
-          <cell r="V5">
-            <v>0</v>
-          </cell>
-          <cell r="W5">
-            <v>0</v>
-          </cell>
-          <cell r="X5">
-            <v>0</v>
-          </cell>
-          <cell r="Y5">
-            <v>0</v>
-          </cell>
-          <cell r="Z5">
-            <v>0</v>
-          </cell>
-          <cell r="AA5">
-            <v>0</v>
-          </cell>
-          <cell r="AB5">
-            <v>0</v>
-          </cell>
-          <cell r="AC5">
-            <v>0</v>
-          </cell>
-          <cell r="AD5">
-            <v>0</v>
-          </cell>
-          <cell r="AE5">
-            <v>0</v>
-          </cell>
-          <cell r="AF5">
-            <v>0</v>
-          </cell>
-          <cell r="AG5">
-            <v>0</v>
-          </cell>
-          <cell r="AH5">
-            <v>0</v>
-          </cell>
-          <cell r="AI5">
-            <v>0</v>
-          </cell>
-          <cell r="AJ5">
-            <v>0</v>
-          </cell>
-          <cell r="AK5">
-            <v>0</v>
-          </cell>
-          <cell r="AL5">
-            <v>0</v>
-          </cell>
           <cell r="AM5">
             <v>5210</v>
-          </cell>
-          <cell r="AN5">
-            <v>0</v>
-          </cell>
-          <cell r="AO5">
-            <v>0</v>
-          </cell>
-          <cell r="AP5">
-            <v>0</v>
-          </cell>
-          <cell r="AQ5">
-            <v>0</v>
           </cell>
           <cell r="AR5">
             <v>5210</v>
@@ -1746,111 +1313,6 @@
           <cell r="H6">
             <v>25080</v>
           </cell>
-          <cell r="I6">
-            <v>0</v>
-          </cell>
-          <cell r="J6">
-            <v>0</v>
-          </cell>
-          <cell r="K6">
-            <v>0</v>
-          </cell>
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-          <cell r="N6">
-            <v>0</v>
-          </cell>
-          <cell r="O6">
-            <v>0</v>
-          </cell>
-          <cell r="P6">
-            <v>0</v>
-          </cell>
-          <cell r="Q6">
-            <v>0</v>
-          </cell>
-          <cell r="R6">
-            <v>0</v>
-          </cell>
-          <cell r="S6">
-            <v>0</v>
-          </cell>
-          <cell r="T6">
-            <v>0</v>
-          </cell>
-          <cell r="U6">
-            <v>0</v>
-          </cell>
-          <cell r="V6">
-            <v>0</v>
-          </cell>
-          <cell r="W6">
-            <v>0</v>
-          </cell>
-          <cell r="X6">
-            <v>0</v>
-          </cell>
-          <cell r="Y6">
-            <v>0</v>
-          </cell>
-          <cell r="Z6">
-            <v>0</v>
-          </cell>
-          <cell r="AA6">
-            <v>0</v>
-          </cell>
-          <cell r="AB6">
-            <v>0</v>
-          </cell>
-          <cell r="AC6">
-            <v>0</v>
-          </cell>
-          <cell r="AD6">
-            <v>0</v>
-          </cell>
-          <cell r="AE6">
-            <v>0</v>
-          </cell>
-          <cell r="AF6">
-            <v>0</v>
-          </cell>
-          <cell r="AG6">
-            <v>0</v>
-          </cell>
-          <cell r="AH6">
-            <v>0</v>
-          </cell>
-          <cell r="AI6">
-            <v>0</v>
-          </cell>
-          <cell r="AJ6">
-            <v>0</v>
-          </cell>
-          <cell r="AK6">
-            <v>0</v>
-          </cell>
-          <cell r="AL6">
-            <v>0</v>
-          </cell>
-          <cell r="AM6">
-            <v>0</v>
-          </cell>
-          <cell r="AN6">
-            <v>0</v>
-          </cell>
-          <cell r="AO6">
-            <v>0</v>
-          </cell>
-          <cell r="AP6">
-            <v>0</v>
-          </cell>
-          <cell r="AQ6">
-            <v>0</v>
-          </cell>
           <cell r="AR6">
             <v>0</v>
           </cell>
@@ -1883,116 +1345,14 @@
           <cell r="H7">
             <v>90600</v>
           </cell>
-          <cell r="I7">
-            <v>0</v>
-          </cell>
-          <cell r="J7">
-            <v>0</v>
-          </cell>
-          <cell r="K7">
-            <v>0</v>
-          </cell>
           <cell r="L7">
-            <v>0</v>
-          </cell>
-          <cell r="M7">
-            <v>0</v>
-          </cell>
-          <cell r="N7">
-            <v>0</v>
-          </cell>
-          <cell r="O7">
-            <v>0</v>
-          </cell>
-          <cell r="P7">
-            <v>0</v>
-          </cell>
-          <cell r="Q7">
-            <v>0</v>
-          </cell>
-          <cell r="R7">
-            <v>0</v>
-          </cell>
-          <cell r="S7">
-            <v>0</v>
-          </cell>
-          <cell r="T7">
-            <v>0</v>
-          </cell>
-          <cell r="U7">
-            <v>0</v>
-          </cell>
-          <cell r="V7">
-            <v>0</v>
-          </cell>
-          <cell r="W7">
-            <v>0</v>
-          </cell>
-          <cell r="X7">
-            <v>0</v>
-          </cell>
-          <cell r="Y7">
-            <v>0</v>
-          </cell>
-          <cell r="Z7">
-            <v>0</v>
-          </cell>
-          <cell r="AA7">
-            <v>0</v>
-          </cell>
-          <cell r="AB7">
-            <v>0</v>
-          </cell>
-          <cell r="AC7">
-            <v>0</v>
-          </cell>
-          <cell r="AD7">
-            <v>0</v>
-          </cell>
-          <cell r="AE7">
-            <v>0</v>
-          </cell>
-          <cell r="AF7">
-            <v>0</v>
-          </cell>
-          <cell r="AG7">
-            <v>0</v>
-          </cell>
-          <cell r="AH7">
-            <v>0</v>
-          </cell>
-          <cell r="AI7">
-            <v>0</v>
-          </cell>
-          <cell r="AJ7">
-            <v>0</v>
-          </cell>
-          <cell r="AK7">
-            <v>0</v>
-          </cell>
-          <cell r="AL7">
-            <v>0</v>
-          </cell>
-          <cell r="AM7">
-            <v>0</v>
-          </cell>
-          <cell r="AN7">
-            <v>0</v>
-          </cell>
-          <cell r="AO7">
-            <v>0</v>
-          </cell>
-          <cell r="AP7">
-            <v>0</v>
-          </cell>
-          <cell r="AQ7">
-            <v>0</v>
+            <v>63150</v>
           </cell>
           <cell r="AR7">
-            <v>0</v>
+            <v>63150</v>
           </cell>
           <cell r="AS7">
-            <v>90600</v>
+            <v>27450</v>
           </cell>
           <cell r="AT7">
             <v>0</v>
@@ -2029,102 +1389,6 @@
           <cell r="K8">
             <v>10000</v>
           </cell>
-          <cell r="L8">
-            <v>0</v>
-          </cell>
-          <cell r="M8">
-            <v>0</v>
-          </cell>
-          <cell r="N8">
-            <v>0</v>
-          </cell>
-          <cell r="O8">
-            <v>0</v>
-          </cell>
-          <cell r="P8">
-            <v>0</v>
-          </cell>
-          <cell r="Q8">
-            <v>0</v>
-          </cell>
-          <cell r="R8">
-            <v>0</v>
-          </cell>
-          <cell r="S8">
-            <v>0</v>
-          </cell>
-          <cell r="T8">
-            <v>0</v>
-          </cell>
-          <cell r="U8">
-            <v>0</v>
-          </cell>
-          <cell r="V8">
-            <v>0</v>
-          </cell>
-          <cell r="W8">
-            <v>0</v>
-          </cell>
-          <cell r="X8">
-            <v>0</v>
-          </cell>
-          <cell r="Y8">
-            <v>0</v>
-          </cell>
-          <cell r="Z8">
-            <v>0</v>
-          </cell>
-          <cell r="AA8">
-            <v>0</v>
-          </cell>
-          <cell r="AB8">
-            <v>0</v>
-          </cell>
-          <cell r="AC8">
-            <v>0</v>
-          </cell>
-          <cell r="AD8">
-            <v>0</v>
-          </cell>
-          <cell r="AE8">
-            <v>0</v>
-          </cell>
-          <cell r="AF8">
-            <v>0</v>
-          </cell>
-          <cell r="AG8">
-            <v>0</v>
-          </cell>
-          <cell r="AH8">
-            <v>0</v>
-          </cell>
-          <cell r="AI8">
-            <v>0</v>
-          </cell>
-          <cell r="AJ8">
-            <v>0</v>
-          </cell>
-          <cell r="AK8">
-            <v>0</v>
-          </cell>
-          <cell r="AL8">
-            <v>0</v>
-          </cell>
-          <cell r="AM8">
-            <v>0</v>
-          </cell>
-          <cell r="AN8">
-            <v>0</v>
-          </cell>
-          <cell r="AO8">
-            <v>0</v>
-          </cell>
-          <cell r="AP8">
-            <v>0</v>
-          </cell>
-          <cell r="AQ8">
-            <v>0</v>
-          </cell>
           <cell r="AR8">
             <v>10000</v>
           </cell>
@@ -2157,111 +1421,6 @@
           <cell r="H9">
             <v>0</v>
           </cell>
-          <cell r="I9">
-            <v>0</v>
-          </cell>
-          <cell r="J9">
-            <v>0</v>
-          </cell>
-          <cell r="K9">
-            <v>0</v>
-          </cell>
-          <cell r="L9">
-            <v>0</v>
-          </cell>
-          <cell r="M9">
-            <v>0</v>
-          </cell>
-          <cell r="N9">
-            <v>0</v>
-          </cell>
-          <cell r="O9">
-            <v>0</v>
-          </cell>
-          <cell r="P9">
-            <v>0</v>
-          </cell>
-          <cell r="Q9">
-            <v>0</v>
-          </cell>
-          <cell r="R9">
-            <v>0</v>
-          </cell>
-          <cell r="S9">
-            <v>0</v>
-          </cell>
-          <cell r="T9">
-            <v>0</v>
-          </cell>
-          <cell r="U9">
-            <v>0</v>
-          </cell>
-          <cell r="V9">
-            <v>0</v>
-          </cell>
-          <cell r="W9">
-            <v>0</v>
-          </cell>
-          <cell r="X9">
-            <v>0</v>
-          </cell>
-          <cell r="Y9">
-            <v>0</v>
-          </cell>
-          <cell r="Z9">
-            <v>0</v>
-          </cell>
-          <cell r="AA9">
-            <v>0</v>
-          </cell>
-          <cell r="AB9">
-            <v>0</v>
-          </cell>
-          <cell r="AC9">
-            <v>0</v>
-          </cell>
-          <cell r="AD9">
-            <v>0</v>
-          </cell>
-          <cell r="AE9">
-            <v>0</v>
-          </cell>
-          <cell r="AF9">
-            <v>0</v>
-          </cell>
-          <cell r="AG9">
-            <v>0</v>
-          </cell>
-          <cell r="AH9">
-            <v>0</v>
-          </cell>
-          <cell r="AI9">
-            <v>0</v>
-          </cell>
-          <cell r="AJ9">
-            <v>0</v>
-          </cell>
-          <cell r="AK9">
-            <v>0</v>
-          </cell>
-          <cell r="AL9">
-            <v>0</v>
-          </cell>
-          <cell r="AM9">
-            <v>0</v>
-          </cell>
-          <cell r="AN9">
-            <v>0</v>
-          </cell>
-          <cell r="AO9">
-            <v>0</v>
-          </cell>
-          <cell r="AP9">
-            <v>0</v>
-          </cell>
-          <cell r="AQ9">
-            <v>0</v>
-          </cell>
           <cell r="AR9">
             <v>0</v>
           </cell>
@@ -2294,111 +1453,6 @@
           <cell r="H10">
             <v>12380</v>
           </cell>
-          <cell r="I10">
-            <v>0</v>
-          </cell>
-          <cell r="J10">
-            <v>0</v>
-          </cell>
-          <cell r="K10">
-            <v>0</v>
-          </cell>
-          <cell r="L10">
-            <v>0</v>
-          </cell>
-          <cell r="M10">
-            <v>0</v>
-          </cell>
-          <cell r="N10">
-            <v>0</v>
-          </cell>
-          <cell r="O10">
-            <v>0</v>
-          </cell>
-          <cell r="P10">
-            <v>0</v>
-          </cell>
-          <cell r="Q10">
-            <v>0</v>
-          </cell>
-          <cell r="R10">
-            <v>0</v>
-          </cell>
-          <cell r="S10">
-            <v>0</v>
-          </cell>
-          <cell r="T10">
-            <v>0</v>
-          </cell>
-          <cell r="U10">
-            <v>0</v>
-          </cell>
-          <cell r="V10">
-            <v>0</v>
-          </cell>
-          <cell r="W10">
-            <v>0</v>
-          </cell>
-          <cell r="X10">
-            <v>0</v>
-          </cell>
-          <cell r="Y10">
-            <v>0</v>
-          </cell>
-          <cell r="Z10">
-            <v>0</v>
-          </cell>
-          <cell r="AA10">
-            <v>0</v>
-          </cell>
-          <cell r="AB10">
-            <v>0</v>
-          </cell>
-          <cell r="AC10">
-            <v>0</v>
-          </cell>
-          <cell r="AD10">
-            <v>0</v>
-          </cell>
-          <cell r="AE10">
-            <v>0</v>
-          </cell>
-          <cell r="AF10">
-            <v>0</v>
-          </cell>
-          <cell r="AG10">
-            <v>0</v>
-          </cell>
-          <cell r="AH10">
-            <v>0</v>
-          </cell>
-          <cell r="AI10">
-            <v>0</v>
-          </cell>
-          <cell r="AJ10">
-            <v>0</v>
-          </cell>
-          <cell r="AK10">
-            <v>0</v>
-          </cell>
-          <cell r="AL10">
-            <v>0</v>
-          </cell>
-          <cell r="AM10">
-            <v>0</v>
-          </cell>
-          <cell r="AN10">
-            <v>0</v>
-          </cell>
-          <cell r="AO10">
-            <v>0</v>
-          </cell>
-          <cell r="AP10">
-            <v>0</v>
-          </cell>
-          <cell r="AQ10">
-            <v>0</v>
-          </cell>
           <cell r="AR10">
             <v>0</v>
           </cell>
@@ -2437,105 +1491,6 @@
           <cell r="J11">
             <v>12010</v>
           </cell>
-          <cell r="K11">
-            <v>0</v>
-          </cell>
-          <cell r="L11">
-            <v>0</v>
-          </cell>
-          <cell r="M11">
-            <v>0</v>
-          </cell>
-          <cell r="N11">
-            <v>0</v>
-          </cell>
-          <cell r="O11">
-            <v>0</v>
-          </cell>
-          <cell r="P11">
-            <v>0</v>
-          </cell>
-          <cell r="Q11">
-            <v>0</v>
-          </cell>
-          <cell r="R11">
-            <v>0</v>
-          </cell>
-          <cell r="S11">
-            <v>0</v>
-          </cell>
-          <cell r="T11">
-            <v>0</v>
-          </cell>
-          <cell r="U11">
-            <v>0</v>
-          </cell>
-          <cell r="V11">
-            <v>0</v>
-          </cell>
-          <cell r="W11">
-            <v>0</v>
-          </cell>
-          <cell r="X11">
-            <v>0</v>
-          </cell>
-          <cell r="Y11">
-            <v>0</v>
-          </cell>
-          <cell r="Z11">
-            <v>0</v>
-          </cell>
-          <cell r="AA11">
-            <v>0</v>
-          </cell>
-          <cell r="AB11">
-            <v>0</v>
-          </cell>
-          <cell r="AC11">
-            <v>0</v>
-          </cell>
-          <cell r="AD11">
-            <v>0</v>
-          </cell>
-          <cell r="AE11">
-            <v>0</v>
-          </cell>
-          <cell r="AF11">
-            <v>0</v>
-          </cell>
-          <cell r="AG11">
-            <v>0</v>
-          </cell>
-          <cell r="AH11">
-            <v>0</v>
-          </cell>
-          <cell r="AI11">
-            <v>0</v>
-          </cell>
-          <cell r="AJ11">
-            <v>0</v>
-          </cell>
-          <cell r="AK11">
-            <v>0</v>
-          </cell>
-          <cell r="AL11">
-            <v>0</v>
-          </cell>
-          <cell r="AM11">
-            <v>0</v>
-          </cell>
-          <cell r="AN11">
-            <v>0</v>
-          </cell>
-          <cell r="AO11">
-            <v>0</v>
-          </cell>
-          <cell r="AP11">
-            <v>0</v>
-          </cell>
-          <cell r="AQ11">
-            <v>0</v>
-          </cell>
           <cell r="AR11">
             <v>21510</v>
           </cell>
@@ -2568,111 +1523,6 @@
           <cell r="H12">
             <v>14320</v>
           </cell>
-          <cell r="I12">
-            <v>0</v>
-          </cell>
-          <cell r="J12">
-            <v>0</v>
-          </cell>
-          <cell r="K12">
-            <v>0</v>
-          </cell>
-          <cell r="L12">
-            <v>0</v>
-          </cell>
-          <cell r="M12">
-            <v>0</v>
-          </cell>
-          <cell r="N12">
-            <v>0</v>
-          </cell>
-          <cell r="O12">
-            <v>0</v>
-          </cell>
-          <cell r="P12">
-            <v>0</v>
-          </cell>
-          <cell r="Q12">
-            <v>0</v>
-          </cell>
-          <cell r="R12">
-            <v>0</v>
-          </cell>
-          <cell r="S12">
-            <v>0</v>
-          </cell>
-          <cell r="T12">
-            <v>0</v>
-          </cell>
-          <cell r="U12">
-            <v>0</v>
-          </cell>
-          <cell r="V12">
-            <v>0</v>
-          </cell>
-          <cell r="W12">
-            <v>0</v>
-          </cell>
-          <cell r="X12">
-            <v>0</v>
-          </cell>
-          <cell r="Y12">
-            <v>0</v>
-          </cell>
-          <cell r="Z12">
-            <v>0</v>
-          </cell>
-          <cell r="AA12">
-            <v>0</v>
-          </cell>
-          <cell r="AB12">
-            <v>0</v>
-          </cell>
-          <cell r="AC12">
-            <v>0</v>
-          </cell>
-          <cell r="AD12">
-            <v>0</v>
-          </cell>
-          <cell r="AE12">
-            <v>0</v>
-          </cell>
-          <cell r="AF12">
-            <v>0</v>
-          </cell>
-          <cell r="AG12">
-            <v>0</v>
-          </cell>
-          <cell r="AH12">
-            <v>0</v>
-          </cell>
-          <cell r="AI12">
-            <v>0</v>
-          </cell>
-          <cell r="AJ12">
-            <v>0</v>
-          </cell>
-          <cell r="AK12">
-            <v>0</v>
-          </cell>
-          <cell r="AL12">
-            <v>0</v>
-          </cell>
-          <cell r="AM12">
-            <v>0</v>
-          </cell>
-          <cell r="AN12">
-            <v>0</v>
-          </cell>
-          <cell r="AO12">
-            <v>0</v>
-          </cell>
-          <cell r="AP12">
-            <v>0</v>
-          </cell>
-          <cell r="AQ12">
-            <v>0</v>
-          </cell>
           <cell r="AR12">
             <v>0</v>
           </cell>
@@ -2705,110 +1555,8 @@
           <cell r="H13">
             <v>21840</v>
           </cell>
-          <cell r="I13">
-            <v>0</v>
-          </cell>
-          <cell r="J13">
-            <v>0</v>
-          </cell>
-          <cell r="K13">
-            <v>0</v>
-          </cell>
-          <cell r="L13">
-            <v>0</v>
-          </cell>
-          <cell r="M13">
-            <v>0</v>
-          </cell>
-          <cell r="N13">
-            <v>0</v>
-          </cell>
-          <cell r="O13">
-            <v>0</v>
-          </cell>
-          <cell r="P13">
-            <v>0</v>
-          </cell>
-          <cell r="Q13">
-            <v>0</v>
-          </cell>
-          <cell r="R13">
-            <v>0</v>
-          </cell>
-          <cell r="S13">
-            <v>0</v>
-          </cell>
-          <cell r="T13">
-            <v>0</v>
-          </cell>
-          <cell r="U13">
-            <v>0</v>
-          </cell>
-          <cell r="V13">
-            <v>0</v>
-          </cell>
-          <cell r="W13">
-            <v>0</v>
-          </cell>
-          <cell r="X13">
-            <v>0</v>
-          </cell>
-          <cell r="Y13">
-            <v>0</v>
-          </cell>
-          <cell r="Z13">
-            <v>0</v>
-          </cell>
-          <cell r="AA13">
-            <v>0</v>
-          </cell>
-          <cell r="AB13">
-            <v>0</v>
-          </cell>
-          <cell r="AC13">
-            <v>0</v>
-          </cell>
-          <cell r="AD13">
-            <v>0</v>
-          </cell>
-          <cell r="AE13">
-            <v>0</v>
-          </cell>
-          <cell r="AF13">
-            <v>0</v>
-          </cell>
-          <cell r="AG13">
-            <v>0</v>
-          </cell>
-          <cell r="AH13">
-            <v>0</v>
-          </cell>
-          <cell r="AI13">
-            <v>0</v>
-          </cell>
-          <cell r="AJ13">
-            <v>0</v>
-          </cell>
-          <cell r="AK13">
-            <v>0</v>
-          </cell>
-          <cell r="AL13">
-            <v>0</v>
-          </cell>
           <cell r="AM13">
             <v>21800</v>
-          </cell>
-          <cell r="AN13">
-            <v>0</v>
-          </cell>
-          <cell r="AO13">
-            <v>0</v>
-          </cell>
-          <cell r="AP13">
-            <v>0</v>
-          </cell>
-          <cell r="AQ13">
-            <v>0</v>
           </cell>
           <cell r="AR13">
             <v>21800</v>
@@ -2842,111 +1590,6 @@
           <cell r="H14">
             <v>10910</v>
           </cell>
-          <cell r="I14">
-            <v>0</v>
-          </cell>
-          <cell r="J14">
-            <v>0</v>
-          </cell>
-          <cell r="K14">
-            <v>0</v>
-          </cell>
-          <cell r="L14">
-            <v>0</v>
-          </cell>
-          <cell r="M14">
-            <v>0</v>
-          </cell>
-          <cell r="N14">
-            <v>0</v>
-          </cell>
-          <cell r="O14">
-            <v>0</v>
-          </cell>
-          <cell r="P14">
-            <v>0</v>
-          </cell>
-          <cell r="Q14">
-            <v>0</v>
-          </cell>
-          <cell r="R14">
-            <v>0</v>
-          </cell>
-          <cell r="S14">
-            <v>0</v>
-          </cell>
-          <cell r="T14">
-            <v>0</v>
-          </cell>
-          <cell r="U14">
-            <v>0</v>
-          </cell>
-          <cell r="V14">
-            <v>0</v>
-          </cell>
-          <cell r="W14">
-            <v>0</v>
-          </cell>
-          <cell r="X14">
-            <v>0</v>
-          </cell>
-          <cell r="Y14">
-            <v>0</v>
-          </cell>
-          <cell r="Z14">
-            <v>0</v>
-          </cell>
-          <cell r="AA14">
-            <v>0</v>
-          </cell>
-          <cell r="AB14">
-            <v>0</v>
-          </cell>
-          <cell r="AC14">
-            <v>0</v>
-          </cell>
-          <cell r="AD14">
-            <v>0</v>
-          </cell>
-          <cell r="AE14">
-            <v>0</v>
-          </cell>
-          <cell r="AF14">
-            <v>0</v>
-          </cell>
-          <cell r="AG14">
-            <v>0</v>
-          </cell>
-          <cell r="AH14">
-            <v>0</v>
-          </cell>
-          <cell r="AI14">
-            <v>0</v>
-          </cell>
-          <cell r="AJ14">
-            <v>0</v>
-          </cell>
-          <cell r="AK14">
-            <v>0</v>
-          </cell>
-          <cell r="AL14">
-            <v>0</v>
-          </cell>
-          <cell r="AM14">
-            <v>0</v>
-          </cell>
-          <cell r="AN14">
-            <v>0</v>
-          </cell>
-          <cell r="AO14">
-            <v>0</v>
-          </cell>
-          <cell r="AP14">
-            <v>0</v>
-          </cell>
-          <cell r="AQ14">
-            <v>0</v>
-          </cell>
           <cell r="AR14">
             <v>0</v>
           </cell>
@@ -2979,110 +1622,8 @@
           <cell r="H15">
             <v>6290</v>
           </cell>
-          <cell r="I15">
-            <v>0</v>
-          </cell>
-          <cell r="J15">
-            <v>0</v>
-          </cell>
-          <cell r="K15">
-            <v>0</v>
-          </cell>
-          <cell r="L15">
-            <v>0</v>
-          </cell>
-          <cell r="M15">
-            <v>0</v>
-          </cell>
-          <cell r="N15">
-            <v>0</v>
-          </cell>
-          <cell r="O15">
-            <v>0</v>
-          </cell>
-          <cell r="P15">
-            <v>0</v>
-          </cell>
-          <cell r="Q15">
-            <v>0</v>
-          </cell>
-          <cell r="R15">
-            <v>0</v>
-          </cell>
-          <cell r="S15">
-            <v>0</v>
-          </cell>
-          <cell r="T15">
-            <v>0</v>
-          </cell>
-          <cell r="U15">
-            <v>0</v>
-          </cell>
-          <cell r="V15">
-            <v>0</v>
-          </cell>
-          <cell r="W15">
-            <v>0</v>
-          </cell>
-          <cell r="X15">
-            <v>0</v>
-          </cell>
-          <cell r="Y15">
-            <v>0</v>
-          </cell>
-          <cell r="Z15">
-            <v>0</v>
-          </cell>
-          <cell r="AA15">
-            <v>0</v>
-          </cell>
-          <cell r="AB15">
-            <v>0</v>
-          </cell>
-          <cell r="AC15">
-            <v>0</v>
-          </cell>
-          <cell r="AD15">
-            <v>0</v>
-          </cell>
-          <cell r="AE15">
-            <v>0</v>
-          </cell>
-          <cell r="AF15">
-            <v>0</v>
-          </cell>
-          <cell r="AG15">
-            <v>0</v>
-          </cell>
-          <cell r="AH15">
-            <v>0</v>
-          </cell>
-          <cell r="AI15">
-            <v>0</v>
-          </cell>
-          <cell r="AJ15">
-            <v>0</v>
-          </cell>
-          <cell r="AK15">
-            <v>0</v>
-          </cell>
-          <cell r="AL15">
-            <v>0</v>
-          </cell>
-          <cell r="AM15">
-            <v>0</v>
-          </cell>
-          <cell r="AN15">
-            <v>0</v>
-          </cell>
           <cell r="AO15">
             <v>6290</v>
-          </cell>
-          <cell r="AP15">
-            <v>0</v>
-          </cell>
-          <cell r="AQ15">
-            <v>0</v>
           </cell>
           <cell r="AR15">
             <v>6290</v>
@@ -3116,111 +1657,6 @@
           <cell r="H16">
             <v>103840</v>
           </cell>
-          <cell r="I16">
-            <v>0</v>
-          </cell>
-          <cell r="J16">
-            <v>0</v>
-          </cell>
-          <cell r="K16">
-            <v>0</v>
-          </cell>
-          <cell r="L16">
-            <v>0</v>
-          </cell>
-          <cell r="M16">
-            <v>0</v>
-          </cell>
-          <cell r="N16">
-            <v>0</v>
-          </cell>
-          <cell r="O16">
-            <v>0</v>
-          </cell>
-          <cell r="P16">
-            <v>0</v>
-          </cell>
-          <cell r="Q16">
-            <v>0</v>
-          </cell>
-          <cell r="R16">
-            <v>0</v>
-          </cell>
-          <cell r="S16">
-            <v>0</v>
-          </cell>
-          <cell r="T16">
-            <v>0</v>
-          </cell>
-          <cell r="U16">
-            <v>0</v>
-          </cell>
-          <cell r="V16">
-            <v>0</v>
-          </cell>
-          <cell r="W16">
-            <v>0</v>
-          </cell>
-          <cell r="X16">
-            <v>0</v>
-          </cell>
-          <cell r="Y16">
-            <v>0</v>
-          </cell>
-          <cell r="Z16">
-            <v>0</v>
-          </cell>
-          <cell r="AA16">
-            <v>0</v>
-          </cell>
-          <cell r="AB16">
-            <v>0</v>
-          </cell>
-          <cell r="AC16">
-            <v>0</v>
-          </cell>
-          <cell r="AD16">
-            <v>0</v>
-          </cell>
-          <cell r="AE16">
-            <v>0</v>
-          </cell>
-          <cell r="AF16">
-            <v>0</v>
-          </cell>
-          <cell r="AG16">
-            <v>0</v>
-          </cell>
-          <cell r="AH16">
-            <v>0</v>
-          </cell>
-          <cell r="AI16">
-            <v>0</v>
-          </cell>
-          <cell r="AJ16">
-            <v>0</v>
-          </cell>
-          <cell r="AK16">
-            <v>0</v>
-          </cell>
-          <cell r="AL16">
-            <v>0</v>
-          </cell>
-          <cell r="AM16">
-            <v>0</v>
-          </cell>
-          <cell r="AN16">
-            <v>0</v>
-          </cell>
-          <cell r="AO16">
-            <v>0</v>
-          </cell>
-          <cell r="AP16">
-            <v>0</v>
-          </cell>
-          <cell r="AQ16">
-            <v>0</v>
-          </cell>
           <cell r="AR16">
             <v>0</v>
           </cell>
@@ -3253,111 +1689,6 @@
           <cell r="H17">
             <v>0</v>
           </cell>
-          <cell r="I17">
-            <v>0</v>
-          </cell>
-          <cell r="J17">
-            <v>0</v>
-          </cell>
-          <cell r="K17">
-            <v>0</v>
-          </cell>
-          <cell r="L17">
-            <v>0</v>
-          </cell>
-          <cell r="M17">
-            <v>0</v>
-          </cell>
-          <cell r="N17">
-            <v>0</v>
-          </cell>
-          <cell r="O17">
-            <v>0</v>
-          </cell>
-          <cell r="P17">
-            <v>0</v>
-          </cell>
-          <cell r="Q17">
-            <v>0</v>
-          </cell>
-          <cell r="R17">
-            <v>0</v>
-          </cell>
-          <cell r="S17">
-            <v>0</v>
-          </cell>
-          <cell r="T17">
-            <v>0</v>
-          </cell>
-          <cell r="U17">
-            <v>0</v>
-          </cell>
-          <cell r="V17">
-            <v>0</v>
-          </cell>
-          <cell r="W17">
-            <v>0</v>
-          </cell>
-          <cell r="X17">
-            <v>0</v>
-          </cell>
-          <cell r="Y17">
-            <v>0</v>
-          </cell>
-          <cell r="Z17">
-            <v>0</v>
-          </cell>
-          <cell r="AA17">
-            <v>0</v>
-          </cell>
-          <cell r="AB17">
-            <v>0</v>
-          </cell>
-          <cell r="AC17">
-            <v>0</v>
-          </cell>
-          <cell r="AD17">
-            <v>0</v>
-          </cell>
-          <cell r="AE17">
-            <v>0</v>
-          </cell>
-          <cell r="AF17">
-            <v>0</v>
-          </cell>
-          <cell r="AG17">
-            <v>0</v>
-          </cell>
-          <cell r="AH17">
-            <v>0</v>
-          </cell>
-          <cell r="AI17">
-            <v>0</v>
-          </cell>
-          <cell r="AJ17">
-            <v>0</v>
-          </cell>
-          <cell r="AK17">
-            <v>0</v>
-          </cell>
-          <cell r="AL17">
-            <v>0</v>
-          </cell>
-          <cell r="AM17">
-            <v>0</v>
-          </cell>
-          <cell r="AN17">
-            <v>0</v>
-          </cell>
-          <cell r="AO17">
-            <v>0</v>
-          </cell>
-          <cell r="AP17">
-            <v>0</v>
-          </cell>
-          <cell r="AQ17">
-            <v>0</v>
-          </cell>
           <cell r="AR17">
             <v>0</v>
           </cell>
@@ -3390,111 +1721,6 @@
           <cell r="H18">
             <v>0</v>
           </cell>
-          <cell r="I18">
-            <v>0</v>
-          </cell>
-          <cell r="J18">
-            <v>0</v>
-          </cell>
-          <cell r="K18">
-            <v>0</v>
-          </cell>
-          <cell r="L18">
-            <v>0</v>
-          </cell>
-          <cell r="M18">
-            <v>0</v>
-          </cell>
-          <cell r="N18">
-            <v>0</v>
-          </cell>
-          <cell r="O18">
-            <v>0</v>
-          </cell>
-          <cell r="P18">
-            <v>0</v>
-          </cell>
-          <cell r="Q18">
-            <v>0</v>
-          </cell>
-          <cell r="R18">
-            <v>0</v>
-          </cell>
-          <cell r="S18">
-            <v>0</v>
-          </cell>
-          <cell r="T18">
-            <v>0</v>
-          </cell>
-          <cell r="U18">
-            <v>0</v>
-          </cell>
-          <cell r="V18">
-            <v>0</v>
-          </cell>
-          <cell r="W18">
-            <v>0</v>
-          </cell>
-          <cell r="X18">
-            <v>0</v>
-          </cell>
-          <cell r="Y18">
-            <v>0</v>
-          </cell>
-          <cell r="Z18">
-            <v>0</v>
-          </cell>
-          <cell r="AA18">
-            <v>0</v>
-          </cell>
-          <cell r="AB18">
-            <v>0</v>
-          </cell>
-          <cell r="AC18">
-            <v>0</v>
-          </cell>
-          <cell r="AD18">
-            <v>0</v>
-          </cell>
-          <cell r="AE18">
-            <v>0</v>
-          </cell>
-          <cell r="AF18">
-            <v>0</v>
-          </cell>
-          <cell r="AG18">
-            <v>0</v>
-          </cell>
-          <cell r="AH18">
-            <v>0</v>
-          </cell>
-          <cell r="AI18">
-            <v>0</v>
-          </cell>
-          <cell r="AJ18">
-            <v>0</v>
-          </cell>
-          <cell r="AK18">
-            <v>0</v>
-          </cell>
-          <cell r="AL18">
-            <v>0</v>
-          </cell>
-          <cell r="AM18">
-            <v>0</v>
-          </cell>
-          <cell r="AN18">
-            <v>0</v>
-          </cell>
-          <cell r="AO18">
-            <v>0</v>
-          </cell>
-          <cell r="AP18">
-            <v>0</v>
-          </cell>
-          <cell r="AQ18">
-            <v>0</v>
-          </cell>
           <cell r="AR18">
             <v>0</v>
           </cell>
@@ -3527,110 +1753,8 @@
           <cell r="H19">
             <v>46090</v>
           </cell>
-          <cell r="I19">
-            <v>0</v>
-          </cell>
-          <cell r="J19">
-            <v>0</v>
-          </cell>
-          <cell r="K19">
-            <v>0</v>
-          </cell>
-          <cell r="L19">
-            <v>0</v>
-          </cell>
-          <cell r="M19">
-            <v>0</v>
-          </cell>
-          <cell r="N19">
-            <v>0</v>
-          </cell>
-          <cell r="O19">
-            <v>0</v>
-          </cell>
-          <cell r="P19">
-            <v>0</v>
-          </cell>
-          <cell r="Q19">
-            <v>0</v>
-          </cell>
-          <cell r="R19">
-            <v>0</v>
-          </cell>
-          <cell r="S19">
-            <v>0</v>
-          </cell>
-          <cell r="T19">
-            <v>0</v>
-          </cell>
-          <cell r="U19">
-            <v>0</v>
-          </cell>
-          <cell r="V19">
-            <v>0</v>
-          </cell>
-          <cell r="W19">
-            <v>0</v>
-          </cell>
-          <cell r="X19">
-            <v>0</v>
-          </cell>
-          <cell r="Y19">
-            <v>0</v>
-          </cell>
-          <cell r="Z19">
-            <v>0</v>
-          </cell>
-          <cell r="AA19">
-            <v>0</v>
-          </cell>
-          <cell r="AB19">
-            <v>0</v>
-          </cell>
-          <cell r="AC19">
-            <v>0</v>
-          </cell>
-          <cell r="AD19">
-            <v>0</v>
-          </cell>
-          <cell r="AE19">
-            <v>0</v>
-          </cell>
-          <cell r="AF19">
-            <v>0</v>
-          </cell>
-          <cell r="AG19">
-            <v>0</v>
-          </cell>
-          <cell r="AH19">
-            <v>0</v>
-          </cell>
-          <cell r="AI19">
-            <v>0</v>
-          </cell>
-          <cell r="AJ19">
-            <v>0</v>
-          </cell>
-          <cell r="AK19">
-            <v>0</v>
-          </cell>
-          <cell r="AL19">
-            <v>0</v>
-          </cell>
           <cell r="AM19">
             <v>46090</v>
-          </cell>
-          <cell r="AN19">
-            <v>0</v>
-          </cell>
-          <cell r="AO19">
-            <v>0</v>
-          </cell>
-          <cell r="AP19">
-            <v>0</v>
-          </cell>
-          <cell r="AQ19">
-            <v>0</v>
           </cell>
           <cell r="AR19">
             <v>46090</v>
@@ -3664,110 +1788,8 @@
           <cell r="H20">
             <v>25060</v>
           </cell>
-          <cell r="I20">
-            <v>0</v>
-          </cell>
-          <cell r="J20">
-            <v>0</v>
-          </cell>
-          <cell r="K20">
-            <v>0</v>
-          </cell>
-          <cell r="L20">
-            <v>0</v>
-          </cell>
-          <cell r="M20">
-            <v>0</v>
-          </cell>
-          <cell r="N20">
-            <v>0</v>
-          </cell>
-          <cell r="O20">
-            <v>0</v>
-          </cell>
-          <cell r="P20">
-            <v>0</v>
-          </cell>
-          <cell r="Q20">
-            <v>0</v>
-          </cell>
-          <cell r="R20">
-            <v>0</v>
-          </cell>
-          <cell r="S20">
-            <v>0</v>
-          </cell>
-          <cell r="T20">
-            <v>0</v>
-          </cell>
-          <cell r="U20">
-            <v>0</v>
-          </cell>
-          <cell r="V20">
-            <v>0</v>
-          </cell>
-          <cell r="W20">
-            <v>0</v>
-          </cell>
-          <cell r="X20">
-            <v>0</v>
-          </cell>
-          <cell r="Y20">
-            <v>0</v>
-          </cell>
-          <cell r="Z20">
-            <v>0</v>
-          </cell>
-          <cell r="AA20">
-            <v>0</v>
-          </cell>
-          <cell r="AB20">
-            <v>0</v>
-          </cell>
-          <cell r="AC20">
-            <v>0</v>
-          </cell>
-          <cell r="AD20">
-            <v>0</v>
-          </cell>
-          <cell r="AE20">
-            <v>0</v>
-          </cell>
-          <cell r="AF20">
-            <v>0</v>
-          </cell>
-          <cell r="AG20">
-            <v>0</v>
-          </cell>
-          <cell r="AH20">
-            <v>0</v>
-          </cell>
-          <cell r="AI20">
-            <v>0</v>
-          </cell>
-          <cell r="AJ20">
-            <v>0</v>
-          </cell>
-          <cell r="AK20">
-            <v>0</v>
-          </cell>
-          <cell r="AL20">
-            <v>0</v>
-          </cell>
-          <cell r="AM20">
-            <v>0</v>
-          </cell>
           <cell r="AN20">
             <v>25080</v>
-          </cell>
-          <cell r="AO20">
-            <v>0</v>
-          </cell>
-          <cell r="AP20">
-            <v>0</v>
-          </cell>
-          <cell r="AQ20">
-            <v>0</v>
           </cell>
           <cell r="AR20">
             <v>25080</v>
@@ -3801,110 +1823,8 @@
           <cell r="H21">
             <v>23870</v>
           </cell>
-          <cell r="I21">
-            <v>0</v>
-          </cell>
-          <cell r="J21">
-            <v>0</v>
-          </cell>
-          <cell r="K21">
-            <v>0</v>
-          </cell>
-          <cell r="L21">
-            <v>0</v>
-          </cell>
-          <cell r="M21">
-            <v>0</v>
-          </cell>
-          <cell r="N21">
-            <v>0</v>
-          </cell>
-          <cell r="O21">
-            <v>0</v>
-          </cell>
-          <cell r="P21">
-            <v>0</v>
-          </cell>
-          <cell r="Q21">
-            <v>0</v>
-          </cell>
-          <cell r="R21">
-            <v>0</v>
-          </cell>
-          <cell r="S21">
-            <v>0</v>
-          </cell>
-          <cell r="T21">
-            <v>0</v>
-          </cell>
-          <cell r="U21">
-            <v>0</v>
-          </cell>
-          <cell r="V21">
-            <v>0</v>
-          </cell>
-          <cell r="W21">
-            <v>0</v>
-          </cell>
-          <cell r="X21">
-            <v>0</v>
-          </cell>
-          <cell r="Y21">
-            <v>0</v>
-          </cell>
-          <cell r="Z21">
-            <v>0</v>
-          </cell>
-          <cell r="AA21">
-            <v>0</v>
-          </cell>
-          <cell r="AB21">
-            <v>0</v>
-          </cell>
-          <cell r="AC21">
-            <v>0</v>
-          </cell>
-          <cell r="AD21">
-            <v>0</v>
-          </cell>
-          <cell r="AE21">
-            <v>0</v>
-          </cell>
-          <cell r="AF21">
-            <v>0</v>
-          </cell>
-          <cell r="AG21">
-            <v>0</v>
-          </cell>
-          <cell r="AH21">
-            <v>0</v>
-          </cell>
-          <cell r="AI21">
-            <v>0</v>
-          </cell>
-          <cell r="AJ21">
-            <v>0</v>
-          </cell>
-          <cell r="AK21">
-            <v>0</v>
-          </cell>
-          <cell r="AL21">
-            <v>0</v>
-          </cell>
-          <cell r="AM21">
-            <v>0</v>
-          </cell>
-          <cell r="AN21">
-            <v>0</v>
-          </cell>
           <cell r="AO21">
             <v>20000</v>
-          </cell>
-          <cell r="AP21">
-            <v>0</v>
-          </cell>
-          <cell r="AQ21">
-            <v>0</v>
           </cell>
           <cell r="AR21">
             <v>20000</v>
@@ -3938,110 +1858,8 @@
           <cell r="H22">
             <v>24890</v>
           </cell>
-          <cell r="I22">
-            <v>0</v>
-          </cell>
-          <cell r="J22">
-            <v>0</v>
-          </cell>
-          <cell r="K22">
-            <v>0</v>
-          </cell>
-          <cell r="L22">
-            <v>0</v>
-          </cell>
-          <cell r="M22">
-            <v>0</v>
-          </cell>
-          <cell r="N22">
-            <v>0</v>
-          </cell>
-          <cell r="O22">
-            <v>0</v>
-          </cell>
-          <cell r="P22">
-            <v>0</v>
-          </cell>
-          <cell r="Q22">
-            <v>0</v>
-          </cell>
-          <cell r="R22">
-            <v>0</v>
-          </cell>
-          <cell r="S22">
-            <v>0</v>
-          </cell>
-          <cell r="T22">
-            <v>0</v>
-          </cell>
-          <cell r="U22">
-            <v>0</v>
-          </cell>
-          <cell r="V22">
-            <v>0</v>
-          </cell>
-          <cell r="W22">
-            <v>0</v>
-          </cell>
-          <cell r="X22">
-            <v>0</v>
-          </cell>
-          <cell r="Y22">
-            <v>0</v>
-          </cell>
-          <cell r="Z22">
-            <v>0</v>
-          </cell>
-          <cell r="AA22">
-            <v>0</v>
-          </cell>
-          <cell r="AB22">
-            <v>0</v>
-          </cell>
-          <cell r="AC22">
-            <v>0</v>
-          </cell>
-          <cell r="AD22">
-            <v>0</v>
-          </cell>
-          <cell r="AE22">
-            <v>0</v>
-          </cell>
-          <cell r="AF22">
-            <v>0</v>
-          </cell>
-          <cell r="AG22">
-            <v>0</v>
-          </cell>
-          <cell r="AH22">
-            <v>0</v>
-          </cell>
-          <cell r="AI22">
-            <v>0</v>
-          </cell>
-          <cell r="AJ22">
-            <v>0</v>
-          </cell>
-          <cell r="AK22">
-            <v>0</v>
-          </cell>
-          <cell r="AL22">
-            <v>0</v>
-          </cell>
           <cell r="AM22">
             <v>23000</v>
-          </cell>
-          <cell r="AN22">
-            <v>0</v>
-          </cell>
-          <cell r="AO22">
-            <v>0</v>
-          </cell>
-          <cell r="AP22">
-            <v>0</v>
-          </cell>
-          <cell r="AQ22">
-            <v>0</v>
           </cell>
           <cell r="AR22">
             <v>23000</v>
@@ -4075,111 +1893,6 @@
           <cell r="H23">
             <v>3300</v>
           </cell>
-          <cell r="I23">
-            <v>0</v>
-          </cell>
-          <cell r="J23">
-            <v>0</v>
-          </cell>
-          <cell r="K23">
-            <v>0</v>
-          </cell>
-          <cell r="L23">
-            <v>0</v>
-          </cell>
-          <cell r="M23">
-            <v>0</v>
-          </cell>
-          <cell r="N23">
-            <v>0</v>
-          </cell>
-          <cell r="O23">
-            <v>0</v>
-          </cell>
-          <cell r="P23">
-            <v>0</v>
-          </cell>
-          <cell r="Q23">
-            <v>0</v>
-          </cell>
-          <cell r="R23">
-            <v>0</v>
-          </cell>
-          <cell r="S23">
-            <v>0</v>
-          </cell>
-          <cell r="T23">
-            <v>0</v>
-          </cell>
-          <cell r="U23">
-            <v>0</v>
-          </cell>
-          <cell r="V23">
-            <v>0</v>
-          </cell>
-          <cell r="W23">
-            <v>0</v>
-          </cell>
-          <cell r="X23">
-            <v>0</v>
-          </cell>
-          <cell r="Y23">
-            <v>0</v>
-          </cell>
-          <cell r="Z23">
-            <v>0</v>
-          </cell>
-          <cell r="AA23">
-            <v>0</v>
-          </cell>
-          <cell r="AB23">
-            <v>0</v>
-          </cell>
-          <cell r="AC23">
-            <v>0</v>
-          </cell>
-          <cell r="AD23">
-            <v>0</v>
-          </cell>
-          <cell r="AE23">
-            <v>0</v>
-          </cell>
-          <cell r="AF23">
-            <v>0</v>
-          </cell>
-          <cell r="AG23">
-            <v>0</v>
-          </cell>
-          <cell r="AH23">
-            <v>0</v>
-          </cell>
-          <cell r="AI23">
-            <v>0</v>
-          </cell>
-          <cell r="AJ23">
-            <v>0</v>
-          </cell>
-          <cell r="AK23">
-            <v>0</v>
-          </cell>
-          <cell r="AL23">
-            <v>0</v>
-          </cell>
-          <cell r="AM23">
-            <v>0</v>
-          </cell>
-          <cell r="AN23">
-            <v>0</v>
-          </cell>
-          <cell r="AO23">
-            <v>0</v>
-          </cell>
-          <cell r="AP23">
-            <v>0</v>
-          </cell>
-          <cell r="AQ23">
-            <v>0</v>
-          </cell>
           <cell r="AR23">
             <v>0</v>
           </cell>
@@ -4212,111 +1925,6 @@
           <cell r="H24">
             <v>240</v>
           </cell>
-          <cell r="I24">
-            <v>0</v>
-          </cell>
-          <cell r="J24">
-            <v>0</v>
-          </cell>
-          <cell r="K24">
-            <v>0</v>
-          </cell>
-          <cell r="L24">
-            <v>0</v>
-          </cell>
-          <cell r="M24">
-            <v>0</v>
-          </cell>
-          <cell r="N24">
-            <v>0</v>
-          </cell>
-          <cell r="O24">
-            <v>0</v>
-          </cell>
-          <cell r="P24">
-            <v>0</v>
-          </cell>
-          <cell r="Q24">
-            <v>0</v>
-          </cell>
-          <cell r="R24">
-            <v>0</v>
-          </cell>
-          <cell r="S24">
-            <v>0</v>
-          </cell>
-          <cell r="T24">
-            <v>0</v>
-          </cell>
-          <cell r="U24">
-            <v>0</v>
-          </cell>
-          <cell r="V24">
-            <v>0</v>
-          </cell>
-          <cell r="W24">
-            <v>0</v>
-          </cell>
-          <cell r="X24">
-            <v>0</v>
-          </cell>
-          <cell r="Y24">
-            <v>0</v>
-          </cell>
-          <cell r="Z24">
-            <v>0</v>
-          </cell>
-          <cell r="AA24">
-            <v>0</v>
-          </cell>
-          <cell r="AB24">
-            <v>0</v>
-          </cell>
-          <cell r="AC24">
-            <v>0</v>
-          </cell>
-          <cell r="AD24">
-            <v>0</v>
-          </cell>
-          <cell r="AE24">
-            <v>0</v>
-          </cell>
-          <cell r="AF24">
-            <v>0</v>
-          </cell>
-          <cell r="AG24">
-            <v>0</v>
-          </cell>
-          <cell r="AH24">
-            <v>0</v>
-          </cell>
-          <cell r="AI24">
-            <v>0</v>
-          </cell>
-          <cell r="AJ24">
-            <v>0</v>
-          </cell>
-          <cell r="AK24">
-            <v>0</v>
-          </cell>
-          <cell r="AL24">
-            <v>0</v>
-          </cell>
-          <cell r="AM24">
-            <v>0</v>
-          </cell>
-          <cell r="AN24">
-            <v>0</v>
-          </cell>
-          <cell r="AO24">
-            <v>0</v>
-          </cell>
-          <cell r="AP24">
-            <v>0</v>
-          </cell>
-          <cell r="AQ24">
-            <v>0</v>
-          </cell>
           <cell r="AR24">
             <v>0</v>
           </cell>
@@ -4349,111 +1957,6 @@
           <cell r="H25">
             <v>630</v>
           </cell>
-          <cell r="I25">
-            <v>0</v>
-          </cell>
-          <cell r="J25">
-            <v>0</v>
-          </cell>
-          <cell r="K25">
-            <v>0</v>
-          </cell>
-          <cell r="L25">
-            <v>0</v>
-          </cell>
-          <cell r="M25">
-            <v>0</v>
-          </cell>
-          <cell r="N25">
-            <v>0</v>
-          </cell>
-          <cell r="O25">
-            <v>0</v>
-          </cell>
-          <cell r="P25">
-            <v>0</v>
-          </cell>
-          <cell r="Q25">
-            <v>0</v>
-          </cell>
-          <cell r="R25">
-            <v>0</v>
-          </cell>
-          <cell r="S25">
-            <v>0</v>
-          </cell>
-          <cell r="T25">
-            <v>0</v>
-          </cell>
-          <cell r="U25">
-            <v>0</v>
-          </cell>
-          <cell r="V25">
-            <v>0</v>
-          </cell>
-          <cell r="W25">
-            <v>0</v>
-          </cell>
-          <cell r="X25">
-            <v>0</v>
-          </cell>
-          <cell r="Y25">
-            <v>0</v>
-          </cell>
-          <cell r="Z25">
-            <v>0</v>
-          </cell>
-          <cell r="AA25">
-            <v>0</v>
-          </cell>
-          <cell r="AB25">
-            <v>0</v>
-          </cell>
-          <cell r="AC25">
-            <v>0</v>
-          </cell>
-          <cell r="AD25">
-            <v>0</v>
-          </cell>
-          <cell r="AE25">
-            <v>0</v>
-          </cell>
-          <cell r="AF25">
-            <v>0</v>
-          </cell>
-          <cell r="AG25">
-            <v>0</v>
-          </cell>
-          <cell r="AH25">
-            <v>0</v>
-          </cell>
-          <cell r="AI25">
-            <v>0</v>
-          </cell>
-          <cell r="AJ25">
-            <v>0</v>
-          </cell>
-          <cell r="AK25">
-            <v>0</v>
-          </cell>
-          <cell r="AL25">
-            <v>0</v>
-          </cell>
-          <cell r="AM25">
-            <v>0</v>
-          </cell>
-          <cell r="AN25">
-            <v>0</v>
-          </cell>
-          <cell r="AO25">
-            <v>0</v>
-          </cell>
-          <cell r="AP25">
-            <v>0</v>
-          </cell>
-          <cell r="AQ25">
-            <v>0</v>
-          </cell>
           <cell r="AR25">
             <v>0</v>
           </cell>
@@ -4486,110 +1989,8 @@
           <cell r="H26">
             <v>8240</v>
           </cell>
-          <cell r="I26">
-            <v>0</v>
-          </cell>
           <cell r="J26">
             <v>2280</v>
-          </cell>
-          <cell r="K26">
-            <v>0</v>
-          </cell>
-          <cell r="L26">
-            <v>0</v>
-          </cell>
-          <cell r="M26">
-            <v>0</v>
-          </cell>
-          <cell r="N26">
-            <v>0</v>
-          </cell>
-          <cell r="O26">
-            <v>0</v>
-          </cell>
-          <cell r="P26">
-            <v>0</v>
-          </cell>
-          <cell r="Q26">
-            <v>0</v>
-          </cell>
-          <cell r="R26">
-            <v>0</v>
-          </cell>
-          <cell r="S26">
-            <v>0</v>
-          </cell>
-          <cell r="T26">
-            <v>0</v>
-          </cell>
-          <cell r="U26">
-            <v>0</v>
-          </cell>
-          <cell r="V26">
-            <v>0</v>
-          </cell>
-          <cell r="W26">
-            <v>0</v>
-          </cell>
-          <cell r="X26">
-            <v>0</v>
-          </cell>
-          <cell r="Y26">
-            <v>0</v>
-          </cell>
-          <cell r="Z26">
-            <v>0</v>
-          </cell>
-          <cell r="AA26">
-            <v>0</v>
-          </cell>
-          <cell r="AB26">
-            <v>0</v>
-          </cell>
-          <cell r="AC26">
-            <v>0</v>
-          </cell>
-          <cell r="AD26">
-            <v>0</v>
-          </cell>
-          <cell r="AE26">
-            <v>0</v>
-          </cell>
-          <cell r="AF26">
-            <v>0</v>
-          </cell>
-          <cell r="AG26">
-            <v>0</v>
-          </cell>
-          <cell r="AH26">
-            <v>0</v>
-          </cell>
-          <cell r="AI26">
-            <v>0</v>
-          </cell>
-          <cell r="AJ26">
-            <v>0</v>
-          </cell>
-          <cell r="AK26">
-            <v>0</v>
-          </cell>
-          <cell r="AL26">
-            <v>0</v>
-          </cell>
-          <cell r="AM26">
-            <v>0</v>
-          </cell>
-          <cell r="AN26">
-            <v>0</v>
-          </cell>
-          <cell r="AO26">
-            <v>0</v>
-          </cell>
-          <cell r="AP26">
-            <v>0</v>
-          </cell>
-          <cell r="AQ26">
-            <v>0</v>
           </cell>
           <cell r="AR26">
             <v>2280</v>
@@ -4623,111 +2024,6 @@
           <cell r="H27">
             <v>21100</v>
           </cell>
-          <cell r="I27">
-            <v>0</v>
-          </cell>
-          <cell r="J27">
-            <v>0</v>
-          </cell>
-          <cell r="K27">
-            <v>0</v>
-          </cell>
-          <cell r="L27">
-            <v>0</v>
-          </cell>
-          <cell r="M27">
-            <v>0</v>
-          </cell>
-          <cell r="N27">
-            <v>0</v>
-          </cell>
-          <cell r="O27">
-            <v>0</v>
-          </cell>
-          <cell r="P27">
-            <v>0</v>
-          </cell>
-          <cell r="Q27">
-            <v>0</v>
-          </cell>
-          <cell r="R27">
-            <v>0</v>
-          </cell>
-          <cell r="S27">
-            <v>0</v>
-          </cell>
-          <cell r="T27">
-            <v>0</v>
-          </cell>
-          <cell r="U27">
-            <v>0</v>
-          </cell>
-          <cell r="V27">
-            <v>0</v>
-          </cell>
-          <cell r="W27">
-            <v>0</v>
-          </cell>
-          <cell r="X27">
-            <v>0</v>
-          </cell>
-          <cell r="Y27">
-            <v>0</v>
-          </cell>
-          <cell r="Z27">
-            <v>0</v>
-          </cell>
-          <cell r="AA27">
-            <v>0</v>
-          </cell>
-          <cell r="AB27">
-            <v>0</v>
-          </cell>
-          <cell r="AC27">
-            <v>0</v>
-          </cell>
-          <cell r="AD27">
-            <v>0</v>
-          </cell>
-          <cell r="AE27">
-            <v>0</v>
-          </cell>
-          <cell r="AF27">
-            <v>0</v>
-          </cell>
-          <cell r="AG27">
-            <v>0</v>
-          </cell>
-          <cell r="AH27">
-            <v>0</v>
-          </cell>
-          <cell r="AI27">
-            <v>0</v>
-          </cell>
-          <cell r="AJ27">
-            <v>0</v>
-          </cell>
-          <cell r="AK27">
-            <v>0</v>
-          </cell>
-          <cell r="AL27">
-            <v>0</v>
-          </cell>
-          <cell r="AM27">
-            <v>0</v>
-          </cell>
-          <cell r="AN27">
-            <v>0</v>
-          </cell>
-          <cell r="AO27">
-            <v>0</v>
-          </cell>
-          <cell r="AP27">
-            <v>0</v>
-          </cell>
-          <cell r="AQ27">
-            <v>0</v>
-          </cell>
           <cell r="AR27">
             <v>0</v>
           </cell>
@@ -4760,110 +2056,8 @@
           <cell r="H28">
             <v>41930</v>
           </cell>
-          <cell r="I28">
-            <v>0</v>
-          </cell>
-          <cell r="J28">
-            <v>0</v>
-          </cell>
-          <cell r="K28">
-            <v>0</v>
-          </cell>
-          <cell r="L28">
-            <v>0</v>
-          </cell>
-          <cell r="M28">
-            <v>0</v>
-          </cell>
-          <cell r="N28">
-            <v>0</v>
-          </cell>
-          <cell r="O28">
-            <v>0</v>
-          </cell>
-          <cell r="P28">
-            <v>0</v>
-          </cell>
-          <cell r="Q28">
-            <v>0</v>
-          </cell>
-          <cell r="R28">
-            <v>0</v>
-          </cell>
-          <cell r="S28">
-            <v>0</v>
-          </cell>
-          <cell r="T28">
-            <v>0</v>
-          </cell>
-          <cell r="U28">
-            <v>0</v>
-          </cell>
-          <cell r="V28">
-            <v>0</v>
-          </cell>
-          <cell r="W28">
-            <v>0</v>
-          </cell>
-          <cell r="X28">
-            <v>0</v>
-          </cell>
-          <cell r="Y28">
-            <v>0</v>
-          </cell>
-          <cell r="Z28">
-            <v>0</v>
-          </cell>
-          <cell r="AA28">
-            <v>0</v>
-          </cell>
-          <cell r="AB28">
-            <v>0</v>
-          </cell>
-          <cell r="AC28">
-            <v>0</v>
-          </cell>
-          <cell r="AD28">
-            <v>0</v>
-          </cell>
-          <cell r="AE28">
-            <v>0</v>
-          </cell>
-          <cell r="AF28">
-            <v>0</v>
-          </cell>
-          <cell r="AG28">
-            <v>0</v>
-          </cell>
-          <cell r="AH28">
-            <v>0</v>
-          </cell>
-          <cell r="AI28">
-            <v>0</v>
-          </cell>
-          <cell r="AJ28">
-            <v>0</v>
-          </cell>
-          <cell r="AK28">
-            <v>0</v>
-          </cell>
-          <cell r="AL28">
-            <v>0</v>
-          </cell>
           <cell r="AM28">
             <v>42000</v>
-          </cell>
-          <cell r="AN28">
-            <v>0</v>
-          </cell>
-          <cell r="AO28">
-            <v>0</v>
-          </cell>
-          <cell r="AP28">
-            <v>0</v>
-          </cell>
-          <cell r="AQ28">
-            <v>0</v>
           </cell>
           <cell r="AR28">
             <v>42000</v>
@@ -4897,110 +2091,8 @@
           <cell r="H29">
             <v>81400</v>
           </cell>
-          <cell r="I29">
-            <v>0</v>
-          </cell>
-          <cell r="J29">
-            <v>0</v>
-          </cell>
-          <cell r="K29">
-            <v>0</v>
-          </cell>
-          <cell r="L29">
-            <v>0</v>
-          </cell>
-          <cell r="M29">
-            <v>0</v>
-          </cell>
-          <cell r="N29">
-            <v>0</v>
-          </cell>
-          <cell r="O29">
-            <v>0</v>
-          </cell>
-          <cell r="P29">
-            <v>0</v>
-          </cell>
-          <cell r="Q29">
-            <v>0</v>
-          </cell>
-          <cell r="R29">
-            <v>0</v>
-          </cell>
-          <cell r="S29">
-            <v>0</v>
-          </cell>
-          <cell r="T29">
-            <v>0</v>
-          </cell>
-          <cell r="U29">
-            <v>0</v>
-          </cell>
-          <cell r="V29">
-            <v>0</v>
-          </cell>
-          <cell r="W29">
-            <v>0</v>
-          </cell>
-          <cell r="X29">
-            <v>0</v>
-          </cell>
-          <cell r="Y29">
-            <v>0</v>
-          </cell>
-          <cell r="Z29">
-            <v>0</v>
-          </cell>
-          <cell r="AA29">
-            <v>0</v>
-          </cell>
-          <cell r="AB29">
-            <v>0</v>
-          </cell>
-          <cell r="AC29">
-            <v>0</v>
-          </cell>
-          <cell r="AD29">
-            <v>0</v>
-          </cell>
-          <cell r="AE29">
-            <v>0</v>
-          </cell>
-          <cell r="AF29">
-            <v>0</v>
-          </cell>
-          <cell r="AG29">
-            <v>0</v>
-          </cell>
-          <cell r="AH29">
-            <v>0</v>
-          </cell>
-          <cell r="AI29">
-            <v>0</v>
-          </cell>
-          <cell r="AJ29">
-            <v>0</v>
-          </cell>
-          <cell r="AK29">
-            <v>0</v>
-          </cell>
-          <cell r="AL29">
-            <v>0</v>
-          </cell>
           <cell r="AM29">
             <v>72000</v>
-          </cell>
-          <cell r="AN29">
-            <v>0</v>
-          </cell>
-          <cell r="AO29">
-            <v>0</v>
-          </cell>
-          <cell r="AP29">
-            <v>0</v>
-          </cell>
-          <cell r="AQ29">
-            <v>0</v>
           </cell>
           <cell r="AR29">
             <v>72000</v>
@@ -5034,110 +2126,8 @@
           <cell r="H30">
             <v>32190</v>
           </cell>
-          <cell r="I30">
-            <v>0</v>
-          </cell>
-          <cell r="J30">
-            <v>0</v>
-          </cell>
           <cell r="K30">
             <v>11500</v>
-          </cell>
-          <cell r="L30">
-            <v>0</v>
-          </cell>
-          <cell r="M30">
-            <v>0</v>
-          </cell>
-          <cell r="N30">
-            <v>0</v>
-          </cell>
-          <cell r="O30">
-            <v>0</v>
-          </cell>
-          <cell r="P30">
-            <v>0</v>
-          </cell>
-          <cell r="Q30">
-            <v>0</v>
-          </cell>
-          <cell r="R30">
-            <v>0</v>
-          </cell>
-          <cell r="S30">
-            <v>0</v>
-          </cell>
-          <cell r="T30">
-            <v>0</v>
-          </cell>
-          <cell r="U30">
-            <v>0</v>
-          </cell>
-          <cell r="V30">
-            <v>0</v>
-          </cell>
-          <cell r="W30">
-            <v>0</v>
-          </cell>
-          <cell r="X30">
-            <v>0</v>
-          </cell>
-          <cell r="Y30">
-            <v>0</v>
-          </cell>
-          <cell r="Z30">
-            <v>0</v>
-          </cell>
-          <cell r="AA30">
-            <v>0</v>
-          </cell>
-          <cell r="AB30">
-            <v>0</v>
-          </cell>
-          <cell r="AC30">
-            <v>0</v>
-          </cell>
-          <cell r="AD30">
-            <v>0</v>
-          </cell>
-          <cell r="AE30">
-            <v>0</v>
-          </cell>
-          <cell r="AF30">
-            <v>0</v>
-          </cell>
-          <cell r="AG30">
-            <v>0</v>
-          </cell>
-          <cell r="AH30">
-            <v>0</v>
-          </cell>
-          <cell r="AI30">
-            <v>0</v>
-          </cell>
-          <cell r="AJ30">
-            <v>0</v>
-          </cell>
-          <cell r="AK30">
-            <v>0</v>
-          </cell>
-          <cell r="AL30">
-            <v>0</v>
-          </cell>
-          <cell r="AM30">
-            <v>0</v>
-          </cell>
-          <cell r="AN30">
-            <v>0</v>
-          </cell>
-          <cell r="AO30">
-            <v>0</v>
-          </cell>
-          <cell r="AP30">
-            <v>0</v>
-          </cell>
-          <cell r="AQ30">
-            <v>0</v>
           </cell>
           <cell r="AR30">
             <v>11500</v>
@@ -5171,111 +2161,6 @@
           <cell r="H31">
             <v>49880</v>
           </cell>
-          <cell r="I31">
-            <v>0</v>
-          </cell>
-          <cell r="J31">
-            <v>0</v>
-          </cell>
-          <cell r="K31">
-            <v>0</v>
-          </cell>
-          <cell r="L31">
-            <v>0</v>
-          </cell>
-          <cell r="M31">
-            <v>0</v>
-          </cell>
-          <cell r="N31">
-            <v>0</v>
-          </cell>
-          <cell r="O31">
-            <v>0</v>
-          </cell>
-          <cell r="P31">
-            <v>0</v>
-          </cell>
-          <cell r="Q31">
-            <v>0</v>
-          </cell>
-          <cell r="R31">
-            <v>0</v>
-          </cell>
-          <cell r="S31">
-            <v>0</v>
-          </cell>
-          <cell r="T31">
-            <v>0</v>
-          </cell>
-          <cell r="U31">
-            <v>0</v>
-          </cell>
-          <cell r="V31">
-            <v>0</v>
-          </cell>
-          <cell r="W31">
-            <v>0</v>
-          </cell>
-          <cell r="X31">
-            <v>0</v>
-          </cell>
-          <cell r="Y31">
-            <v>0</v>
-          </cell>
-          <cell r="Z31">
-            <v>0</v>
-          </cell>
-          <cell r="AA31">
-            <v>0</v>
-          </cell>
-          <cell r="AB31">
-            <v>0</v>
-          </cell>
-          <cell r="AC31">
-            <v>0</v>
-          </cell>
-          <cell r="AD31">
-            <v>0</v>
-          </cell>
-          <cell r="AE31">
-            <v>0</v>
-          </cell>
-          <cell r="AF31">
-            <v>0</v>
-          </cell>
-          <cell r="AG31">
-            <v>0</v>
-          </cell>
-          <cell r="AH31">
-            <v>0</v>
-          </cell>
-          <cell r="AI31">
-            <v>0</v>
-          </cell>
-          <cell r="AJ31">
-            <v>0</v>
-          </cell>
-          <cell r="AK31">
-            <v>0</v>
-          </cell>
-          <cell r="AL31">
-            <v>0</v>
-          </cell>
-          <cell r="AM31">
-            <v>0</v>
-          </cell>
-          <cell r="AN31">
-            <v>0</v>
-          </cell>
-          <cell r="AO31">
-            <v>0</v>
-          </cell>
-          <cell r="AP31">
-            <v>0</v>
-          </cell>
-          <cell r="AQ31">
-            <v>0</v>
-          </cell>
           <cell r="AR31">
             <v>0</v>
           </cell>
@@ -5308,111 +2193,6 @@
           <cell r="H32">
             <v>10</v>
           </cell>
-          <cell r="I32">
-            <v>0</v>
-          </cell>
-          <cell r="J32">
-            <v>0</v>
-          </cell>
-          <cell r="K32">
-            <v>0</v>
-          </cell>
-          <cell r="L32">
-            <v>0</v>
-          </cell>
-          <cell r="M32">
-            <v>0</v>
-          </cell>
-          <cell r="N32">
-            <v>0</v>
-          </cell>
-          <cell r="O32">
-            <v>0</v>
-          </cell>
-          <cell r="P32">
-            <v>0</v>
-          </cell>
-          <cell r="Q32">
-            <v>0</v>
-          </cell>
-          <cell r="R32">
-            <v>0</v>
-          </cell>
-          <cell r="S32">
-            <v>0</v>
-          </cell>
-          <cell r="T32">
-            <v>0</v>
-          </cell>
-          <cell r="U32">
-            <v>0</v>
-          </cell>
-          <cell r="V32">
-            <v>0</v>
-          </cell>
-          <cell r="W32">
-            <v>0</v>
-          </cell>
-          <cell r="X32">
-            <v>0</v>
-          </cell>
-          <cell r="Y32">
-            <v>0</v>
-          </cell>
-          <cell r="Z32">
-            <v>0</v>
-          </cell>
-          <cell r="AA32">
-            <v>0</v>
-          </cell>
-          <cell r="AB32">
-            <v>0</v>
-          </cell>
-          <cell r="AC32">
-            <v>0</v>
-          </cell>
-          <cell r="AD32">
-            <v>0</v>
-          </cell>
-          <cell r="AE32">
-            <v>0</v>
-          </cell>
-          <cell r="AF32">
-            <v>0</v>
-          </cell>
-          <cell r="AG32">
-            <v>0</v>
-          </cell>
-          <cell r="AH32">
-            <v>0</v>
-          </cell>
-          <cell r="AI32">
-            <v>0</v>
-          </cell>
-          <cell r="AJ32">
-            <v>0</v>
-          </cell>
-          <cell r="AK32">
-            <v>0</v>
-          </cell>
-          <cell r="AL32">
-            <v>0</v>
-          </cell>
-          <cell r="AM32">
-            <v>0</v>
-          </cell>
-          <cell r="AN32">
-            <v>0</v>
-          </cell>
-          <cell r="AO32">
-            <v>0</v>
-          </cell>
-          <cell r="AP32">
-            <v>0</v>
-          </cell>
-          <cell r="AQ32">
-            <v>0</v>
-          </cell>
           <cell r="AR32">
             <v>0</v>
           </cell>
@@ -5445,111 +2225,6 @@
           <cell r="H33">
             <v>0</v>
           </cell>
-          <cell r="I33">
-            <v>0</v>
-          </cell>
-          <cell r="J33">
-            <v>0</v>
-          </cell>
-          <cell r="K33">
-            <v>0</v>
-          </cell>
-          <cell r="L33">
-            <v>0</v>
-          </cell>
-          <cell r="M33">
-            <v>0</v>
-          </cell>
-          <cell r="N33">
-            <v>0</v>
-          </cell>
-          <cell r="O33">
-            <v>0</v>
-          </cell>
-          <cell r="P33">
-            <v>0</v>
-          </cell>
-          <cell r="Q33">
-            <v>0</v>
-          </cell>
-          <cell r="R33">
-            <v>0</v>
-          </cell>
-          <cell r="S33">
-            <v>0</v>
-          </cell>
-          <cell r="T33">
-            <v>0</v>
-          </cell>
-          <cell r="U33">
-            <v>0</v>
-          </cell>
-          <cell r="V33">
-            <v>0</v>
-          </cell>
-          <cell r="W33">
-            <v>0</v>
-          </cell>
-          <cell r="X33">
-            <v>0</v>
-          </cell>
-          <cell r="Y33">
-            <v>0</v>
-          </cell>
-          <cell r="Z33">
-            <v>0</v>
-          </cell>
-          <cell r="AA33">
-            <v>0</v>
-          </cell>
-          <cell r="AB33">
-            <v>0</v>
-          </cell>
-          <cell r="AC33">
-            <v>0</v>
-          </cell>
-          <cell r="AD33">
-            <v>0</v>
-          </cell>
-          <cell r="AE33">
-            <v>0</v>
-          </cell>
-          <cell r="AF33">
-            <v>0</v>
-          </cell>
-          <cell r="AG33">
-            <v>0</v>
-          </cell>
-          <cell r="AH33">
-            <v>0</v>
-          </cell>
-          <cell r="AI33">
-            <v>0</v>
-          </cell>
-          <cell r="AJ33">
-            <v>0</v>
-          </cell>
-          <cell r="AK33">
-            <v>0</v>
-          </cell>
-          <cell r="AL33">
-            <v>0</v>
-          </cell>
-          <cell r="AM33">
-            <v>0</v>
-          </cell>
-          <cell r="AN33">
-            <v>0</v>
-          </cell>
-          <cell r="AO33">
-            <v>0</v>
-          </cell>
-          <cell r="AP33">
-            <v>0</v>
-          </cell>
-          <cell r="AQ33">
-            <v>0</v>
-          </cell>
           <cell r="AR33">
             <v>0</v>
           </cell>
@@ -5582,110 +2257,8 @@
           <cell r="H34">
             <v>31670</v>
           </cell>
-          <cell r="I34">
-            <v>0</v>
-          </cell>
-          <cell r="J34">
-            <v>0</v>
-          </cell>
           <cell r="K34">
             <v>8300</v>
-          </cell>
-          <cell r="L34">
-            <v>0</v>
-          </cell>
-          <cell r="M34">
-            <v>0</v>
-          </cell>
-          <cell r="N34">
-            <v>0</v>
-          </cell>
-          <cell r="O34">
-            <v>0</v>
-          </cell>
-          <cell r="P34">
-            <v>0</v>
-          </cell>
-          <cell r="Q34">
-            <v>0</v>
-          </cell>
-          <cell r="R34">
-            <v>0</v>
-          </cell>
-          <cell r="S34">
-            <v>0</v>
-          </cell>
-          <cell r="T34">
-            <v>0</v>
-          </cell>
-          <cell r="U34">
-            <v>0</v>
-          </cell>
-          <cell r="V34">
-            <v>0</v>
-          </cell>
-          <cell r="W34">
-            <v>0</v>
-          </cell>
-          <cell r="X34">
-            <v>0</v>
-          </cell>
-          <cell r="Y34">
-            <v>0</v>
-          </cell>
-          <cell r="Z34">
-            <v>0</v>
-          </cell>
-          <cell r="AA34">
-            <v>0</v>
-          </cell>
-          <cell r="AB34">
-            <v>0</v>
-          </cell>
-          <cell r="AC34">
-            <v>0</v>
-          </cell>
-          <cell r="AD34">
-            <v>0</v>
-          </cell>
-          <cell r="AE34">
-            <v>0</v>
-          </cell>
-          <cell r="AF34">
-            <v>0</v>
-          </cell>
-          <cell r="AG34">
-            <v>0</v>
-          </cell>
-          <cell r="AH34">
-            <v>0</v>
-          </cell>
-          <cell r="AI34">
-            <v>0</v>
-          </cell>
-          <cell r="AJ34">
-            <v>0</v>
-          </cell>
-          <cell r="AK34">
-            <v>0</v>
-          </cell>
-          <cell r="AL34">
-            <v>0</v>
-          </cell>
-          <cell r="AM34">
-            <v>0</v>
-          </cell>
-          <cell r="AN34">
-            <v>0</v>
-          </cell>
-          <cell r="AO34">
-            <v>0</v>
-          </cell>
-          <cell r="AP34">
-            <v>0</v>
-          </cell>
-          <cell r="AQ34">
-            <v>0</v>
           </cell>
           <cell r="AR34">
             <v>8300</v>
@@ -5719,111 +2292,6 @@
           <cell r="H35">
             <v>60</v>
           </cell>
-          <cell r="I35">
-            <v>0</v>
-          </cell>
-          <cell r="J35">
-            <v>0</v>
-          </cell>
-          <cell r="K35">
-            <v>0</v>
-          </cell>
-          <cell r="L35">
-            <v>0</v>
-          </cell>
-          <cell r="M35">
-            <v>0</v>
-          </cell>
-          <cell r="N35">
-            <v>0</v>
-          </cell>
-          <cell r="O35">
-            <v>0</v>
-          </cell>
-          <cell r="P35">
-            <v>0</v>
-          </cell>
-          <cell r="Q35">
-            <v>0</v>
-          </cell>
-          <cell r="R35">
-            <v>0</v>
-          </cell>
-          <cell r="S35">
-            <v>0</v>
-          </cell>
-          <cell r="T35">
-            <v>0</v>
-          </cell>
-          <cell r="U35">
-            <v>0</v>
-          </cell>
-          <cell r="V35">
-            <v>0</v>
-          </cell>
-          <cell r="W35">
-            <v>0</v>
-          </cell>
-          <cell r="X35">
-            <v>0</v>
-          </cell>
-          <cell r="Y35">
-            <v>0</v>
-          </cell>
-          <cell r="Z35">
-            <v>0</v>
-          </cell>
-          <cell r="AA35">
-            <v>0</v>
-          </cell>
-          <cell r="AB35">
-            <v>0</v>
-          </cell>
-          <cell r="AC35">
-            <v>0</v>
-          </cell>
-          <cell r="AD35">
-            <v>0</v>
-          </cell>
-          <cell r="AE35">
-            <v>0</v>
-          </cell>
-          <cell r="AF35">
-            <v>0</v>
-          </cell>
-          <cell r="AG35">
-            <v>0</v>
-          </cell>
-          <cell r="AH35">
-            <v>0</v>
-          </cell>
-          <cell r="AI35">
-            <v>0</v>
-          </cell>
-          <cell r="AJ35">
-            <v>0</v>
-          </cell>
-          <cell r="AK35">
-            <v>0</v>
-          </cell>
-          <cell r="AL35">
-            <v>0</v>
-          </cell>
-          <cell r="AM35">
-            <v>0</v>
-          </cell>
-          <cell r="AN35">
-            <v>0</v>
-          </cell>
-          <cell r="AO35">
-            <v>0</v>
-          </cell>
-          <cell r="AP35">
-            <v>0</v>
-          </cell>
-          <cell r="AQ35">
-            <v>0</v>
-          </cell>
           <cell r="AR35">
             <v>0</v>
           </cell>
@@ -5856,107 +2324,8 @@
           <cell r="H36">
             <v>78760</v>
           </cell>
-          <cell r="I36">
-            <v>0</v>
-          </cell>
-          <cell r="J36">
-            <v>0</v>
-          </cell>
-          <cell r="K36">
-            <v>0</v>
-          </cell>
-          <cell r="L36">
-            <v>0</v>
-          </cell>
-          <cell r="M36">
-            <v>0</v>
-          </cell>
-          <cell r="N36">
-            <v>0</v>
-          </cell>
-          <cell r="O36">
-            <v>0</v>
-          </cell>
-          <cell r="P36">
-            <v>0</v>
-          </cell>
-          <cell r="Q36">
-            <v>0</v>
-          </cell>
-          <cell r="R36">
-            <v>0</v>
-          </cell>
-          <cell r="S36">
-            <v>0</v>
-          </cell>
-          <cell r="T36">
-            <v>0</v>
-          </cell>
-          <cell r="U36">
-            <v>0</v>
-          </cell>
-          <cell r="V36">
-            <v>0</v>
-          </cell>
-          <cell r="W36">
-            <v>0</v>
-          </cell>
-          <cell r="X36">
-            <v>0</v>
-          </cell>
-          <cell r="Y36">
-            <v>0</v>
-          </cell>
-          <cell r="Z36">
-            <v>0</v>
-          </cell>
-          <cell r="AA36">
-            <v>0</v>
-          </cell>
-          <cell r="AB36">
-            <v>0</v>
-          </cell>
-          <cell r="AC36">
-            <v>0</v>
-          </cell>
-          <cell r="AD36">
-            <v>0</v>
-          </cell>
-          <cell r="AE36">
-            <v>0</v>
-          </cell>
-          <cell r="AF36">
-            <v>0</v>
-          </cell>
-          <cell r="AG36">
-            <v>0</v>
-          </cell>
-          <cell r="AH36">
-            <v>0</v>
-          </cell>
-          <cell r="AI36">
-            <v>0</v>
-          </cell>
-          <cell r="AJ36">
-            <v>0</v>
-          </cell>
-          <cell r="AK36">
-            <v>0</v>
-          </cell>
-          <cell r="AL36">
-            <v>0</v>
-          </cell>
           <cell r="AM36">
             <v>3000</v>
-          </cell>
-          <cell r="AN36">
-            <v>0</v>
-          </cell>
-          <cell r="AO36">
-            <v>0</v>
-          </cell>
-          <cell r="AP36">
-            <v>0</v>
           </cell>
           <cell r="AQ36">
             <v>75000</v>
@@ -5993,110 +2362,8 @@
           <cell r="H37">
             <v>33180</v>
           </cell>
-          <cell r="I37">
-            <v>0</v>
-          </cell>
-          <cell r="J37">
-            <v>0</v>
-          </cell>
           <cell r="K37">
             <v>16870</v>
-          </cell>
-          <cell r="L37">
-            <v>0</v>
-          </cell>
-          <cell r="M37">
-            <v>0</v>
-          </cell>
-          <cell r="N37">
-            <v>0</v>
-          </cell>
-          <cell r="O37">
-            <v>0</v>
-          </cell>
-          <cell r="P37">
-            <v>0</v>
-          </cell>
-          <cell r="Q37">
-            <v>0</v>
-          </cell>
-          <cell r="R37">
-            <v>0</v>
-          </cell>
-          <cell r="S37">
-            <v>0</v>
-          </cell>
-          <cell r="T37">
-            <v>0</v>
-          </cell>
-          <cell r="U37">
-            <v>0</v>
-          </cell>
-          <cell r="V37">
-            <v>0</v>
-          </cell>
-          <cell r="W37">
-            <v>0</v>
-          </cell>
-          <cell r="X37">
-            <v>0</v>
-          </cell>
-          <cell r="Y37">
-            <v>0</v>
-          </cell>
-          <cell r="Z37">
-            <v>0</v>
-          </cell>
-          <cell r="AA37">
-            <v>0</v>
-          </cell>
-          <cell r="AB37">
-            <v>0</v>
-          </cell>
-          <cell r="AC37">
-            <v>0</v>
-          </cell>
-          <cell r="AD37">
-            <v>0</v>
-          </cell>
-          <cell r="AE37">
-            <v>0</v>
-          </cell>
-          <cell r="AF37">
-            <v>0</v>
-          </cell>
-          <cell r="AG37">
-            <v>0</v>
-          </cell>
-          <cell r="AH37">
-            <v>0</v>
-          </cell>
-          <cell r="AI37">
-            <v>0</v>
-          </cell>
-          <cell r="AJ37">
-            <v>0</v>
-          </cell>
-          <cell r="AK37">
-            <v>0</v>
-          </cell>
-          <cell r="AL37">
-            <v>0</v>
-          </cell>
-          <cell r="AM37">
-            <v>0</v>
-          </cell>
-          <cell r="AN37">
-            <v>0</v>
-          </cell>
-          <cell r="AO37">
-            <v>0</v>
-          </cell>
-          <cell r="AP37">
-            <v>0</v>
-          </cell>
-          <cell r="AQ37">
-            <v>0</v>
           </cell>
           <cell r="AR37">
             <v>16870</v>
@@ -6130,111 +2397,6 @@
           <cell r="H38">
             <v>576228</v>
           </cell>
-          <cell r="I38">
-            <v>0</v>
-          </cell>
-          <cell r="J38">
-            <v>0</v>
-          </cell>
-          <cell r="K38">
-            <v>0</v>
-          </cell>
-          <cell r="L38">
-            <v>0</v>
-          </cell>
-          <cell r="M38">
-            <v>0</v>
-          </cell>
-          <cell r="N38">
-            <v>0</v>
-          </cell>
-          <cell r="O38">
-            <v>0</v>
-          </cell>
-          <cell r="P38">
-            <v>0</v>
-          </cell>
-          <cell r="Q38">
-            <v>0</v>
-          </cell>
-          <cell r="R38">
-            <v>0</v>
-          </cell>
-          <cell r="S38">
-            <v>0</v>
-          </cell>
-          <cell r="T38">
-            <v>0</v>
-          </cell>
-          <cell r="U38">
-            <v>0</v>
-          </cell>
-          <cell r="V38">
-            <v>0</v>
-          </cell>
-          <cell r="W38">
-            <v>0</v>
-          </cell>
-          <cell r="X38">
-            <v>0</v>
-          </cell>
-          <cell r="Y38">
-            <v>0</v>
-          </cell>
-          <cell r="Z38">
-            <v>0</v>
-          </cell>
-          <cell r="AA38">
-            <v>0</v>
-          </cell>
-          <cell r="AB38">
-            <v>0</v>
-          </cell>
-          <cell r="AC38">
-            <v>0</v>
-          </cell>
-          <cell r="AD38">
-            <v>0</v>
-          </cell>
-          <cell r="AE38">
-            <v>0</v>
-          </cell>
-          <cell r="AF38">
-            <v>0</v>
-          </cell>
-          <cell r="AG38">
-            <v>0</v>
-          </cell>
-          <cell r="AH38">
-            <v>0</v>
-          </cell>
-          <cell r="AI38">
-            <v>0</v>
-          </cell>
-          <cell r="AJ38">
-            <v>0</v>
-          </cell>
-          <cell r="AK38">
-            <v>0</v>
-          </cell>
-          <cell r="AL38">
-            <v>0</v>
-          </cell>
-          <cell r="AM38">
-            <v>0</v>
-          </cell>
-          <cell r="AN38">
-            <v>0</v>
-          </cell>
-          <cell r="AO38">
-            <v>0</v>
-          </cell>
-          <cell r="AP38">
-            <v>0</v>
-          </cell>
-          <cell r="AQ38">
-            <v>0</v>
-          </cell>
           <cell r="AR38">
             <v>0</v>
           </cell>
@@ -6267,110 +2429,11 @@
           <cell r="H39">
             <v>140310</v>
           </cell>
-          <cell r="I39">
-            <v>0</v>
-          </cell>
-          <cell r="J39">
-            <v>0</v>
-          </cell>
-          <cell r="K39">
-            <v>0</v>
-          </cell>
-          <cell r="L39">
-            <v>0</v>
-          </cell>
-          <cell r="M39">
-            <v>0</v>
-          </cell>
-          <cell r="N39">
-            <v>0</v>
-          </cell>
-          <cell r="O39">
-            <v>0</v>
-          </cell>
-          <cell r="P39">
-            <v>0</v>
-          </cell>
-          <cell r="Q39">
-            <v>0</v>
-          </cell>
-          <cell r="R39">
-            <v>0</v>
-          </cell>
           <cell r="S39">
             <v>20000</v>
           </cell>
-          <cell r="T39">
-            <v>0</v>
-          </cell>
           <cell r="U39">
             <v>9980</v>
-          </cell>
-          <cell r="V39">
-            <v>0</v>
-          </cell>
-          <cell r="W39">
-            <v>0</v>
-          </cell>
-          <cell r="X39">
-            <v>0</v>
-          </cell>
-          <cell r="Y39">
-            <v>0</v>
-          </cell>
-          <cell r="Z39">
-            <v>0</v>
-          </cell>
-          <cell r="AA39">
-            <v>0</v>
-          </cell>
-          <cell r="AB39">
-            <v>0</v>
-          </cell>
-          <cell r="AC39">
-            <v>0</v>
-          </cell>
-          <cell r="AD39">
-            <v>0</v>
-          </cell>
-          <cell r="AE39">
-            <v>0</v>
-          </cell>
-          <cell r="AF39">
-            <v>0</v>
-          </cell>
-          <cell r="AG39">
-            <v>0</v>
-          </cell>
-          <cell r="AH39">
-            <v>0</v>
-          </cell>
-          <cell r="AI39">
-            <v>0</v>
-          </cell>
-          <cell r="AJ39">
-            <v>0</v>
-          </cell>
-          <cell r="AK39">
-            <v>0</v>
-          </cell>
-          <cell r="AL39">
-            <v>0</v>
-          </cell>
-          <cell r="AM39">
-            <v>0</v>
-          </cell>
-          <cell r="AN39">
-            <v>0</v>
-          </cell>
-          <cell r="AO39">
-            <v>0</v>
-          </cell>
-          <cell r="AP39">
-            <v>0</v>
-          </cell>
-          <cell r="AQ39">
-            <v>0</v>
           </cell>
           <cell r="AR39">
             <v>29980</v>
@@ -6404,111 +2467,6 @@
           <cell r="H40">
             <v>1240</v>
           </cell>
-          <cell r="I40">
-            <v>0</v>
-          </cell>
-          <cell r="J40">
-            <v>0</v>
-          </cell>
-          <cell r="K40">
-            <v>0</v>
-          </cell>
-          <cell r="L40">
-            <v>0</v>
-          </cell>
-          <cell r="M40">
-            <v>0</v>
-          </cell>
-          <cell r="N40">
-            <v>0</v>
-          </cell>
-          <cell r="O40">
-            <v>0</v>
-          </cell>
-          <cell r="P40">
-            <v>0</v>
-          </cell>
-          <cell r="Q40">
-            <v>0</v>
-          </cell>
-          <cell r="R40">
-            <v>0</v>
-          </cell>
-          <cell r="S40">
-            <v>0</v>
-          </cell>
-          <cell r="T40">
-            <v>0</v>
-          </cell>
-          <cell r="U40">
-            <v>0</v>
-          </cell>
-          <cell r="V40">
-            <v>0</v>
-          </cell>
-          <cell r="W40">
-            <v>0</v>
-          </cell>
-          <cell r="X40">
-            <v>0</v>
-          </cell>
-          <cell r="Y40">
-            <v>0</v>
-          </cell>
-          <cell r="Z40">
-            <v>0</v>
-          </cell>
-          <cell r="AA40">
-            <v>0</v>
-          </cell>
-          <cell r="AB40">
-            <v>0</v>
-          </cell>
-          <cell r="AC40">
-            <v>0</v>
-          </cell>
-          <cell r="AD40">
-            <v>0</v>
-          </cell>
-          <cell r="AE40">
-            <v>0</v>
-          </cell>
-          <cell r="AF40">
-            <v>0</v>
-          </cell>
-          <cell r="AG40">
-            <v>0</v>
-          </cell>
-          <cell r="AH40">
-            <v>0</v>
-          </cell>
-          <cell r="AI40">
-            <v>0</v>
-          </cell>
-          <cell r="AJ40">
-            <v>0</v>
-          </cell>
-          <cell r="AK40">
-            <v>0</v>
-          </cell>
-          <cell r="AL40">
-            <v>0</v>
-          </cell>
-          <cell r="AM40">
-            <v>0</v>
-          </cell>
-          <cell r="AN40">
-            <v>0</v>
-          </cell>
-          <cell r="AO40">
-            <v>0</v>
-          </cell>
-          <cell r="AP40">
-            <v>0</v>
-          </cell>
-          <cell r="AQ40">
-            <v>0</v>
-          </cell>
           <cell r="AR40">
             <v>0</v>
           </cell>
@@ -6541,111 +2499,6 @@
           <cell r="H41">
             <v>0</v>
           </cell>
-          <cell r="I41">
-            <v>0</v>
-          </cell>
-          <cell r="J41">
-            <v>0</v>
-          </cell>
-          <cell r="K41">
-            <v>0</v>
-          </cell>
-          <cell r="L41">
-            <v>0</v>
-          </cell>
-          <cell r="M41">
-            <v>0</v>
-          </cell>
-          <cell r="N41">
-            <v>0</v>
-          </cell>
-          <cell r="O41">
-            <v>0</v>
-          </cell>
-          <cell r="P41">
-            <v>0</v>
-          </cell>
-          <cell r="Q41">
-            <v>0</v>
-          </cell>
-          <cell r="R41">
-            <v>0</v>
-          </cell>
-          <cell r="S41">
-            <v>0</v>
-          </cell>
-          <cell r="T41">
-            <v>0</v>
-          </cell>
-          <cell r="U41">
-            <v>0</v>
-          </cell>
-          <cell r="V41">
-            <v>0</v>
-          </cell>
-          <cell r="W41">
-            <v>0</v>
-          </cell>
-          <cell r="X41">
-            <v>0</v>
-          </cell>
-          <cell r="Y41">
-            <v>0</v>
-          </cell>
-          <cell r="Z41">
-            <v>0</v>
-          </cell>
-          <cell r="AA41">
-            <v>0</v>
-          </cell>
-          <cell r="AB41">
-            <v>0</v>
-          </cell>
-          <cell r="AC41">
-            <v>0</v>
-          </cell>
-          <cell r="AD41">
-            <v>0</v>
-          </cell>
-          <cell r="AE41">
-            <v>0</v>
-          </cell>
-          <cell r="AF41">
-            <v>0</v>
-          </cell>
-          <cell r="AG41">
-            <v>0</v>
-          </cell>
-          <cell r="AH41">
-            <v>0</v>
-          </cell>
-          <cell r="AI41">
-            <v>0</v>
-          </cell>
-          <cell r="AJ41">
-            <v>0</v>
-          </cell>
-          <cell r="AK41">
-            <v>0</v>
-          </cell>
-          <cell r="AL41">
-            <v>0</v>
-          </cell>
-          <cell r="AM41">
-            <v>0</v>
-          </cell>
-          <cell r="AN41">
-            <v>0</v>
-          </cell>
-          <cell r="AO41">
-            <v>0</v>
-          </cell>
-          <cell r="AP41">
-            <v>0</v>
-          </cell>
-          <cell r="AQ41">
-            <v>0</v>
-          </cell>
           <cell r="AR41">
             <v>0</v>
           </cell>
@@ -6678,110 +2531,8 @@
           <cell r="H42">
             <v>940</v>
           </cell>
-          <cell r="I42">
-            <v>0</v>
-          </cell>
-          <cell r="J42">
-            <v>0</v>
-          </cell>
-          <cell r="K42">
-            <v>0</v>
-          </cell>
-          <cell r="L42">
-            <v>0</v>
-          </cell>
-          <cell r="M42">
-            <v>0</v>
-          </cell>
-          <cell r="N42">
-            <v>0</v>
-          </cell>
-          <cell r="O42">
-            <v>0</v>
-          </cell>
-          <cell r="P42">
-            <v>0</v>
-          </cell>
-          <cell r="Q42">
-            <v>0</v>
-          </cell>
-          <cell r="R42">
-            <v>0</v>
-          </cell>
-          <cell r="S42">
-            <v>0</v>
-          </cell>
-          <cell r="T42">
-            <v>0</v>
-          </cell>
-          <cell r="U42">
-            <v>0</v>
-          </cell>
-          <cell r="V42">
-            <v>0</v>
-          </cell>
-          <cell r="W42">
-            <v>0</v>
-          </cell>
-          <cell r="X42">
-            <v>0</v>
-          </cell>
-          <cell r="Y42">
-            <v>0</v>
-          </cell>
-          <cell r="Z42">
-            <v>0</v>
-          </cell>
-          <cell r="AA42">
-            <v>0</v>
-          </cell>
-          <cell r="AB42">
-            <v>0</v>
-          </cell>
-          <cell r="AC42">
-            <v>0</v>
-          </cell>
-          <cell r="AD42">
-            <v>0</v>
-          </cell>
-          <cell r="AE42">
-            <v>0</v>
-          </cell>
-          <cell r="AF42">
-            <v>0</v>
-          </cell>
-          <cell r="AG42">
-            <v>0</v>
-          </cell>
-          <cell r="AH42">
-            <v>0</v>
-          </cell>
-          <cell r="AI42">
-            <v>0</v>
-          </cell>
-          <cell r="AJ42">
-            <v>0</v>
-          </cell>
-          <cell r="AK42">
-            <v>0</v>
-          </cell>
-          <cell r="AL42">
-            <v>0</v>
-          </cell>
           <cell r="AM42">
             <v>3000</v>
-          </cell>
-          <cell r="AN42">
-            <v>0</v>
-          </cell>
-          <cell r="AO42">
-            <v>0</v>
-          </cell>
-          <cell r="AP42">
-            <v>0</v>
-          </cell>
-          <cell r="AQ42">
-            <v>0</v>
           </cell>
           <cell r="AR42">
             <v>3000</v>
@@ -6815,111 +2566,6 @@
           <cell r="H43">
             <v>11320</v>
           </cell>
-          <cell r="I43">
-            <v>0</v>
-          </cell>
-          <cell r="J43">
-            <v>0</v>
-          </cell>
-          <cell r="K43">
-            <v>0</v>
-          </cell>
-          <cell r="L43">
-            <v>0</v>
-          </cell>
-          <cell r="M43">
-            <v>0</v>
-          </cell>
-          <cell r="N43">
-            <v>0</v>
-          </cell>
-          <cell r="O43">
-            <v>0</v>
-          </cell>
-          <cell r="P43">
-            <v>0</v>
-          </cell>
-          <cell r="Q43">
-            <v>0</v>
-          </cell>
-          <cell r="R43">
-            <v>0</v>
-          </cell>
-          <cell r="S43">
-            <v>0</v>
-          </cell>
-          <cell r="T43">
-            <v>0</v>
-          </cell>
-          <cell r="U43">
-            <v>0</v>
-          </cell>
-          <cell r="V43">
-            <v>0</v>
-          </cell>
-          <cell r="W43">
-            <v>0</v>
-          </cell>
-          <cell r="X43">
-            <v>0</v>
-          </cell>
-          <cell r="Y43">
-            <v>0</v>
-          </cell>
-          <cell r="Z43">
-            <v>0</v>
-          </cell>
-          <cell r="AA43">
-            <v>0</v>
-          </cell>
-          <cell r="AB43">
-            <v>0</v>
-          </cell>
-          <cell r="AC43">
-            <v>0</v>
-          </cell>
-          <cell r="AD43">
-            <v>0</v>
-          </cell>
-          <cell r="AE43">
-            <v>0</v>
-          </cell>
-          <cell r="AF43">
-            <v>0</v>
-          </cell>
-          <cell r="AG43">
-            <v>0</v>
-          </cell>
-          <cell r="AH43">
-            <v>0</v>
-          </cell>
-          <cell r="AI43">
-            <v>0</v>
-          </cell>
-          <cell r="AJ43">
-            <v>0</v>
-          </cell>
-          <cell r="AK43">
-            <v>0</v>
-          </cell>
-          <cell r="AL43">
-            <v>0</v>
-          </cell>
-          <cell r="AM43">
-            <v>0</v>
-          </cell>
-          <cell r="AN43">
-            <v>0</v>
-          </cell>
-          <cell r="AO43">
-            <v>0</v>
-          </cell>
-          <cell r="AP43">
-            <v>0</v>
-          </cell>
-          <cell r="AQ43">
-            <v>0</v>
-          </cell>
           <cell r="AR43">
             <v>0</v>
           </cell>
@@ -6952,110 +2598,8 @@
           <cell r="H44">
             <v>33370</v>
           </cell>
-          <cell r="I44">
-            <v>0</v>
-          </cell>
-          <cell r="J44">
-            <v>0</v>
-          </cell>
-          <cell r="K44">
-            <v>0</v>
-          </cell>
-          <cell r="L44">
-            <v>0</v>
-          </cell>
-          <cell r="M44">
-            <v>0</v>
-          </cell>
           <cell r="N44">
             <v>12000</v>
-          </cell>
-          <cell r="O44">
-            <v>0</v>
-          </cell>
-          <cell r="P44">
-            <v>0</v>
-          </cell>
-          <cell r="Q44">
-            <v>0</v>
-          </cell>
-          <cell r="R44">
-            <v>0</v>
-          </cell>
-          <cell r="S44">
-            <v>0</v>
-          </cell>
-          <cell r="T44">
-            <v>0</v>
-          </cell>
-          <cell r="U44">
-            <v>0</v>
-          </cell>
-          <cell r="V44">
-            <v>0</v>
-          </cell>
-          <cell r="W44">
-            <v>0</v>
-          </cell>
-          <cell r="X44">
-            <v>0</v>
-          </cell>
-          <cell r="Y44">
-            <v>0</v>
-          </cell>
-          <cell r="Z44">
-            <v>0</v>
-          </cell>
-          <cell r="AA44">
-            <v>0</v>
-          </cell>
-          <cell r="AB44">
-            <v>0</v>
-          </cell>
-          <cell r="AC44">
-            <v>0</v>
-          </cell>
-          <cell r="AD44">
-            <v>0</v>
-          </cell>
-          <cell r="AE44">
-            <v>0</v>
-          </cell>
-          <cell r="AF44">
-            <v>0</v>
-          </cell>
-          <cell r="AG44">
-            <v>0</v>
-          </cell>
-          <cell r="AH44">
-            <v>0</v>
-          </cell>
-          <cell r="AI44">
-            <v>0</v>
-          </cell>
-          <cell r="AJ44">
-            <v>0</v>
-          </cell>
-          <cell r="AK44">
-            <v>0</v>
-          </cell>
-          <cell r="AL44">
-            <v>0</v>
-          </cell>
-          <cell r="AM44">
-            <v>0</v>
-          </cell>
-          <cell r="AN44">
-            <v>0</v>
-          </cell>
-          <cell r="AO44">
-            <v>0</v>
-          </cell>
-          <cell r="AP44">
-            <v>0</v>
-          </cell>
-          <cell r="AQ44">
-            <v>0</v>
           </cell>
           <cell r="AR44">
             <v>12000</v>
@@ -7089,111 +2633,6 @@
           <cell r="H45">
             <v>370</v>
           </cell>
-          <cell r="I45">
-            <v>0</v>
-          </cell>
-          <cell r="J45">
-            <v>0</v>
-          </cell>
-          <cell r="K45">
-            <v>0</v>
-          </cell>
-          <cell r="L45">
-            <v>0</v>
-          </cell>
-          <cell r="M45">
-            <v>0</v>
-          </cell>
-          <cell r="N45">
-            <v>0</v>
-          </cell>
-          <cell r="O45">
-            <v>0</v>
-          </cell>
-          <cell r="P45">
-            <v>0</v>
-          </cell>
-          <cell r="Q45">
-            <v>0</v>
-          </cell>
-          <cell r="R45">
-            <v>0</v>
-          </cell>
-          <cell r="S45">
-            <v>0</v>
-          </cell>
-          <cell r="T45">
-            <v>0</v>
-          </cell>
-          <cell r="U45">
-            <v>0</v>
-          </cell>
-          <cell r="V45">
-            <v>0</v>
-          </cell>
-          <cell r="W45">
-            <v>0</v>
-          </cell>
-          <cell r="X45">
-            <v>0</v>
-          </cell>
-          <cell r="Y45">
-            <v>0</v>
-          </cell>
-          <cell r="Z45">
-            <v>0</v>
-          </cell>
-          <cell r="AA45">
-            <v>0</v>
-          </cell>
-          <cell r="AB45">
-            <v>0</v>
-          </cell>
-          <cell r="AC45">
-            <v>0</v>
-          </cell>
-          <cell r="AD45">
-            <v>0</v>
-          </cell>
-          <cell r="AE45">
-            <v>0</v>
-          </cell>
-          <cell r="AF45">
-            <v>0</v>
-          </cell>
-          <cell r="AG45">
-            <v>0</v>
-          </cell>
-          <cell r="AH45">
-            <v>0</v>
-          </cell>
-          <cell r="AI45">
-            <v>0</v>
-          </cell>
-          <cell r="AJ45">
-            <v>0</v>
-          </cell>
-          <cell r="AK45">
-            <v>0</v>
-          </cell>
-          <cell r="AL45">
-            <v>0</v>
-          </cell>
-          <cell r="AM45">
-            <v>0</v>
-          </cell>
-          <cell r="AN45">
-            <v>0</v>
-          </cell>
-          <cell r="AO45">
-            <v>0</v>
-          </cell>
-          <cell r="AP45">
-            <v>0</v>
-          </cell>
-          <cell r="AQ45">
-            <v>0</v>
-          </cell>
           <cell r="AR45">
             <v>0</v>
           </cell>
@@ -7226,111 +2665,6 @@
           <cell r="H46">
             <v>43300</v>
           </cell>
-          <cell r="I46">
-            <v>0</v>
-          </cell>
-          <cell r="J46">
-            <v>0</v>
-          </cell>
-          <cell r="K46">
-            <v>0</v>
-          </cell>
-          <cell r="L46">
-            <v>0</v>
-          </cell>
-          <cell r="M46">
-            <v>0</v>
-          </cell>
-          <cell r="N46">
-            <v>0</v>
-          </cell>
-          <cell r="O46">
-            <v>0</v>
-          </cell>
-          <cell r="P46">
-            <v>0</v>
-          </cell>
-          <cell r="Q46">
-            <v>0</v>
-          </cell>
-          <cell r="R46">
-            <v>0</v>
-          </cell>
-          <cell r="S46">
-            <v>0</v>
-          </cell>
-          <cell r="T46">
-            <v>0</v>
-          </cell>
-          <cell r="U46">
-            <v>0</v>
-          </cell>
-          <cell r="V46">
-            <v>0</v>
-          </cell>
-          <cell r="W46">
-            <v>0</v>
-          </cell>
-          <cell r="X46">
-            <v>0</v>
-          </cell>
-          <cell r="Y46">
-            <v>0</v>
-          </cell>
-          <cell r="Z46">
-            <v>0</v>
-          </cell>
-          <cell r="AA46">
-            <v>0</v>
-          </cell>
-          <cell r="AB46">
-            <v>0</v>
-          </cell>
-          <cell r="AC46">
-            <v>0</v>
-          </cell>
-          <cell r="AD46">
-            <v>0</v>
-          </cell>
-          <cell r="AE46">
-            <v>0</v>
-          </cell>
-          <cell r="AF46">
-            <v>0</v>
-          </cell>
-          <cell r="AG46">
-            <v>0</v>
-          </cell>
-          <cell r="AH46">
-            <v>0</v>
-          </cell>
-          <cell r="AI46">
-            <v>0</v>
-          </cell>
-          <cell r="AJ46">
-            <v>0</v>
-          </cell>
-          <cell r="AK46">
-            <v>0</v>
-          </cell>
-          <cell r="AL46">
-            <v>0</v>
-          </cell>
-          <cell r="AM46">
-            <v>0</v>
-          </cell>
-          <cell r="AN46">
-            <v>0</v>
-          </cell>
-          <cell r="AO46">
-            <v>0</v>
-          </cell>
-          <cell r="AP46">
-            <v>0</v>
-          </cell>
-          <cell r="AQ46">
-            <v>0</v>
-          </cell>
           <cell r="AR46">
             <v>0</v>
           </cell>
@@ -7363,111 +2697,6 @@
           <cell r="H47">
             <v>12080</v>
           </cell>
-          <cell r="I47">
-            <v>0</v>
-          </cell>
-          <cell r="J47">
-            <v>0</v>
-          </cell>
-          <cell r="K47">
-            <v>0</v>
-          </cell>
-          <cell r="L47">
-            <v>0</v>
-          </cell>
-          <cell r="M47">
-            <v>0</v>
-          </cell>
-          <cell r="N47">
-            <v>0</v>
-          </cell>
-          <cell r="O47">
-            <v>0</v>
-          </cell>
-          <cell r="P47">
-            <v>0</v>
-          </cell>
-          <cell r="Q47">
-            <v>0</v>
-          </cell>
-          <cell r="R47">
-            <v>0</v>
-          </cell>
-          <cell r="S47">
-            <v>0</v>
-          </cell>
-          <cell r="T47">
-            <v>0</v>
-          </cell>
-          <cell r="U47">
-            <v>0</v>
-          </cell>
-          <cell r="V47">
-            <v>0</v>
-          </cell>
-          <cell r="W47">
-            <v>0</v>
-          </cell>
-          <cell r="X47">
-            <v>0</v>
-          </cell>
-          <cell r="Y47">
-            <v>0</v>
-          </cell>
-          <cell r="Z47">
-            <v>0</v>
-          </cell>
-          <cell r="AA47">
-            <v>0</v>
-          </cell>
-          <cell r="AB47">
-            <v>0</v>
-          </cell>
-          <cell r="AC47">
-            <v>0</v>
-          </cell>
-          <cell r="AD47">
-            <v>0</v>
-          </cell>
-          <cell r="AE47">
-            <v>0</v>
-          </cell>
-          <cell r="AF47">
-            <v>0</v>
-          </cell>
-          <cell r="AG47">
-            <v>0</v>
-          </cell>
-          <cell r="AH47">
-            <v>0</v>
-          </cell>
-          <cell r="AI47">
-            <v>0</v>
-          </cell>
-          <cell r="AJ47">
-            <v>0</v>
-          </cell>
-          <cell r="AK47">
-            <v>0</v>
-          </cell>
-          <cell r="AL47">
-            <v>0</v>
-          </cell>
-          <cell r="AM47">
-            <v>0</v>
-          </cell>
-          <cell r="AN47">
-            <v>0</v>
-          </cell>
-          <cell r="AO47">
-            <v>0</v>
-          </cell>
-          <cell r="AP47">
-            <v>0</v>
-          </cell>
-          <cell r="AQ47">
-            <v>0</v>
-          </cell>
           <cell r="AR47">
             <v>0</v>
           </cell>
@@ -7500,110 +2729,11 @@
           <cell r="H48">
             <v>36400</v>
           </cell>
-          <cell r="I48">
-            <v>0</v>
-          </cell>
-          <cell r="J48">
-            <v>0</v>
-          </cell>
           <cell r="K48">
             <v>27500</v>
           </cell>
-          <cell r="L48">
-            <v>0</v>
-          </cell>
-          <cell r="M48">
-            <v>0</v>
-          </cell>
-          <cell r="N48">
-            <v>0</v>
-          </cell>
-          <cell r="O48">
-            <v>0</v>
-          </cell>
-          <cell r="P48">
-            <v>0</v>
-          </cell>
-          <cell r="Q48">
-            <v>0</v>
-          </cell>
-          <cell r="R48">
-            <v>0</v>
-          </cell>
-          <cell r="S48">
-            <v>0</v>
-          </cell>
-          <cell r="T48">
-            <v>0</v>
-          </cell>
-          <cell r="U48">
-            <v>0</v>
-          </cell>
-          <cell r="V48">
-            <v>0</v>
-          </cell>
-          <cell r="W48">
-            <v>0</v>
-          </cell>
-          <cell r="X48">
-            <v>0</v>
-          </cell>
-          <cell r="Y48">
-            <v>0</v>
-          </cell>
-          <cell r="Z48">
-            <v>0</v>
-          </cell>
-          <cell r="AA48">
-            <v>0</v>
-          </cell>
-          <cell r="AB48">
-            <v>0</v>
-          </cell>
-          <cell r="AC48">
-            <v>0</v>
-          </cell>
-          <cell r="AD48">
-            <v>0</v>
-          </cell>
-          <cell r="AE48">
-            <v>0</v>
-          </cell>
-          <cell r="AF48">
-            <v>0</v>
-          </cell>
-          <cell r="AG48">
-            <v>0</v>
-          </cell>
-          <cell r="AH48">
-            <v>0</v>
-          </cell>
-          <cell r="AI48">
-            <v>0</v>
-          </cell>
-          <cell r="AJ48">
-            <v>0</v>
-          </cell>
-          <cell r="AK48">
-            <v>0</v>
-          </cell>
-          <cell r="AL48">
-            <v>0</v>
-          </cell>
-          <cell r="AM48">
-            <v>0</v>
-          </cell>
-          <cell r="AN48">
-            <v>0</v>
-          </cell>
           <cell r="AO48">
             <v>8900</v>
-          </cell>
-          <cell r="AP48">
-            <v>0</v>
-          </cell>
-          <cell r="AQ48">
-            <v>0</v>
           </cell>
           <cell r="AR48">
             <v>36400</v>
@@ -7637,111 +2767,6 @@
           <cell r="H49">
             <v>310740</v>
           </cell>
-          <cell r="I49">
-            <v>0</v>
-          </cell>
-          <cell r="J49">
-            <v>0</v>
-          </cell>
-          <cell r="K49">
-            <v>0</v>
-          </cell>
-          <cell r="L49">
-            <v>0</v>
-          </cell>
-          <cell r="M49">
-            <v>0</v>
-          </cell>
-          <cell r="N49">
-            <v>0</v>
-          </cell>
-          <cell r="O49">
-            <v>0</v>
-          </cell>
-          <cell r="P49">
-            <v>0</v>
-          </cell>
-          <cell r="Q49">
-            <v>0</v>
-          </cell>
-          <cell r="R49">
-            <v>0</v>
-          </cell>
-          <cell r="S49">
-            <v>0</v>
-          </cell>
-          <cell r="T49">
-            <v>0</v>
-          </cell>
-          <cell r="U49">
-            <v>0</v>
-          </cell>
-          <cell r="V49">
-            <v>0</v>
-          </cell>
-          <cell r="W49">
-            <v>0</v>
-          </cell>
-          <cell r="X49">
-            <v>0</v>
-          </cell>
-          <cell r="Y49">
-            <v>0</v>
-          </cell>
-          <cell r="Z49">
-            <v>0</v>
-          </cell>
-          <cell r="AA49">
-            <v>0</v>
-          </cell>
-          <cell r="AB49">
-            <v>0</v>
-          </cell>
-          <cell r="AC49">
-            <v>0</v>
-          </cell>
-          <cell r="AD49">
-            <v>0</v>
-          </cell>
-          <cell r="AE49">
-            <v>0</v>
-          </cell>
-          <cell r="AF49">
-            <v>0</v>
-          </cell>
-          <cell r="AG49">
-            <v>0</v>
-          </cell>
-          <cell r="AH49">
-            <v>0</v>
-          </cell>
-          <cell r="AI49">
-            <v>0</v>
-          </cell>
-          <cell r="AJ49">
-            <v>0</v>
-          </cell>
-          <cell r="AK49">
-            <v>0</v>
-          </cell>
-          <cell r="AL49">
-            <v>0</v>
-          </cell>
-          <cell r="AM49">
-            <v>0</v>
-          </cell>
-          <cell r="AN49">
-            <v>0</v>
-          </cell>
-          <cell r="AO49">
-            <v>0</v>
-          </cell>
-          <cell r="AP49">
-            <v>0</v>
-          </cell>
-          <cell r="AQ49">
-            <v>0</v>
-          </cell>
           <cell r="AR49">
             <v>0</v>
           </cell>
@@ -7774,111 +2799,6 @@
           <cell r="H50">
             <v>161960</v>
           </cell>
-          <cell r="I50">
-            <v>0</v>
-          </cell>
-          <cell r="J50">
-            <v>0</v>
-          </cell>
-          <cell r="K50">
-            <v>0</v>
-          </cell>
-          <cell r="L50">
-            <v>0</v>
-          </cell>
-          <cell r="M50">
-            <v>0</v>
-          </cell>
-          <cell r="N50">
-            <v>0</v>
-          </cell>
-          <cell r="O50">
-            <v>0</v>
-          </cell>
-          <cell r="P50">
-            <v>0</v>
-          </cell>
-          <cell r="Q50">
-            <v>0</v>
-          </cell>
-          <cell r="R50">
-            <v>0</v>
-          </cell>
-          <cell r="S50">
-            <v>0</v>
-          </cell>
-          <cell r="T50">
-            <v>0</v>
-          </cell>
-          <cell r="U50">
-            <v>0</v>
-          </cell>
-          <cell r="V50">
-            <v>0</v>
-          </cell>
-          <cell r="W50">
-            <v>0</v>
-          </cell>
-          <cell r="X50">
-            <v>0</v>
-          </cell>
-          <cell r="Y50">
-            <v>0</v>
-          </cell>
-          <cell r="Z50">
-            <v>0</v>
-          </cell>
-          <cell r="AA50">
-            <v>0</v>
-          </cell>
-          <cell r="AB50">
-            <v>0</v>
-          </cell>
-          <cell r="AC50">
-            <v>0</v>
-          </cell>
-          <cell r="AD50">
-            <v>0</v>
-          </cell>
-          <cell r="AE50">
-            <v>0</v>
-          </cell>
-          <cell r="AF50">
-            <v>0</v>
-          </cell>
-          <cell r="AG50">
-            <v>0</v>
-          </cell>
-          <cell r="AH50">
-            <v>0</v>
-          </cell>
-          <cell r="AI50">
-            <v>0</v>
-          </cell>
-          <cell r="AJ50">
-            <v>0</v>
-          </cell>
-          <cell r="AK50">
-            <v>0</v>
-          </cell>
-          <cell r="AL50">
-            <v>0</v>
-          </cell>
-          <cell r="AM50">
-            <v>0</v>
-          </cell>
-          <cell r="AN50">
-            <v>0</v>
-          </cell>
-          <cell r="AO50">
-            <v>0</v>
-          </cell>
-          <cell r="AP50">
-            <v>0</v>
-          </cell>
-          <cell r="AQ50">
-            <v>0</v>
-          </cell>
           <cell r="AR50">
             <v>0</v>
           </cell>
@@ -7911,111 +2831,6 @@
           <cell r="H51">
             <v>18730</v>
           </cell>
-          <cell r="I51">
-            <v>0</v>
-          </cell>
-          <cell r="J51">
-            <v>0</v>
-          </cell>
-          <cell r="K51">
-            <v>0</v>
-          </cell>
-          <cell r="L51">
-            <v>0</v>
-          </cell>
-          <cell r="M51">
-            <v>0</v>
-          </cell>
-          <cell r="N51">
-            <v>0</v>
-          </cell>
-          <cell r="O51">
-            <v>0</v>
-          </cell>
-          <cell r="P51">
-            <v>0</v>
-          </cell>
-          <cell r="Q51">
-            <v>0</v>
-          </cell>
-          <cell r="R51">
-            <v>0</v>
-          </cell>
-          <cell r="S51">
-            <v>0</v>
-          </cell>
-          <cell r="T51">
-            <v>0</v>
-          </cell>
-          <cell r="U51">
-            <v>0</v>
-          </cell>
-          <cell r="V51">
-            <v>0</v>
-          </cell>
-          <cell r="W51">
-            <v>0</v>
-          </cell>
-          <cell r="X51">
-            <v>0</v>
-          </cell>
-          <cell r="Y51">
-            <v>0</v>
-          </cell>
-          <cell r="Z51">
-            <v>0</v>
-          </cell>
-          <cell r="AA51">
-            <v>0</v>
-          </cell>
-          <cell r="AB51">
-            <v>0</v>
-          </cell>
-          <cell r="AC51">
-            <v>0</v>
-          </cell>
-          <cell r="AD51">
-            <v>0</v>
-          </cell>
-          <cell r="AE51">
-            <v>0</v>
-          </cell>
-          <cell r="AF51">
-            <v>0</v>
-          </cell>
-          <cell r="AG51">
-            <v>0</v>
-          </cell>
-          <cell r="AH51">
-            <v>0</v>
-          </cell>
-          <cell r="AI51">
-            <v>0</v>
-          </cell>
-          <cell r="AJ51">
-            <v>0</v>
-          </cell>
-          <cell r="AK51">
-            <v>0</v>
-          </cell>
-          <cell r="AL51">
-            <v>0</v>
-          </cell>
-          <cell r="AM51">
-            <v>0</v>
-          </cell>
-          <cell r="AN51">
-            <v>0</v>
-          </cell>
-          <cell r="AO51">
-            <v>0</v>
-          </cell>
-          <cell r="AP51">
-            <v>0</v>
-          </cell>
-          <cell r="AQ51">
-            <v>0</v>
-          </cell>
           <cell r="AR51">
             <v>0</v>
           </cell>
@@ -8048,111 +2863,6 @@
           <cell r="H52">
             <v>800</v>
           </cell>
-          <cell r="I52">
-            <v>0</v>
-          </cell>
-          <cell r="J52">
-            <v>0</v>
-          </cell>
-          <cell r="K52">
-            <v>0</v>
-          </cell>
-          <cell r="L52">
-            <v>0</v>
-          </cell>
-          <cell r="M52">
-            <v>0</v>
-          </cell>
-          <cell r="N52">
-            <v>0</v>
-          </cell>
-          <cell r="O52">
-            <v>0</v>
-          </cell>
-          <cell r="P52">
-            <v>0</v>
-          </cell>
-          <cell r="Q52">
-            <v>0</v>
-          </cell>
-          <cell r="R52">
-            <v>0</v>
-          </cell>
-          <cell r="S52">
-            <v>0</v>
-          </cell>
-          <cell r="T52">
-            <v>0</v>
-          </cell>
-          <cell r="U52">
-            <v>0</v>
-          </cell>
-          <cell r="V52">
-            <v>0</v>
-          </cell>
-          <cell r="W52">
-            <v>0</v>
-          </cell>
-          <cell r="X52">
-            <v>0</v>
-          </cell>
-          <cell r="Y52">
-            <v>0</v>
-          </cell>
-          <cell r="Z52">
-            <v>0</v>
-          </cell>
-          <cell r="AA52">
-            <v>0</v>
-          </cell>
-          <cell r="AB52">
-            <v>0</v>
-          </cell>
-          <cell r="AC52">
-            <v>0</v>
-          </cell>
-          <cell r="AD52">
-            <v>0</v>
-          </cell>
-          <cell r="AE52">
-            <v>0</v>
-          </cell>
-          <cell r="AF52">
-            <v>0</v>
-          </cell>
-          <cell r="AG52">
-            <v>0</v>
-          </cell>
-          <cell r="AH52">
-            <v>0</v>
-          </cell>
-          <cell r="AI52">
-            <v>0</v>
-          </cell>
-          <cell r="AJ52">
-            <v>0</v>
-          </cell>
-          <cell r="AK52">
-            <v>0</v>
-          </cell>
-          <cell r="AL52">
-            <v>0</v>
-          </cell>
-          <cell r="AM52">
-            <v>0</v>
-          </cell>
-          <cell r="AN52">
-            <v>0</v>
-          </cell>
-          <cell r="AO52">
-            <v>0</v>
-          </cell>
-          <cell r="AP52">
-            <v>0</v>
-          </cell>
-          <cell r="AQ52">
-            <v>0</v>
-          </cell>
           <cell r="AR52">
             <v>0</v>
           </cell>
@@ -8185,111 +2895,6 @@
           <cell r="H53">
             <v>19910</v>
           </cell>
-          <cell r="I53">
-            <v>0</v>
-          </cell>
-          <cell r="J53">
-            <v>0</v>
-          </cell>
-          <cell r="K53">
-            <v>0</v>
-          </cell>
-          <cell r="L53">
-            <v>0</v>
-          </cell>
-          <cell r="M53">
-            <v>0</v>
-          </cell>
-          <cell r="N53">
-            <v>0</v>
-          </cell>
-          <cell r="O53">
-            <v>0</v>
-          </cell>
-          <cell r="P53">
-            <v>0</v>
-          </cell>
-          <cell r="Q53">
-            <v>0</v>
-          </cell>
-          <cell r="R53">
-            <v>0</v>
-          </cell>
-          <cell r="S53">
-            <v>0</v>
-          </cell>
-          <cell r="T53">
-            <v>0</v>
-          </cell>
-          <cell r="U53">
-            <v>0</v>
-          </cell>
-          <cell r="V53">
-            <v>0</v>
-          </cell>
-          <cell r="W53">
-            <v>0</v>
-          </cell>
-          <cell r="X53">
-            <v>0</v>
-          </cell>
-          <cell r="Y53">
-            <v>0</v>
-          </cell>
-          <cell r="Z53">
-            <v>0</v>
-          </cell>
-          <cell r="AA53">
-            <v>0</v>
-          </cell>
-          <cell r="AB53">
-            <v>0</v>
-          </cell>
-          <cell r="AC53">
-            <v>0</v>
-          </cell>
-          <cell r="AD53">
-            <v>0</v>
-          </cell>
-          <cell r="AE53">
-            <v>0</v>
-          </cell>
-          <cell r="AF53">
-            <v>0</v>
-          </cell>
-          <cell r="AG53">
-            <v>0</v>
-          </cell>
-          <cell r="AH53">
-            <v>0</v>
-          </cell>
-          <cell r="AI53">
-            <v>0</v>
-          </cell>
-          <cell r="AJ53">
-            <v>0</v>
-          </cell>
-          <cell r="AK53">
-            <v>0</v>
-          </cell>
-          <cell r="AL53">
-            <v>0</v>
-          </cell>
-          <cell r="AM53">
-            <v>0</v>
-          </cell>
-          <cell r="AN53">
-            <v>0</v>
-          </cell>
-          <cell r="AO53">
-            <v>0</v>
-          </cell>
-          <cell r="AP53">
-            <v>0</v>
-          </cell>
-          <cell r="AQ53">
-            <v>0</v>
-          </cell>
           <cell r="AR53">
             <v>0</v>
           </cell>
@@ -8322,111 +2927,6 @@
           <cell r="H54">
             <v>28710</v>
           </cell>
-          <cell r="I54">
-            <v>0</v>
-          </cell>
-          <cell r="J54">
-            <v>0</v>
-          </cell>
-          <cell r="K54">
-            <v>0</v>
-          </cell>
-          <cell r="L54">
-            <v>0</v>
-          </cell>
-          <cell r="M54">
-            <v>0</v>
-          </cell>
-          <cell r="N54">
-            <v>0</v>
-          </cell>
-          <cell r="O54">
-            <v>0</v>
-          </cell>
-          <cell r="P54">
-            <v>0</v>
-          </cell>
-          <cell r="Q54">
-            <v>0</v>
-          </cell>
-          <cell r="R54">
-            <v>0</v>
-          </cell>
-          <cell r="S54">
-            <v>0</v>
-          </cell>
-          <cell r="T54">
-            <v>0</v>
-          </cell>
-          <cell r="U54">
-            <v>0</v>
-          </cell>
-          <cell r="V54">
-            <v>0</v>
-          </cell>
-          <cell r="W54">
-            <v>0</v>
-          </cell>
-          <cell r="X54">
-            <v>0</v>
-          </cell>
-          <cell r="Y54">
-            <v>0</v>
-          </cell>
-          <cell r="Z54">
-            <v>0</v>
-          </cell>
-          <cell r="AA54">
-            <v>0</v>
-          </cell>
-          <cell r="AB54">
-            <v>0</v>
-          </cell>
-          <cell r="AC54">
-            <v>0</v>
-          </cell>
-          <cell r="AD54">
-            <v>0</v>
-          </cell>
-          <cell r="AE54">
-            <v>0</v>
-          </cell>
-          <cell r="AF54">
-            <v>0</v>
-          </cell>
-          <cell r="AG54">
-            <v>0</v>
-          </cell>
-          <cell r="AH54">
-            <v>0</v>
-          </cell>
-          <cell r="AI54">
-            <v>0</v>
-          </cell>
-          <cell r="AJ54">
-            <v>0</v>
-          </cell>
-          <cell r="AK54">
-            <v>0</v>
-          </cell>
-          <cell r="AL54">
-            <v>0</v>
-          </cell>
-          <cell r="AM54">
-            <v>0</v>
-          </cell>
-          <cell r="AN54">
-            <v>0</v>
-          </cell>
-          <cell r="AO54">
-            <v>0</v>
-          </cell>
-          <cell r="AP54">
-            <v>0</v>
-          </cell>
-          <cell r="AQ54">
-            <v>0</v>
-          </cell>
           <cell r="AR54">
             <v>0</v>
           </cell>
@@ -8459,111 +2959,6 @@
           <cell r="H55">
             <v>0</v>
           </cell>
-          <cell r="I55">
-            <v>0</v>
-          </cell>
-          <cell r="J55">
-            <v>0</v>
-          </cell>
-          <cell r="K55">
-            <v>0</v>
-          </cell>
-          <cell r="L55">
-            <v>0</v>
-          </cell>
-          <cell r="M55">
-            <v>0</v>
-          </cell>
-          <cell r="N55">
-            <v>0</v>
-          </cell>
-          <cell r="O55">
-            <v>0</v>
-          </cell>
-          <cell r="P55">
-            <v>0</v>
-          </cell>
-          <cell r="Q55">
-            <v>0</v>
-          </cell>
-          <cell r="R55">
-            <v>0</v>
-          </cell>
-          <cell r="S55">
-            <v>0</v>
-          </cell>
-          <cell r="T55">
-            <v>0</v>
-          </cell>
-          <cell r="U55">
-            <v>0</v>
-          </cell>
-          <cell r="V55">
-            <v>0</v>
-          </cell>
-          <cell r="W55">
-            <v>0</v>
-          </cell>
-          <cell r="X55">
-            <v>0</v>
-          </cell>
-          <cell r="Y55">
-            <v>0</v>
-          </cell>
-          <cell r="Z55">
-            <v>0</v>
-          </cell>
-          <cell r="AA55">
-            <v>0</v>
-          </cell>
-          <cell r="AB55">
-            <v>0</v>
-          </cell>
-          <cell r="AC55">
-            <v>0</v>
-          </cell>
-          <cell r="AD55">
-            <v>0</v>
-          </cell>
-          <cell r="AE55">
-            <v>0</v>
-          </cell>
-          <cell r="AF55">
-            <v>0</v>
-          </cell>
-          <cell r="AG55">
-            <v>0</v>
-          </cell>
-          <cell r="AH55">
-            <v>0</v>
-          </cell>
-          <cell r="AI55">
-            <v>0</v>
-          </cell>
-          <cell r="AJ55">
-            <v>0</v>
-          </cell>
-          <cell r="AK55">
-            <v>0</v>
-          </cell>
-          <cell r="AL55">
-            <v>0</v>
-          </cell>
-          <cell r="AM55">
-            <v>0</v>
-          </cell>
-          <cell r="AN55">
-            <v>0</v>
-          </cell>
-          <cell r="AO55">
-            <v>0</v>
-          </cell>
-          <cell r="AP55">
-            <v>0</v>
-          </cell>
-          <cell r="AQ55">
-            <v>0</v>
-          </cell>
           <cell r="AR55">
             <v>0</v>
           </cell>
@@ -8596,111 +2991,6 @@
           <cell r="H56">
             <v>0</v>
           </cell>
-          <cell r="I56">
-            <v>0</v>
-          </cell>
-          <cell r="J56">
-            <v>0</v>
-          </cell>
-          <cell r="K56">
-            <v>0</v>
-          </cell>
-          <cell r="L56">
-            <v>0</v>
-          </cell>
-          <cell r="M56">
-            <v>0</v>
-          </cell>
-          <cell r="N56">
-            <v>0</v>
-          </cell>
-          <cell r="O56">
-            <v>0</v>
-          </cell>
-          <cell r="P56">
-            <v>0</v>
-          </cell>
-          <cell r="Q56">
-            <v>0</v>
-          </cell>
-          <cell r="R56">
-            <v>0</v>
-          </cell>
-          <cell r="S56">
-            <v>0</v>
-          </cell>
-          <cell r="T56">
-            <v>0</v>
-          </cell>
-          <cell r="U56">
-            <v>0</v>
-          </cell>
-          <cell r="V56">
-            <v>0</v>
-          </cell>
-          <cell r="W56">
-            <v>0</v>
-          </cell>
-          <cell r="X56">
-            <v>0</v>
-          </cell>
-          <cell r="Y56">
-            <v>0</v>
-          </cell>
-          <cell r="Z56">
-            <v>0</v>
-          </cell>
-          <cell r="AA56">
-            <v>0</v>
-          </cell>
-          <cell r="AB56">
-            <v>0</v>
-          </cell>
-          <cell r="AC56">
-            <v>0</v>
-          </cell>
-          <cell r="AD56">
-            <v>0</v>
-          </cell>
-          <cell r="AE56">
-            <v>0</v>
-          </cell>
-          <cell r="AF56">
-            <v>0</v>
-          </cell>
-          <cell r="AG56">
-            <v>0</v>
-          </cell>
-          <cell r="AH56">
-            <v>0</v>
-          </cell>
-          <cell r="AI56">
-            <v>0</v>
-          </cell>
-          <cell r="AJ56">
-            <v>0</v>
-          </cell>
-          <cell r="AK56">
-            <v>0</v>
-          </cell>
-          <cell r="AL56">
-            <v>0</v>
-          </cell>
-          <cell r="AM56">
-            <v>0</v>
-          </cell>
-          <cell r="AN56">
-            <v>0</v>
-          </cell>
-          <cell r="AO56">
-            <v>0</v>
-          </cell>
-          <cell r="AP56">
-            <v>0</v>
-          </cell>
-          <cell r="AQ56">
-            <v>0</v>
-          </cell>
           <cell r="AR56">
             <v>0</v>
           </cell>
@@ -8733,111 +3023,6 @@
           <cell r="H57">
             <v>5960</v>
           </cell>
-          <cell r="I57">
-            <v>0</v>
-          </cell>
-          <cell r="J57">
-            <v>0</v>
-          </cell>
-          <cell r="K57">
-            <v>0</v>
-          </cell>
-          <cell r="L57">
-            <v>0</v>
-          </cell>
-          <cell r="M57">
-            <v>0</v>
-          </cell>
-          <cell r="N57">
-            <v>0</v>
-          </cell>
-          <cell r="O57">
-            <v>0</v>
-          </cell>
-          <cell r="P57">
-            <v>0</v>
-          </cell>
-          <cell r="Q57">
-            <v>0</v>
-          </cell>
-          <cell r="R57">
-            <v>0</v>
-          </cell>
-          <cell r="S57">
-            <v>0</v>
-          </cell>
-          <cell r="T57">
-            <v>0</v>
-          </cell>
-          <cell r="U57">
-            <v>0</v>
-          </cell>
-          <cell r="V57">
-            <v>0</v>
-          </cell>
-          <cell r="W57">
-            <v>0</v>
-          </cell>
-          <cell r="X57">
-            <v>0</v>
-          </cell>
-          <cell r="Y57">
-            <v>0</v>
-          </cell>
-          <cell r="Z57">
-            <v>0</v>
-          </cell>
-          <cell r="AA57">
-            <v>0</v>
-          </cell>
-          <cell r="AB57">
-            <v>0</v>
-          </cell>
-          <cell r="AC57">
-            <v>0</v>
-          </cell>
-          <cell r="AD57">
-            <v>0</v>
-          </cell>
-          <cell r="AE57">
-            <v>0</v>
-          </cell>
-          <cell r="AF57">
-            <v>0</v>
-          </cell>
-          <cell r="AG57">
-            <v>0</v>
-          </cell>
-          <cell r="AH57">
-            <v>0</v>
-          </cell>
-          <cell r="AI57">
-            <v>0</v>
-          </cell>
-          <cell r="AJ57">
-            <v>0</v>
-          </cell>
-          <cell r="AK57">
-            <v>0</v>
-          </cell>
-          <cell r="AL57">
-            <v>0</v>
-          </cell>
-          <cell r="AM57">
-            <v>0</v>
-          </cell>
-          <cell r="AN57">
-            <v>0</v>
-          </cell>
-          <cell r="AO57">
-            <v>0</v>
-          </cell>
-          <cell r="AP57">
-            <v>0</v>
-          </cell>
-          <cell r="AQ57">
-            <v>0</v>
-          </cell>
           <cell r="AR57">
             <v>0</v>
           </cell>
@@ -8870,111 +3055,6 @@
           <cell r="H58">
             <v>0</v>
           </cell>
-          <cell r="I58">
-            <v>0</v>
-          </cell>
-          <cell r="J58">
-            <v>0</v>
-          </cell>
-          <cell r="K58">
-            <v>0</v>
-          </cell>
-          <cell r="L58">
-            <v>0</v>
-          </cell>
-          <cell r="M58">
-            <v>0</v>
-          </cell>
-          <cell r="N58">
-            <v>0</v>
-          </cell>
-          <cell r="O58">
-            <v>0</v>
-          </cell>
-          <cell r="P58">
-            <v>0</v>
-          </cell>
-          <cell r="Q58">
-            <v>0</v>
-          </cell>
-          <cell r="R58">
-            <v>0</v>
-          </cell>
-          <cell r="S58">
-            <v>0</v>
-          </cell>
-          <cell r="T58">
-            <v>0</v>
-          </cell>
-          <cell r="U58">
-            <v>0</v>
-          </cell>
-          <cell r="V58">
-            <v>0</v>
-          </cell>
-          <cell r="W58">
-            <v>0</v>
-          </cell>
-          <cell r="X58">
-            <v>0</v>
-          </cell>
-          <cell r="Y58">
-            <v>0</v>
-          </cell>
-          <cell r="Z58">
-            <v>0</v>
-          </cell>
-          <cell r="AA58">
-            <v>0</v>
-          </cell>
-          <cell r="AB58">
-            <v>0</v>
-          </cell>
-          <cell r="AC58">
-            <v>0</v>
-          </cell>
-          <cell r="AD58">
-            <v>0</v>
-          </cell>
-          <cell r="AE58">
-            <v>0</v>
-          </cell>
-          <cell r="AF58">
-            <v>0</v>
-          </cell>
-          <cell r="AG58">
-            <v>0</v>
-          </cell>
-          <cell r="AH58">
-            <v>0</v>
-          </cell>
-          <cell r="AI58">
-            <v>0</v>
-          </cell>
-          <cell r="AJ58">
-            <v>0</v>
-          </cell>
-          <cell r="AK58">
-            <v>0</v>
-          </cell>
-          <cell r="AL58">
-            <v>0</v>
-          </cell>
-          <cell r="AM58">
-            <v>0</v>
-          </cell>
-          <cell r="AN58">
-            <v>0</v>
-          </cell>
-          <cell r="AO58">
-            <v>0</v>
-          </cell>
-          <cell r="AP58">
-            <v>0</v>
-          </cell>
-          <cell r="AQ58">
-            <v>0</v>
-          </cell>
           <cell r="AR58">
             <v>0</v>
           </cell>
@@ -9007,111 +3087,6 @@
           <cell r="H59">
             <v>0</v>
           </cell>
-          <cell r="I59">
-            <v>0</v>
-          </cell>
-          <cell r="J59">
-            <v>0</v>
-          </cell>
-          <cell r="K59">
-            <v>0</v>
-          </cell>
-          <cell r="L59">
-            <v>0</v>
-          </cell>
-          <cell r="M59">
-            <v>0</v>
-          </cell>
-          <cell r="N59">
-            <v>0</v>
-          </cell>
-          <cell r="O59">
-            <v>0</v>
-          </cell>
-          <cell r="P59">
-            <v>0</v>
-          </cell>
-          <cell r="Q59">
-            <v>0</v>
-          </cell>
-          <cell r="R59">
-            <v>0</v>
-          </cell>
-          <cell r="S59">
-            <v>0</v>
-          </cell>
-          <cell r="T59">
-            <v>0</v>
-          </cell>
-          <cell r="U59">
-            <v>0</v>
-          </cell>
-          <cell r="V59">
-            <v>0</v>
-          </cell>
-          <cell r="W59">
-            <v>0</v>
-          </cell>
-          <cell r="X59">
-            <v>0</v>
-          </cell>
-          <cell r="Y59">
-            <v>0</v>
-          </cell>
-          <cell r="Z59">
-            <v>0</v>
-          </cell>
-          <cell r="AA59">
-            <v>0</v>
-          </cell>
-          <cell r="AB59">
-            <v>0</v>
-          </cell>
-          <cell r="AC59">
-            <v>0</v>
-          </cell>
-          <cell r="AD59">
-            <v>0</v>
-          </cell>
-          <cell r="AE59">
-            <v>0</v>
-          </cell>
-          <cell r="AF59">
-            <v>0</v>
-          </cell>
-          <cell r="AG59">
-            <v>0</v>
-          </cell>
-          <cell r="AH59">
-            <v>0</v>
-          </cell>
-          <cell r="AI59">
-            <v>0</v>
-          </cell>
-          <cell r="AJ59">
-            <v>0</v>
-          </cell>
-          <cell r="AK59">
-            <v>0</v>
-          </cell>
-          <cell r="AL59">
-            <v>0</v>
-          </cell>
-          <cell r="AM59">
-            <v>0</v>
-          </cell>
-          <cell r="AN59">
-            <v>0</v>
-          </cell>
-          <cell r="AO59">
-            <v>0</v>
-          </cell>
-          <cell r="AP59">
-            <v>0</v>
-          </cell>
-          <cell r="AQ59">
-            <v>0</v>
-          </cell>
           <cell r="AR59">
             <v>0</v>
           </cell>
@@ -9144,110 +3119,8 @@
           <cell r="H60">
             <v>5090</v>
           </cell>
-          <cell r="I60">
-            <v>0</v>
-          </cell>
-          <cell r="J60">
-            <v>0</v>
-          </cell>
-          <cell r="K60">
-            <v>0</v>
-          </cell>
-          <cell r="L60">
-            <v>0</v>
-          </cell>
-          <cell r="M60">
-            <v>0</v>
-          </cell>
-          <cell r="N60">
-            <v>0</v>
-          </cell>
-          <cell r="O60">
-            <v>0</v>
-          </cell>
-          <cell r="P60">
-            <v>0</v>
-          </cell>
-          <cell r="Q60">
-            <v>0</v>
-          </cell>
-          <cell r="R60">
-            <v>0</v>
-          </cell>
-          <cell r="S60">
-            <v>0</v>
-          </cell>
-          <cell r="T60">
-            <v>0</v>
-          </cell>
-          <cell r="U60">
-            <v>0</v>
-          </cell>
-          <cell r="V60">
-            <v>0</v>
-          </cell>
-          <cell r="W60">
-            <v>0</v>
-          </cell>
-          <cell r="X60">
-            <v>0</v>
-          </cell>
-          <cell r="Y60">
-            <v>0</v>
-          </cell>
-          <cell r="Z60">
-            <v>0</v>
-          </cell>
-          <cell r="AA60">
-            <v>0</v>
-          </cell>
-          <cell r="AB60">
-            <v>0</v>
-          </cell>
-          <cell r="AC60">
-            <v>0</v>
-          </cell>
-          <cell r="AD60">
-            <v>0</v>
-          </cell>
-          <cell r="AE60">
-            <v>0</v>
-          </cell>
-          <cell r="AF60">
-            <v>0</v>
-          </cell>
-          <cell r="AG60">
-            <v>0</v>
-          </cell>
-          <cell r="AH60">
-            <v>0</v>
-          </cell>
-          <cell r="AI60">
-            <v>0</v>
-          </cell>
-          <cell r="AJ60">
-            <v>0</v>
-          </cell>
-          <cell r="AK60">
-            <v>0</v>
-          </cell>
-          <cell r="AL60">
-            <v>0</v>
-          </cell>
-          <cell r="AM60">
-            <v>0</v>
-          </cell>
-          <cell r="AN60">
-            <v>0</v>
-          </cell>
           <cell r="AO60">
             <v>5090</v>
-          </cell>
-          <cell r="AP60">
-            <v>0</v>
-          </cell>
-          <cell r="AQ60">
-            <v>0</v>
           </cell>
           <cell r="AR60">
             <v>5090</v>
@@ -9281,111 +3154,6 @@
           <cell r="H61">
             <v>1150</v>
           </cell>
-          <cell r="I61">
-            <v>0</v>
-          </cell>
-          <cell r="J61">
-            <v>0</v>
-          </cell>
-          <cell r="K61">
-            <v>0</v>
-          </cell>
-          <cell r="L61">
-            <v>0</v>
-          </cell>
-          <cell r="M61">
-            <v>0</v>
-          </cell>
-          <cell r="N61">
-            <v>0</v>
-          </cell>
-          <cell r="O61">
-            <v>0</v>
-          </cell>
-          <cell r="P61">
-            <v>0</v>
-          </cell>
-          <cell r="Q61">
-            <v>0</v>
-          </cell>
-          <cell r="R61">
-            <v>0</v>
-          </cell>
-          <cell r="S61">
-            <v>0</v>
-          </cell>
-          <cell r="T61">
-            <v>0</v>
-          </cell>
-          <cell r="U61">
-            <v>0</v>
-          </cell>
-          <cell r="V61">
-            <v>0</v>
-          </cell>
-          <cell r="W61">
-            <v>0</v>
-          </cell>
-          <cell r="X61">
-            <v>0</v>
-          </cell>
-          <cell r="Y61">
-            <v>0</v>
-          </cell>
-          <cell r="Z61">
-            <v>0</v>
-          </cell>
-          <cell r="AA61">
-            <v>0</v>
-          </cell>
-          <cell r="AB61">
-            <v>0</v>
-          </cell>
-          <cell r="AC61">
-            <v>0</v>
-          </cell>
-          <cell r="AD61">
-            <v>0</v>
-          </cell>
-          <cell r="AE61">
-            <v>0</v>
-          </cell>
-          <cell r="AF61">
-            <v>0</v>
-          </cell>
-          <cell r="AG61">
-            <v>0</v>
-          </cell>
-          <cell r="AH61">
-            <v>0</v>
-          </cell>
-          <cell r="AI61">
-            <v>0</v>
-          </cell>
-          <cell r="AJ61">
-            <v>0</v>
-          </cell>
-          <cell r="AK61">
-            <v>0</v>
-          </cell>
-          <cell r="AL61">
-            <v>0</v>
-          </cell>
-          <cell r="AM61">
-            <v>0</v>
-          </cell>
-          <cell r="AN61">
-            <v>0</v>
-          </cell>
-          <cell r="AO61">
-            <v>0</v>
-          </cell>
-          <cell r="AP61">
-            <v>0</v>
-          </cell>
-          <cell r="AQ61">
-            <v>0</v>
-          </cell>
           <cell r="AR61">
             <v>0</v>
           </cell>
@@ -9418,110 +3186,8 @@
           <cell r="H62">
             <v>41360</v>
           </cell>
-          <cell r="I62">
-            <v>0</v>
-          </cell>
-          <cell r="J62">
-            <v>0</v>
-          </cell>
-          <cell r="K62">
-            <v>0</v>
-          </cell>
-          <cell r="L62">
-            <v>0</v>
-          </cell>
-          <cell r="M62">
-            <v>0</v>
-          </cell>
-          <cell r="N62">
-            <v>0</v>
-          </cell>
-          <cell r="O62">
-            <v>0</v>
-          </cell>
           <cell r="P62">
             <v>3650</v>
-          </cell>
-          <cell r="Q62">
-            <v>0</v>
-          </cell>
-          <cell r="R62">
-            <v>0</v>
-          </cell>
-          <cell r="S62">
-            <v>0</v>
-          </cell>
-          <cell r="T62">
-            <v>0</v>
-          </cell>
-          <cell r="U62">
-            <v>0</v>
-          </cell>
-          <cell r="V62">
-            <v>0</v>
-          </cell>
-          <cell r="W62">
-            <v>0</v>
-          </cell>
-          <cell r="X62">
-            <v>0</v>
-          </cell>
-          <cell r="Y62">
-            <v>0</v>
-          </cell>
-          <cell r="Z62">
-            <v>0</v>
-          </cell>
-          <cell r="AA62">
-            <v>0</v>
-          </cell>
-          <cell r="AB62">
-            <v>0</v>
-          </cell>
-          <cell r="AC62">
-            <v>0</v>
-          </cell>
-          <cell r="AD62">
-            <v>0</v>
-          </cell>
-          <cell r="AE62">
-            <v>0</v>
-          </cell>
-          <cell r="AF62">
-            <v>0</v>
-          </cell>
-          <cell r="AG62">
-            <v>0</v>
-          </cell>
-          <cell r="AH62">
-            <v>0</v>
-          </cell>
-          <cell r="AI62">
-            <v>0</v>
-          </cell>
-          <cell r="AJ62">
-            <v>0</v>
-          </cell>
-          <cell r="AK62">
-            <v>0</v>
-          </cell>
-          <cell r="AL62">
-            <v>0</v>
-          </cell>
-          <cell r="AM62">
-            <v>0</v>
-          </cell>
-          <cell r="AN62">
-            <v>0</v>
-          </cell>
-          <cell r="AO62">
-            <v>0</v>
-          </cell>
-          <cell r="AP62">
-            <v>0</v>
-          </cell>
-          <cell r="AQ62">
-            <v>0</v>
           </cell>
           <cell r="AR62">
             <v>3650</v>
@@ -9555,111 +3221,6 @@
           <cell r="H63">
             <v>230</v>
           </cell>
-          <cell r="I63">
-            <v>0</v>
-          </cell>
-          <cell r="J63">
-            <v>0</v>
-          </cell>
-          <cell r="K63">
-            <v>0</v>
-          </cell>
-          <cell r="L63">
-            <v>0</v>
-          </cell>
-          <cell r="M63">
-            <v>0</v>
-          </cell>
-          <cell r="N63">
-            <v>0</v>
-          </cell>
-          <cell r="O63">
-            <v>0</v>
-          </cell>
-          <cell r="P63">
-            <v>0</v>
-          </cell>
-          <cell r="Q63">
-            <v>0</v>
-          </cell>
-          <cell r="R63">
-            <v>0</v>
-          </cell>
-          <cell r="S63">
-            <v>0</v>
-          </cell>
-          <cell r="T63">
-            <v>0</v>
-          </cell>
-          <cell r="U63">
-            <v>0</v>
-          </cell>
-          <cell r="V63">
-            <v>0</v>
-          </cell>
-          <cell r="W63">
-            <v>0</v>
-          </cell>
-          <cell r="X63">
-            <v>0</v>
-          </cell>
-          <cell r="Y63">
-            <v>0</v>
-          </cell>
-          <cell r="Z63">
-            <v>0</v>
-          </cell>
-          <cell r="AA63">
-            <v>0</v>
-          </cell>
-          <cell r="AB63">
-            <v>0</v>
-          </cell>
-          <cell r="AC63">
-            <v>0</v>
-          </cell>
-          <cell r="AD63">
-            <v>0</v>
-          </cell>
-          <cell r="AE63">
-            <v>0</v>
-          </cell>
-          <cell r="AF63">
-            <v>0</v>
-          </cell>
-          <cell r="AG63">
-            <v>0</v>
-          </cell>
-          <cell r="AH63">
-            <v>0</v>
-          </cell>
-          <cell r="AI63">
-            <v>0</v>
-          </cell>
-          <cell r="AJ63">
-            <v>0</v>
-          </cell>
-          <cell r="AK63">
-            <v>0</v>
-          </cell>
-          <cell r="AL63">
-            <v>0</v>
-          </cell>
-          <cell r="AM63">
-            <v>0</v>
-          </cell>
-          <cell r="AN63">
-            <v>0</v>
-          </cell>
-          <cell r="AO63">
-            <v>0</v>
-          </cell>
-          <cell r="AP63">
-            <v>0</v>
-          </cell>
-          <cell r="AQ63">
-            <v>0</v>
-          </cell>
           <cell r="AR63">
             <v>0</v>
           </cell>
@@ -9692,111 +3253,6 @@
           <cell r="H64">
             <v>2140</v>
           </cell>
-          <cell r="I64">
-            <v>0</v>
-          </cell>
-          <cell r="J64">
-            <v>0</v>
-          </cell>
-          <cell r="K64">
-            <v>0</v>
-          </cell>
-          <cell r="L64">
-            <v>0</v>
-          </cell>
-          <cell r="M64">
-            <v>0</v>
-          </cell>
-          <cell r="N64">
-            <v>0</v>
-          </cell>
-          <cell r="O64">
-            <v>0</v>
-          </cell>
-          <cell r="P64">
-            <v>0</v>
-          </cell>
-          <cell r="Q64">
-            <v>0</v>
-          </cell>
-          <cell r="R64">
-            <v>0</v>
-          </cell>
-          <cell r="S64">
-            <v>0</v>
-          </cell>
-          <cell r="T64">
-            <v>0</v>
-          </cell>
-          <cell r="U64">
-            <v>0</v>
-          </cell>
-          <cell r="V64">
-            <v>0</v>
-          </cell>
-          <cell r="W64">
-            <v>0</v>
-          </cell>
-          <cell r="X64">
-            <v>0</v>
-          </cell>
-          <cell r="Y64">
-            <v>0</v>
-          </cell>
-          <cell r="Z64">
-            <v>0</v>
-          </cell>
-          <cell r="AA64">
-            <v>0</v>
-          </cell>
-          <cell r="AB64">
-            <v>0</v>
-          </cell>
-          <cell r="AC64">
-            <v>0</v>
-          </cell>
-          <cell r="AD64">
-            <v>0</v>
-          </cell>
-          <cell r="AE64">
-            <v>0</v>
-          </cell>
-          <cell r="AF64">
-            <v>0</v>
-          </cell>
-          <cell r="AG64">
-            <v>0</v>
-          </cell>
-          <cell r="AH64">
-            <v>0</v>
-          </cell>
-          <cell r="AI64">
-            <v>0</v>
-          </cell>
-          <cell r="AJ64">
-            <v>0</v>
-          </cell>
-          <cell r="AK64">
-            <v>0</v>
-          </cell>
-          <cell r="AL64">
-            <v>0</v>
-          </cell>
-          <cell r="AM64">
-            <v>0</v>
-          </cell>
-          <cell r="AN64">
-            <v>0</v>
-          </cell>
-          <cell r="AO64">
-            <v>0</v>
-          </cell>
-          <cell r="AP64">
-            <v>0</v>
-          </cell>
-          <cell r="AQ64">
-            <v>0</v>
-          </cell>
           <cell r="AR64">
             <v>0</v>
           </cell>
@@ -9832,108 +3288,6 @@
           <cell r="I65">
             <v>12700</v>
           </cell>
-          <cell r="J65">
-            <v>0</v>
-          </cell>
-          <cell r="K65">
-            <v>0</v>
-          </cell>
-          <cell r="L65">
-            <v>0</v>
-          </cell>
-          <cell r="M65">
-            <v>0</v>
-          </cell>
-          <cell r="N65">
-            <v>0</v>
-          </cell>
-          <cell r="O65">
-            <v>0</v>
-          </cell>
-          <cell r="P65">
-            <v>0</v>
-          </cell>
-          <cell r="Q65">
-            <v>0</v>
-          </cell>
-          <cell r="R65">
-            <v>0</v>
-          </cell>
-          <cell r="S65">
-            <v>0</v>
-          </cell>
-          <cell r="T65">
-            <v>0</v>
-          </cell>
-          <cell r="U65">
-            <v>0</v>
-          </cell>
-          <cell r="V65">
-            <v>0</v>
-          </cell>
-          <cell r="W65">
-            <v>0</v>
-          </cell>
-          <cell r="X65">
-            <v>0</v>
-          </cell>
-          <cell r="Y65">
-            <v>0</v>
-          </cell>
-          <cell r="Z65">
-            <v>0</v>
-          </cell>
-          <cell r="AA65">
-            <v>0</v>
-          </cell>
-          <cell r="AB65">
-            <v>0</v>
-          </cell>
-          <cell r="AC65">
-            <v>0</v>
-          </cell>
-          <cell r="AD65">
-            <v>0</v>
-          </cell>
-          <cell r="AE65">
-            <v>0</v>
-          </cell>
-          <cell r="AF65">
-            <v>0</v>
-          </cell>
-          <cell r="AG65">
-            <v>0</v>
-          </cell>
-          <cell r="AH65">
-            <v>0</v>
-          </cell>
-          <cell r="AI65">
-            <v>0</v>
-          </cell>
-          <cell r="AJ65">
-            <v>0</v>
-          </cell>
-          <cell r="AK65">
-            <v>0</v>
-          </cell>
-          <cell r="AL65">
-            <v>0</v>
-          </cell>
-          <cell r="AM65">
-            <v>0</v>
-          </cell>
-          <cell r="AN65">
-            <v>0</v>
-          </cell>
-          <cell r="AO65">
-            <v>0</v>
-          </cell>
-          <cell r="AP65">
-            <v>0</v>
-          </cell>
-          <cell r="AQ65">
-            <v>0</v>
-          </cell>
           <cell r="AR65">
             <v>12700</v>
           </cell>
@@ -9972,105 +3326,6 @@
           <cell r="J66">
             <v>2000</v>
           </cell>
-          <cell r="K66">
-            <v>0</v>
-          </cell>
-          <cell r="L66">
-            <v>0</v>
-          </cell>
-          <cell r="M66">
-            <v>0</v>
-          </cell>
-          <cell r="N66">
-            <v>0</v>
-          </cell>
-          <cell r="O66">
-            <v>0</v>
-          </cell>
-          <cell r="P66">
-            <v>0</v>
-          </cell>
-          <cell r="Q66">
-            <v>0</v>
-          </cell>
-          <cell r="R66">
-            <v>0</v>
-          </cell>
-          <cell r="S66">
-            <v>0</v>
-          </cell>
-          <cell r="T66">
-            <v>0</v>
-          </cell>
-          <cell r="U66">
-            <v>0</v>
-          </cell>
-          <cell r="V66">
-            <v>0</v>
-          </cell>
-          <cell r="W66">
-            <v>0</v>
-          </cell>
-          <cell r="X66">
-            <v>0</v>
-          </cell>
-          <cell r="Y66">
-            <v>0</v>
-          </cell>
-          <cell r="Z66">
-            <v>0</v>
-          </cell>
-          <cell r="AA66">
-            <v>0</v>
-          </cell>
-          <cell r="AB66">
-            <v>0</v>
-          </cell>
-          <cell r="AC66">
-            <v>0</v>
-          </cell>
-          <cell r="AD66">
-            <v>0</v>
-          </cell>
-          <cell r="AE66">
-            <v>0</v>
-          </cell>
-          <cell r="AF66">
-            <v>0</v>
-          </cell>
-          <cell r="AG66">
-            <v>0</v>
-          </cell>
-          <cell r="AH66">
-            <v>0</v>
-          </cell>
-          <cell r="AI66">
-            <v>0</v>
-          </cell>
-          <cell r="AJ66">
-            <v>0</v>
-          </cell>
-          <cell r="AK66">
-            <v>0</v>
-          </cell>
-          <cell r="AL66">
-            <v>0</v>
-          </cell>
-          <cell r="AM66">
-            <v>0</v>
-          </cell>
-          <cell r="AN66">
-            <v>0</v>
-          </cell>
-          <cell r="AO66">
-            <v>0</v>
-          </cell>
-          <cell r="AP66">
-            <v>0</v>
-          </cell>
-          <cell r="AQ66">
-            <v>0</v>
-          </cell>
           <cell r="AR66">
             <v>9000</v>
           </cell>
@@ -10103,111 +3358,6 @@
           <cell r="H67">
             <v>37350</v>
           </cell>
-          <cell r="I67">
-            <v>0</v>
-          </cell>
-          <cell r="J67">
-            <v>0</v>
-          </cell>
-          <cell r="K67">
-            <v>0</v>
-          </cell>
-          <cell r="L67">
-            <v>0</v>
-          </cell>
-          <cell r="M67">
-            <v>0</v>
-          </cell>
-          <cell r="N67">
-            <v>0</v>
-          </cell>
-          <cell r="O67">
-            <v>0</v>
-          </cell>
-          <cell r="P67">
-            <v>0</v>
-          </cell>
-          <cell r="Q67">
-            <v>0</v>
-          </cell>
-          <cell r="R67">
-            <v>0</v>
-          </cell>
-          <cell r="S67">
-            <v>0</v>
-          </cell>
-          <cell r="T67">
-            <v>0</v>
-          </cell>
-          <cell r="U67">
-            <v>0</v>
-          </cell>
-          <cell r="V67">
-            <v>0</v>
-          </cell>
-          <cell r="W67">
-            <v>0</v>
-          </cell>
-          <cell r="X67">
-            <v>0</v>
-          </cell>
-          <cell r="Y67">
-            <v>0</v>
-          </cell>
-          <cell r="Z67">
-            <v>0</v>
-          </cell>
-          <cell r="AA67">
-            <v>0</v>
-          </cell>
-          <cell r="AB67">
-            <v>0</v>
-          </cell>
-          <cell r="AC67">
-            <v>0</v>
-          </cell>
-          <cell r="AD67">
-            <v>0</v>
-          </cell>
-          <cell r="AE67">
-            <v>0</v>
-          </cell>
-          <cell r="AF67">
-            <v>0</v>
-          </cell>
-          <cell r="AG67">
-            <v>0</v>
-          </cell>
-          <cell r="AH67">
-            <v>0</v>
-          </cell>
-          <cell r="AI67">
-            <v>0</v>
-          </cell>
-          <cell r="AJ67">
-            <v>0</v>
-          </cell>
-          <cell r="AK67">
-            <v>0</v>
-          </cell>
-          <cell r="AL67">
-            <v>0</v>
-          </cell>
-          <cell r="AM67">
-            <v>0</v>
-          </cell>
-          <cell r="AN67">
-            <v>0</v>
-          </cell>
-          <cell r="AO67">
-            <v>0</v>
-          </cell>
-          <cell r="AP67">
-            <v>0</v>
-          </cell>
-          <cell r="AQ67">
-            <v>0</v>
-          </cell>
           <cell r="AR67">
             <v>0</v>
           </cell>
@@ -10219,9 +3369,6 @@
           </cell>
         </row>
         <row r="68">
-          <cell r="B68">
-            <v>0</v>
-          </cell>
           <cell r="C68">
             <v>1044360</v>
           </cell>
@@ -10250,7 +3397,7 @@
             <v>74170</v>
           </cell>
           <cell r="L68">
-            <v>0</v>
+            <v>63150</v>
           </cell>
           <cell r="M68">
             <v>0</v>
@@ -10346,10 +3493,10 @@
             <v>75000</v>
           </cell>
           <cell r="AR68">
-            <v>567750</v>
+            <v>630900</v>
           </cell>
           <cell r="AS68">
-            <v>1962978</v>
+            <v>1899828</v>
           </cell>
           <cell r="AT68">
             <v>2410</v>
@@ -10392,13 +3539,13 @@
             <v>74170</v>
           </cell>
           <cell r="K75">
-            <v>0</v>
+            <v>63150</v>
           </cell>
           <cell r="L75">
             <v>0</v>
           </cell>
           <cell r="M75">
-            <v>119660</v>
+            <v>182810</v>
           </cell>
         </row>
         <row r="76">
@@ -10553,13 +3700,13 @@
             <v>128080</v>
           </cell>
           <cell r="K82">
-            <v>0</v>
+            <v>63150</v>
           </cell>
           <cell r="L82">
             <v>75000</v>
           </cell>
           <cell r="M82">
-            <v>567750</v>
+            <v>630900</v>
           </cell>
         </row>
       </sheetData>
@@ -10858,30 +4005,30 @@
   <dimension ref="A1:AT84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="AN52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="AO25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AO56" sqref="AO56"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="19.5" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -10922,65 +4069,65 @@
       <c r="AT1" s="3"/>
     </row>
     <row r="2" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A2" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="53" t="s">
+      <c r="A2" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="53" t="s">
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="53" t="s">
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="53" t="s">
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="53" t="s">
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="53" t="s">
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="53" t="s">
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="55"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="58"/>
       <c r="AR2" s="4"/>
       <c r="AS2" s="5"/>
       <c r="AT2" s="6"/>
@@ -11132,9 +4279,9 @@
       <c r="B4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="15" t="str">
+      <c r="C4" s="15">
         <f>IFERROR(IF(VLOOKUP(B4, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B4, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>9600</v>
       </c>
       <c r="D4" s="16">
         <f>VLOOKUP(B4,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -11142,10 +4289,11 @@
       </c>
       <c r="E4" s="16">
         <f>IF(OR(C4="", D4=""), "INCOMP", IFERROR(IF(C4="no load", 0, C4) + IF(D4="no load", 0, D4), "INCOMP"))</f>
-        <v>35040</v>
+        <v>44640</v>
       </c>
       <c r="F4" s="17">
-        <v>0</v>
+        <f>50+400</f>
+        <v>450</v>
       </c>
       <c r="G4" s="18">
         <f>VLOOKUP(B4,[1]PAYMENT!$B:$AT,45,FALSE)</f>
@@ -11153,7 +4301,7 @@
       </c>
       <c r="H4" s="19">
         <f>ABS(IF((E4=0),0,MAX(0,IF(OR(D4="", E4="", F4=""),C4, E4-F4-G4))))</f>
-        <v>35040</v>
+        <v>44190</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="21"/>
@@ -11181,7 +4329,9 @@
       <c r="AF4" s="26"/>
       <c r="AG4" s="24"/>
       <c r="AH4" s="20"/>
-      <c r="AI4" s="21"/>
+      <c r="AI4" s="21">
+        <v>5750</v>
+      </c>
       <c r="AJ4" s="22"/>
       <c r="AK4" s="23"/>
       <c r="AL4" s="24"/>
@@ -11192,11 +4342,11 @@
       <c r="AQ4" s="24"/>
       <c r="AR4" s="29">
         <f t="shared" ref="AR4:AR35" si="0">SUM(I4:AQ4)</f>
-        <v>0</v>
+        <v>5750</v>
       </c>
       <c r="AS4" s="16">
         <f t="shared" ref="AS4:AS67" si="1">IF((H4-AR4&lt;0),0,H4-AR4)</f>
-        <v>35040</v>
+        <v>38440</v>
       </c>
       <c r="AT4" s="18">
         <f>ABS(IF(AND(AR4=0,AS4=0),G4,IF((H4-AR4&lt;0),H4-AR4,0)))</f>
@@ -11210,9 +4360,9 @@
       <c r="B5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="15" t="str">
+      <c r="C5" s="15">
         <f>IFERROR(IF(VLOOKUP(B5, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B5, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>6350</v>
       </c>
       <c r="D5" s="16">
         <f>VLOOKUP(B5,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -11220,7 +4370,7 @@
       </c>
       <c r="E5" s="16">
         <f>IF(OR(C5="", D5=""), "INCOMP", IFERROR(IF(C5="no load", 0, C5) + IF(D5="no load", 0, D5), "INCOMP"))</f>
-        <v>0</v>
+        <v>6350</v>
       </c>
       <c r="F5" s="17">
         <v>0</v>
@@ -11231,7 +4381,7 @@
       </c>
       <c r="H5" s="19">
         <f t="shared" ref="H5:H67" si="2">ABS(IF((E5=0),0,MAX(0,IF(OR(D5="", E5="", F5=""),C5, E5-F5-G5))))</f>
-        <v>0</v>
+        <v>6350</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="21"/>
@@ -11263,14 +4413,16 @@
       <c r="AJ5" s="22"/>
       <c r="AK5" s="23"/>
       <c r="AL5" s="24"/>
-      <c r="AM5" s="20"/>
+      <c r="AM5" s="20">
+        <v>6350</v>
+      </c>
       <c r="AN5" s="23"/>
       <c r="AO5" s="22"/>
       <c r="AP5" s="23"/>
       <c r="AQ5" s="24"/>
       <c r="AR5" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6350</v>
       </c>
       <c r="AS5" s="16">
         <f t="shared" si="1"/>
@@ -11369,20 +4521,20 @@
       <c r="B7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="15" t="str">
+      <c r="C7" s="15">
         <f>IFERROR(IF(VLOOKUP(B7, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B7, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>25910</v>
       </c>
       <c r="D7" s="16">
         <f>VLOOKUP(B7,[1]PAYMENT!$B:$AS,44,FALSE)</f>
-        <v>90600</v>
+        <v>27450</v>
       </c>
       <c r="E7" s="16">
         <f t="shared" si="3"/>
-        <v>90600</v>
+        <v>53360</v>
       </c>
       <c r="F7" s="17">
-        <v>0</v>
+        <v>2590</v>
       </c>
       <c r="G7" s="18">
         <f>VLOOKUP(B7,[1]PAYMENT!$B:$AT,45,FALSE)</f>
@@ -11390,12 +4542,14 @@
       </c>
       <c r="H7" s="19">
         <f t="shared" si="2"/>
-        <v>90600</v>
+        <v>50770</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="33"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>24565</v>
+      </c>
       <c r="M7" s="24"/>
       <c r="N7" s="20"/>
       <c r="O7" s="21"/>
@@ -11429,11 +4583,11 @@
       <c r="AQ7" s="24"/>
       <c r="AR7" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24565</v>
       </c>
       <c r="AS7" s="16">
         <f t="shared" si="1"/>
-        <v>90600</v>
+        <v>26205</v>
       </c>
       <c r="AT7" s="18">
         <f t="shared" ref="AT7:AT67" si="4">ABS(IF(AND(AR7=0,AS7=0),G7,IF((H7-AR7&lt;0),H7-AR7,0)))</f>
@@ -11447,9 +4601,9 @@
       <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="15" t="str">
+      <c r="C8" s="15">
         <f>IFERROR(IF(VLOOKUP(B8, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B8, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>12680</v>
       </c>
       <c r="D8" s="16">
         <f>VLOOKUP(B8,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -11457,10 +4611,10 @@
       </c>
       <c r="E8" s="16">
         <f t="shared" si="3"/>
-        <v>15860</v>
+        <v>28540</v>
       </c>
       <c r="F8" s="17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="18">
         <f>VLOOKUP(B8,[1]PAYMENT!$B:$AT,45,FALSE)</f>
@@ -11468,7 +4622,7 @@
       </c>
       <c r="H8" s="19">
         <f t="shared" si="2"/>
-        <v>15860</v>
+        <v>28440</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="33">
@@ -11498,7 +4652,9 @@
       <c r="AF8" s="26"/>
       <c r="AG8" s="24"/>
       <c r="AH8" s="20"/>
-      <c r="AI8" s="21"/>
+      <c r="AI8" s="21">
+        <v>250</v>
+      </c>
       <c r="AJ8" s="23"/>
       <c r="AK8" s="23"/>
       <c r="AL8" s="24"/>
@@ -11509,11 +4665,11 @@
       <c r="AQ8" s="24"/>
       <c r="AR8" s="29">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>15250</v>
       </c>
       <c r="AS8" s="16">
         <f t="shared" si="1"/>
-        <v>860</v>
+        <v>13190</v>
       </c>
       <c r="AT8" s="18">
         <f t="shared" si="4"/>
@@ -11683,9 +4839,9 @@
       <c r="B11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="15" t="str">
+      <c r="C11" s="15">
         <f>IFERROR(IF(VLOOKUP(B11, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B11, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>10190</v>
       </c>
       <c r="D11" s="16">
         <f>VLOOKUP(B11,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -11693,10 +4849,10 @@
       </c>
       <c r="E11" s="16">
         <f t="shared" si="3"/>
-        <v>22980</v>
+        <v>33170</v>
       </c>
       <c r="F11" s="17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G11" s="18">
         <f>VLOOKUP(B11,[1]PAYMENT!$B:$AT,45,FALSE)</f>
@@ -11704,7 +4860,7 @@
       </c>
       <c r="H11" s="19">
         <f t="shared" si="2"/>
-        <v>22980</v>
+        <v>33070</v>
       </c>
       <c r="I11" s="32"/>
       <c r="J11" s="33">
@@ -11738,18 +4894,20 @@
       <c r="AJ11" s="23"/>
       <c r="AK11" s="23"/>
       <c r="AL11" s="24"/>
-      <c r="AM11" s="32"/>
+      <c r="AM11" s="32">
+        <v>11000</v>
+      </c>
       <c r="AN11" s="23"/>
       <c r="AO11" s="23"/>
       <c r="AP11" s="23"/>
       <c r="AQ11" s="24"/>
       <c r="AR11" s="29">
         <f t="shared" si="0"/>
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="AS11" s="16">
         <f t="shared" si="1"/>
-        <v>1980</v>
+        <v>1070</v>
       </c>
       <c r="AT11" s="18">
         <f t="shared" si="4"/>
@@ -11763,9 +4921,9 @@
       <c r="B12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="15" t="str">
+      <c r="C12" s="15">
         <f>IFERROR(IF(VLOOKUP(B12, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B12, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>12890</v>
       </c>
       <c r="D12" s="16">
         <f>VLOOKUP(B12,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -11773,10 +4931,10 @@
       </c>
       <c r="E12" s="16">
         <f t="shared" si="3"/>
-        <v>14320</v>
+        <v>27210</v>
       </c>
       <c r="F12" s="17">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="G12" s="18">
         <f>VLOOKUP(B12,[1]PAYMENT!$B:$AT,45,FALSE)</f>
@@ -11784,7 +4942,7 @@
       </c>
       <c r="H12" s="19">
         <f t="shared" si="2"/>
-        <v>14320</v>
+        <v>26920</v>
       </c>
       <c r="I12" s="32">
         <v>14000</v>
@@ -11829,7 +4987,7 @@
       </c>
       <c r="AS12" s="16">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>12920</v>
       </c>
       <c r="AT12" s="18">
         <f t="shared" si="4"/>
@@ -12100,7 +5258,9 @@
         <f t="shared" si="2"/>
         <v>103840</v>
       </c>
-      <c r="I16" s="32"/>
+      <c r="I16" s="32">
+        <v>103840</v>
+      </c>
       <c r="J16" s="33"/>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
@@ -12137,11 +5297,11 @@
       <c r="AQ16" s="24"/>
       <c r="AR16" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103840</v>
       </c>
       <c r="AS16" s="16">
         <f t="shared" si="1"/>
-        <v>103840</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="18">
         <f t="shared" si="4"/>
@@ -12311,20 +5471,20 @@
       <c r="B19" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="15" t="str">
+      <c r="C19" s="15">
         <f>IFERROR(IF(VLOOKUP(B19, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B19, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>42780</v>
       </c>
       <c r="D19" s="16">
         <f>VLOOKUP(B19,[1]PAYMENT!$B:$AS,44,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E19" s="16">
-        <f t="shared" ref="E19:E29" si="5">IF(OR(C19="", D19=""), "INCOMP", IFERROR(IF(C19="no load", 0, C19) + IF(D19="no load", 0, D19), "INCOMP"))</f>
-        <v>0</v>
+        <f>IF(OR(C19="", D19=""), "INCOMP", IFERROR(IF(C19="no load", 0, C19) + IF(D19="no load", 0, D19), "INCOMP"))</f>
+        <v>42780</v>
       </c>
       <c r="F19" s="17">
-        <v>0</v>
+        <v>5080</v>
       </c>
       <c r="G19" s="18">
         <f>VLOOKUP(B19,[1]PAYMENT!$B:$AT,45,FALSE)</f>
@@ -12332,7 +5492,7 @@
       </c>
       <c r="H19" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>37700</v>
       </c>
       <c r="I19" s="32"/>
       <c r="J19" s="33"/>
@@ -12364,14 +5524,16 @@
       <c r="AJ19" s="23"/>
       <c r="AK19" s="23"/>
       <c r="AL19" s="24"/>
-      <c r="AM19" s="32"/>
+      <c r="AM19" s="32">
+        <v>37700</v>
+      </c>
       <c r="AN19" s="23"/>
       <c r="AO19" s="23"/>
       <c r="AP19" s="23"/>
       <c r="AQ19" s="24"/>
       <c r="AR19" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37700</v>
       </c>
       <c r="AS19" s="16">
         <f t="shared" si="1"/>
@@ -12398,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E20:E29" si="5">IF(OR(C20="", D20=""), "INCOMP", IFERROR(IF(C20="no load", 0, C20) + IF(D20="no load", 0, D20), "INCOMP"))</f>
         <v>0</v>
       </c>
       <c r="F20" s="17">
@@ -12467,9 +5629,9 @@
       <c r="B21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="15" t="str">
+      <c r="C21" s="15">
         <f>IFERROR(IF(VLOOKUP(B21, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B21, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>1710</v>
       </c>
       <c r="D21" s="16">
         <f>VLOOKUP(B21,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -12477,7 +5639,7 @@
       </c>
       <c r="E21" s="16">
         <f t="shared" si="5"/>
-        <v>3870</v>
+        <v>5580</v>
       </c>
       <c r="F21" s="17">
         <v>0</v>
@@ -12488,7 +5650,7 @@
       </c>
       <c r="H21" s="19">
         <f t="shared" si="2"/>
-        <v>3870</v>
+        <v>5580</v>
       </c>
       <c r="I21" s="32"/>
       <c r="J21" s="33"/>
@@ -12531,7 +5693,7 @@
       </c>
       <c r="AS21" s="16">
         <f t="shared" si="1"/>
-        <v>3870</v>
+        <v>5580</v>
       </c>
       <c r="AT21" s="18">
         <f t="shared" si="4"/>
@@ -12545,9 +5707,9 @@
       <c r="B22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="15" t="str">
+      <c r="C22" s="15">
         <f>IFERROR(IF(VLOOKUP(B22, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B22, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>1890</v>
       </c>
       <c r="D22" s="16">
         <f>VLOOKUP(B22,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -12555,10 +5717,10 @@
       </c>
       <c r="E22" s="16">
         <f t="shared" si="5"/>
-        <v>1890</v>
+        <v>3780</v>
       </c>
       <c r="F22" s="17">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G22" s="18">
         <f>VLOOKUP(B22,[1]PAYMENT!$B:$AT,45,FALSE)</f>
@@ -12566,7 +5728,7 @@
       </c>
       <c r="H22" s="19">
         <f t="shared" si="2"/>
-        <v>1890</v>
+        <v>3750</v>
       </c>
       <c r="I22" s="32"/>
       <c r="J22" s="33"/>
@@ -12600,16 +5762,18 @@
       <c r="AL22" s="24"/>
       <c r="AM22" s="32"/>
       <c r="AN22" s="23"/>
-      <c r="AO22" s="23"/>
+      <c r="AO22" s="23">
+        <v>3500</v>
+      </c>
       <c r="AP22" s="23"/>
       <c r="AQ22" s="24"/>
       <c r="AR22" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="AS22" s="16">
         <f t="shared" si="1"/>
-        <v>1890</v>
+        <v>250</v>
       </c>
       <c r="AT22" s="18">
         <f t="shared" si="4"/>
@@ -12937,9 +6101,9 @@
       <c r="B27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="15" t="str">
+      <c r="C27" s="15">
         <f>IFERROR(IF(VLOOKUP(B27, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B27, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>14940</v>
       </c>
       <c r="D27" s="16">
         <f>VLOOKUP(B27,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -12947,7 +6111,7 @@
       </c>
       <c r="E27" s="16">
         <f t="shared" si="5"/>
-        <v>21100</v>
+        <v>36040</v>
       </c>
       <c r="F27" s="17">
         <v>0</v>
@@ -12958,7 +6122,7 @@
       </c>
       <c r="H27" s="19">
         <f t="shared" si="2"/>
-        <v>21100</v>
+        <v>36040</v>
       </c>
       <c r="I27" s="32">
         <v>12000</v>
@@ -12996,16 +6160,18 @@
       <c r="AL27" s="24"/>
       <c r="AM27" s="32"/>
       <c r="AN27" s="33"/>
-      <c r="AO27" s="23"/>
+      <c r="AO27" s="23">
+        <v>10000</v>
+      </c>
       <c r="AP27" s="23"/>
       <c r="AQ27" s="24"/>
       <c r="AR27" s="29">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="AS27" s="16">
         <f t="shared" si="1"/>
-        <v>1100</v>
+        <v>6040</v>
       </c>
       <c r="AT27" s="18">
         <f t="shared" si="4"/>
@@ -13019,9 +6185,9 @@
       <c r="B28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="15" t="str">
+      <c r="C28" s="15">
         <f>IFERROR(IF(VLOOKUP(B28, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B28, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>26340</v>
       </c>
       <c r="D28" s="16">
         <f>VLOOKUP(B28,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -13029,10 +6195,10 @@
       </c>
       <c r="E28" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>26340</v>
       </c>
       <c r="F28" s="17">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="G28" s="18">
         <f>VLOOKUP(B28,[1]PAYMENT!$B:$AT,45,FALSE)</f>
@@ -13040,7 +6206,7 @@
       </c>
       <c r="H28" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>26050</v>
       </c>
       <c r="I28" s="32"/>
       <c r="J28" s="33"/>
@@ -13072,14 +6238,16 @@
       <c r="AJ28" s="23"/>
       <c r="AK28" s="23"/>
       <c r="AL28" s="24"/>
-      <c r="AM28" s="32"/>
+      <c r="AM28" s="32">
+        <v>26100</v>
+      </c>
       <c r="AN28" s="33"/>
       <c r="AO28" s="23"/>
       <c r="AP28" s="23"/>
       <c r="AQ28" s="24"/>
       <c r="AR28" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26100</v>
       </c>
       <c r="AS28" s="16">
         <f t="shared" si="1"/>
@@ -13087,7 +6255,7 @@
       </c>
       <c r="AT28" s="18">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:46" s="30" customFormat="1">
@@ -13097,9 +6265,9 @@
       <c r="B29" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="15" t="str">
+      <c r="C29" s="15">
         <f>IFERROR(IF(VLOOKUP(B29, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B29, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>44640</v>
       </c>
       <c r="D29" s="16">
         <f>VLOOKUP(B29,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -13107,7 +6275,7 @@
       </c>
       <c r="E29" s="16">
         <f t="shared" si="5"/>
-        <v>9400</v>
+        <v>54040</v>
       </c>
       <c r="F29" s="17">
         <v>0</v>
@@ -13118,7 +6286,7 @@
       </c>
       <c r="H29" s="19">
         <f t="shared" si="2"/>
-        <v>9400</v>
+        <v>54040</v>
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="33"/>
@@ -13150,22 +6318,24 @@
       <c r="AJ29" s="23"/>
       <c r="AK29" s="23"/>
       <c r="AL29" s="24"/>
-      <c r="AM29" s="32"/>
+      <c r="AM29" s="32">
+        <v>54050</v>
+      </c>
       <c r="AN29" s="33"/>
       <c r="AO29" s="23"/>
       <c r="AP29" s="23"/>
       <c r="AQ29" s="24"/>
       <c r="AR29" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54050</v>
       </c>
       <c r="AS29" s="16">
         <f t="shared" si="1"/>
-        <v>9400</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:46" s="30" customFormat="1">
@@ -13175,9 +6345,9 @@
       <c r="B30" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="15" t="str">
+      <c r="C30" s="15">
         <f>IFERROR(IF(VLOOKUP(B30, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B30, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>27360</v>
       </c>
       <c r="D30" s="16">
         <f>VLOOKUP(B30,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -13185,10 +6355,10 @@
       </c>
       <c r="E30" s="16">
         <f>IF(OR(C30="", D30=""), "INCOMP", IFERROR(IF(C30="no load", 0, C30) + IF(D30="no load", 0, D30), "INCOMP"))</f>
-        <v>20690</v>
+        <v>48050</v>
       </c>
       <c r="F30" s="17">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G30" s="18">
         <f>VLOOKUP(B30,[1]PAYMENT!$B:$AT,45,FALSE)</f>
@@ -13196,7 +6366,7 @@
       </c>
       <c r="H30" s="19">
         <f t="shared" si="2"/>
-        <v>20690</v>
+        <v>47800</v>
       </c>
       <c r="I30" s="32"/>
       <c r="J30" s="33"/>
@@ -13241,7 +6411,7 @@
       </c>
       <c r="AS30" s="16">
         <f t="shared" si="1"/>
-        <v>690</v>
+        <v>27800</v>
       </c>
       <c r="AT30" s="18">
         <f t="shared" si="4"/>
@@ -13489,9 +6659,9 @@
       <c r="B34" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="15" t="str">
+      <c r="C34" s="15">
         <f>IFERROR(IF(VLOOKUP(B34, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B34, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>1690</v>
       </c>
       <c r="D34" s="16">
         <f>VLOOKUP(B34,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -13499,7 +6669,7 @@
       </c>
       <c r="E34" s="16">
         <f t="shared" si="6"/>
-        <v>23370</v>
+        <v>25060</v>
       </c>
       <c r="F34" s="17">
         <v>0</v>
@@ -13510,7 +6680,7 @@
       </c>
       <c r="H34" s="19">
         <f t="shared" si="2"/>
-        <v>23370</v>
+        <v>25060</v>
       </c>
       <c r="I34" s="32"/>
       <c r="J34" s="33">
@@ -13555,7 +6725,7 @@
       </c>
       <c r="AS34" s="16">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>1710</v>
       </c>
       <c r="AT34" s="18">
         <f t="shared" si="4"/>
@@ -13647,9 +6817,9 @@
       <c r="B36" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="15" t="str">
+      <c r="C36" s="15">
         <f>IFERROR(IF(VLOOKUP(B36, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B36, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>9080</v>
       </c>
       <c r="D36" s="16">
         <f>VLOOKUP(B36,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -13657,10 +6827,10 @@
       </c>
       <c r="E36" s="16">
         <f t="shared" si="6"/>
-        <v>760</v>
+        <v>9840</v>
       </c>
       <c r="F36" s="17">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="G36" s="18">
         <f>VLOOKUP(B36,[1]PAYMENT!$B:$AT,45,FALSE)</f>
@@ -13668,7 +6838,7 @@
       </c>
       <c r="H36" s="19">
         <f t="shared" si="2"/>
-        <v>760</v>
+        <v>9410</v>
       </c>
       <c r="I36" s="32"/>
       <c r="J36" s="33"/>
@@ -13711,7 +6881,7 @@
       </c>
       <c r="AS36" s="16">
         <f t="shared" si="1"/>
-        <v>760</v>
+        <v>9410</v>
       </c>
       <c r="AT36" s="18">
         <f t="shared" si="4"/>
@@ -13725,9 +6895,9 @@
       <c r="B37" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="15" t="str">
+      <c r="C37" s="15">
         <f>IFERROR(IF(VLOOKUP(B37, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B37, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>12900</v>
       </c>
       <c r="D37" s="16">
         <f>VLOOKUP(B37,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -13735,10 +6905,10 @@
       </c>
       <c r="E37" s="16">
         <f t="shared" si="6"/>
-        <v>16310</v>
+        <v>29210</v>
       </c>
       <c r="F37" s="17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G37" s="18">
         <f>VLOOKUP(B37,[1]PAYMENT!$B:$AT,45,FALSE)</f>
@@ -13746,7 +6916,7 @@
       </c>
       <c r="H37" s="19">
         <f t="shared" si="2"/>
-        <v>16310</v>
+        <v>29110</v>
       </c>
       <c r="I37" s="32">
         <v>14500</v>
@@ -13791,7 +6961,7 @@
       </c>
       <c r="AS37" s="16">
         <f t="shared" si="1"/>
-        <v>1810</v>
+        <v>14610</v>
       </c>
       <c r="AT37" s="18">
         <f t="shared" si="4"/>
@@ -13882,9 +7052,9 @@
       <c r="B39" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="15" t="str">
+      <c r="C39" s="15">
         <f>IFERROR(IF(VLOOKUP(B39, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B39, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>23600</v>
       </c>
       <c r="D39" s="16">
         <f>VLOOKUP(B39,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -13892,10 +7062,10 @@
       </c>
       <c r="E39" s="16">
         <f t="shared" si="6"/>
-        <v>110330</v>
+        <v>133930</v>
       </c>
       <c r="F39" s="17">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G39" s="18">
         <f>VLOOKUP(B39,[1]PAYMENT!$B:$AT,45,FALSE)</f>
@@ -13903,7 +7073,7 @@
       </c>
       <c r="H39" s="19">
         <f t="shared" si="2"/>
-        <v>110330</v>
+        <v>133770</v>
       </c>
       <c r="I39" s="32"/>
       <c r="J39" s="33">
@@ -13949,7 +7119,7 @@
       </c>
       <c r="AS39" s="16">
         <f t="shared" si="1"/>
-        <v>30330</v>
+        <v>53770</v>
       </c>
       <c r="AT39" s="18">
         <f t="shared" si="4"/>
@@ -14275,9 +7445,9 @@
       <c r="B44" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="15" t="str">
+      <c r="C44" s="15">
         <f>IFERROR(IF(VLOOKUP(B44, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B44, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>11930</v>
       </c>
       <c r="D44" s="16">
         <f>VLOOKUP(B44,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -14285,10 +7455,10 @@
       </c>
       <c r="E44" s="16">
         <f t="shared" si="8"/>
-        <v>21370</v>
+        <v>33300</v>
       </c>
       <c r="F44" s="17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G44" s="18">
         <f>VLOOKUP(B44,[1]PAYMENT!$B:$AT,45,FALSE)</f>
@@ -14296,7 +7466,7 @@
       </c>
       <c r="H44" s="19">
         <f t="shared" si="2"/>
-        <v>21370</v>
+        <v>33200</v>
       </c>
       <c r="I44" s="32">
         <v>21000</v>
@@ -14341,7 +7511,7 @@
       </c>
       <c r="AS44" s="16">
         <f t="shared" si="1"/>
-        <v>370</v>
+        <v>12200</v>
       </c>
       <c r="AT44" s="18">
         <f t="shared" si="4"/>
@@ -14511,9 +7681,9 @@
       <c r="B47" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="15" t="str">
+      <c r="C47" s="15">
         <f>IFERROR(IF(VLOOKUP(B47, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B47, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>33800</v>
       </c>
       <c r="D47" s="16">
         <f>VLOOKUP(B47,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -14521,10 +7691,10 @@
       </c>
       <c r="E47" s="16">
         <f t="shared" si="8"/>
-        <v>12080</v>
+        <v>45880</v>
       </c>
       <c r="F47" s="17">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G47" s="18">
         <f>VLOOKUP(B47,[1]PAYMENT!$B:$AT,45,FALSE)</f>
@@ -14532,7 +7702,7 @@
       </c>
       <c r="H47" s="19">
         <f t="shared" si="2"/>
-        <v>12080</v>
+        <v>44530</v>
       </c>
       <c r="I47" s="32"/>
       <c r="J47" s="37"/>
@@ -14577,7 +7747,7 @@
       </c>
       <c r="AS47" s="16">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>32490</v>
       </c>
       <c r="AT47" s="18">
         <f t="shared" si="4"/>
@@ -14591,9 +7761,9 @@
       <c r="B48" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="15" t="str">
+      <c r="C48" s="15">
         <f>IFERROR(IF(VLOOKUP(B48, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B48, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>1280</v>
       </c>
       <c r="D48" s="16">
         <f>VLOOKUP(B48,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -14601,10 +7771,11 @@
       </c>
       <c r="E48" s="16">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1280</v>
       </c>
       <c r="F48" s="17">
-        <v>0</v>
+        <f>30+60</f>
+        <v>90</v>
       </c>
       <c r="G48" s="18">
         <f>VLOOKUP(B48,[1]PAYMENT!$B:$AT,45,FALSE)</f>
@@ -14612,7 +7783,7 @@
       </c>
       <c r="H48" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1190</v>
       </c>
       <c r="I48" s="32"/>
       <c r="J48" s="33"/>
@@ -14655,7 +7826,7 @@
       </c>
       <c r="AS48" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1190</v>
       </c>
       <c r="AT48" s="18">
         <f t="shared" si="4"/>
@@ -14746,16 +7917,16 @@
       <c r="B50" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="15" t="str">
+      <c r="C50" s="15">
         <f>IFERROR(IF(VLOOKUP(B50, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B50, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>28580</v>
       </c>
       <c r="D50" s="16">
         <v>355780</v>
       </c>
       <c r="E50" s="16">
         <f t="shared" si="8"/>
-        <v>355780</v>
+        <v>384360</v>
       </c>
       <c r="F50" s="17">
         <v>0</v>
@@ -14766,7 +7937,7 @@
       </c>
       <c r="H50" s="19">
         <f t="shared" si="2"/>
-        <v>355780</v>
+        <v>384360</v>
       </c>
       <c r="I50" s="32"/>
       <c r="J50" s="33"/>
@@ -14809,7 +7980,7 @@
       </c>
       <c r="AS50" s="16">
         <f t="shared" si="1"/>
-        <v>355780</v>
+        <v>384360</v>
       </c>
       <c r="AT50" s="18">
         <f t="shared" si="4"/>
@@ -15057,9 +8228,9 @@
       <c r="B54" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="15" t="str">
+      <c r="C54" s="15">
         <f>IFERROR(IF(VLOOKUP(B54, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B54, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>50530</v>
       </c>
       <c r="D54" s="16">
         <f>VLOOKUP(B54,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -15067,10 +8238,10 @@
       </c>
       <c r="E54" s="16">
         <f>IF(OR(C54="", D54=""), "INCOMP", IFERROR(IF(C54="no load", 0, C54) + IF(D54="no load", 0, D54), "INCOMP"))</f>
-        <v>28710</v>
+        <v>79240</v>
       </c>
       <c r="F54" s="17">
-        <v>0</v>
+        <v>2280</v>
       </c>
       <c r="G54" s="18">
         <f>VLOOKUP(B54,[1]PAYMENT!$B:$AT,45,FALSE)</f>
@@ -15078,7 +8249,7 @@
       </c>
       <c r="H54" s="19">
         <f t="shared" si="2"/>
-        <v>28710</v>
+        <v>76960</v>
       </c>
       <c r="I54" s="32"/>
       <c r="J54" s="33"/>
@@ -15114,16 +8285,18 @@
       <c r="AL54" s="24"/>
       <c r="AM54" s="32"/>
       <c r="AN54" s="33"/>
-      <c r="AO54" s="23"/>
+      <c r="AO54" s="23">
+        <v>50000</v>
+      </c>
       <c r="AP54" s="23"/>
       <c r="AQ54" s="24"/>
       <c r="AR54" s="29">
         <f t="shared" si="7"/>
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="AS54" s="16">
         <f t="shared" si="1"/>
-        <v>3710</v>
+        <v>1960</v>
       </c>
       <c r="AT54" s="18">
         <f t="shared" si="4"/>
@@ -15527,9 +8700,9 @@
       <c r="B60" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="15" t="str">
+      <c r="C60" s="15">
         <f>IFERROR(IF(VLOOKUP(B60, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B60, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>10110</v>
       </c>
       <c r="D60" s="16">
         <f>VLOOKUP(B60,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -15537,10 +8710,10 @@
       </c>
       <c r="E60" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>10110</v>
       </c>
       <c r="F60" s="17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G60" s="18">
         <f>VLOOKUP(B60,[1]PAYMENT!$B:$AT,45,FALSE)</f>
@@ -15548,7 +8721,7 @@
       </c>
       <c r="H60" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10060</v>
       </c>
       <c r="I60" s="32"/>
       <c r="J60" s="33"/>
@@ -15591,7 +8764,7 @@
       </c>
       <c r="AS60" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10060</v>
       </c>
       <c r="AT60" s="18">
         <f t="shared" si="4"/>
@@ -15683,9 +8856,9 @@
       <c r="B62" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="15" t="str">
+      <c r="C62" s="15">
         <f>IFERROR(IF(VLOOKUP(B62, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B62, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>7040</v>
       </c>
       <c r="D62" s="16">
         <f>VLOOKUP(B62,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -15693,10 +8866,10 @@
       </c>
       <c r="E62" s="16">
         <f t="shared" si="10"/>
-        <v>37710</v>
+        <v>44750</v>
       </c>
       <c r="F62" s="17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G62" s="18">
         <f>VLOOKUP(B62,[1]PAYMENT!$B:$AT,45,FALSE)</f>
@@ -15704,7 +8877,7 @@
       </c>
       <c r="H62" s="19">
         <f t="shared" si="2"/>
-        <v>37710</v>
+        <v>44700</v>
       </c>
       <c r="I62" s="32"/>
       <c r="J62" s="33"/>
@@ -15740,16 +8913,18 @@
       <c r="AL62" s="24"/>
       <c r="AM62" s="32"/>
       <c r="AN62" s="33"/>
-      <c r="AO62" s="23"/>
+      <c r="AO62" s="23">
+        <v>5000</v>
+      </c>
       <c r="AP62" s="23"/>
       <c r="AQ62" s="24"/>
       <c r="AR62" s="29">
         <f t="shared" si="7"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AS62" s="16">
         <f t="shared" si="1"/>
-        <v>27710</v>
+        <v>29700</v>
       </c>
       <c r="AT62" s="18">
         <f t="shared" si="4"/>
@@ -15919,9 +9094,9 @@
       <c r="B65" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="15" t="str">
+      <c r="C65" s="15">
         <f>IFERROR(IF(VLOOKUP(B65, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B65, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>16640</v>
       </c>
       <c r="D65" s="16">
         <f>VLOOKUP(B65,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -15929,10 +9104,10 @@
       </c>
       <c r="E65" s="16">
         <f t="shared" si="10"/>
-        <v>12320</v>
+        <v>28960</v>
       </c>
       <c r="F65" s="17">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G65" s="18">
         <f>VLOOKUP(B65,[1]PAYMENT!$B:$AT,45,FALSE)</f>
@@ -15940,7 +9115,7 @@
       </c>
       <c r="H65" s="19">
         <f t="shared" si="2"/>
-        <v>12320</v>
+        <v>28710</v>
       </c>
       <c r="I65" s="32">
         <v>11000</v>
@@ -15985,7 +9160,7 @@
       </c>
       <c r="AS65" s="16">
         <f t="shared" si="1"/>
-        <v>1320</v>
+        <v>17710</v>
       </c>
       <c r="AT65" s="18">
         <f t="shared" si="4"/>
@@ -15999,9 +9174,9 @@
       <c r="B66" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="15" t="str">
+      <c r="C66" s="15">
         <f>IFERROR(IF(VLOOKUP(B66, CREDITLIST!$B:$C, 2, FALSE)="TRUE", "no load", VLOOKUP(B66, CREDITLIST!$B:$C, 2, FALSE)), "No load")</f>
-        <v>No load</v>
+        <v>33800</v>
       </c>
       <c r="D66" s="16">
         <f>VLOOKUP(B66,[1]PAYMENT!$B:$AS,44,FALSE)</f>
@@ -16009,10 +9184,10 @@
       </c>
       <c r="E66" s="16">
         <f t="shared" si="10"/>
-        <v>60510</v>
+        <v>94310</v>
       </c>
       <c r="F66" s="17">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G66" s="18">
         <f>VLOOKUP(B66,[1]PAYMENT!$B:$AT,45,FALSE)</f>
@@ -16020,7 +9195,7 @@
       </c>
       <c r="H66" s="19">
         <f t="shared" si="2"/>
-        <v>60510</v>
+        <v>94180</v>
       </c>
       <c r="I66" s="32">
         <v>31000</v>
@@ -16060,14 +9235,16 @@
       <c r="AN66" s="33"/>
       <c r="AO66" s="23"/>
       <c r="AP66" s="23"/>
-      <c r="AQ66" s="24"/>
+      <c r="AQ66" s="24">
+        <v>15000</v>
+      </c>
       <c r="AR66" s="29">
         <f t="shared" si="7"/>
-        <v>51000</v>
+        <v>66000</v>
       </c>
       <c r="AS66" s="16">
         <f t="shared" si="1"/>
-        <v>9510</v>
+        <v>28180</v>
       </c>
       <c r="AT66" s="18">
         <f t="shared" si="4"/>
@@ -16153,25 +9330,25 @@
       </c>
     </row>
     <row r="68" spans="1:46" s="30" customFormat="1">
-      <c r="A68" s="56" t="s">
+      <c r="A68" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="57"/>
+      <c r="B68" s="60"/>
       <c r="C68" s="42">
         <f t="shared" ref="C68" si="11">SUM(C4:C67)</f>
-        <v>0</v>
+        <v>478260</v>
       </c>
       <c r="D68" s="42">
         <f>SUM(D4:D67)</f>
-        <v>2317720</v>
+        <v>2254570</v>
       </c>
       <c r="E68" s="43">
         <f>SUM(E4:E67)</f>
-        <v>2317720</v>
+        <v>2732830</v>
       </c>
       <c r="F68" s="42">
         <f t="shared" ref="F68:AP68" si="12">SUM(F4:F67)</f>
-        <v>0</v>
+        <v>14100</v>
       </c>
       <c r="G68" s="42">
         <f t="shared" si="12"/>
@@ -16179,11 +9356,11 @@
       </c>
       <c r="H68" s="42">
         <f t="shared" si="12"/>
-        <v>2317720</v>
+        <v>2718660</v>
       </c>
       <c r="I68" s="42">
         <f t="shared" si="12"/>
-        <v>109500</v>
+        <v>213340</v>
       </c>
       <c r="J68" s="42">
         <f t="shared" si="12"/>
@@ -16195,7 +9372,7 @@
       </c>
       <c r="L68" s="42">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>24565</v>
       </c>
       <c r="M68" s="42">
         <f t="shared" si="12"/>
@@ -16287,7 +9464,7 @@
       </c>
       <c r="AI68" s="42">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AJ68" s="42">
         <f t="shared" si="12"/>
@@ -16303,7 +9480,7 @@
       </c>
       <c r="AM68" s="44">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>135200</v>
       </c>
       <c r="AN68" s="44">
         <f t="shared" si="12"/>
@@ -16311,7 +9488,7 @@
       </c>
       <c r="AO68" s="44">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>68500</v>
       </c>
       <c r="AP68" s="44">
         <f t="shared" si="12"/>
@@ -16319,19 +9496,19 @@
       </c>
       <c r="AQ68" s="42">
         <f>SUM(AQ4:AQ67)</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="AR68" s="42">
         <f>SUM(AR4:AR67)</f>
-        <v>364990</v>
+        <v>718095</v>
       </c>
       <c r="AS68" s="42">
         <f>SUM(AS4:AS67)</f>
-        <v>1952770</v>
+        <v>2000665</v>
       </c>
       <c r="AT68" s="42">
         <f>SUM(AT4:AT67)</f>
-        <v>2450</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="69" spans="1:46" s="30" customFormat="1"/>
@@ -16368,7 +9545,7 @@
       </c>
       <c r="H75" s="49">
         <f>I68</f>
-        <v>109500</v>
+        <v>213340</v>
       </c>
       <c r="I75" s="49">
         <f>J68</f>
@@ -16380,7 +9557,7 @@
       </c>
       <c r="K75" s="49">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>24565</v>
       </c>
       <c r="L75" s="49">
         <f t="shared" si="13"/>
@@ -16388,7 +9565,7 @@
       </c>
       <c r="M75" s="50">
         <f>SUM(H75:L75)</f>
-        <v>333890</v>
+        <v>462295</v>
       </c>
     </row>
     <row r="76" spans="1:46" s="30" customFormat="1">
@@ -16517,7 +9694,7 @@
       </c>
       <c r="I80" s="49">
         <f t="shared" ref="I80:L80" si="19">AI68</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="J80" s="49">
         <f t="shared" si="19"/>
@@ -16533,7 +9710,7 @@
       </c>
       <c r="M80" s="50">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="81" spans="7:13" s="30" customFormat="1">
@@ -16542,7 +9719,7 @@
       </c>
       <c r="H81" s="49">
         <f>AM68</f>
-        <v>0</v>
+        <v>135200</v>
       </c>
       <c r="I81" s="49">
         <f t="shared" ref="I81:L81" si="20">AN68</f>
@@ -16550,7 +9727,7 @@
       </c>
       <c r="J81" s="49">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>68500</v>
       </c>
       <c r="K81" s="49">
         <f t="shared" si="20"/>
@@ -16558,11 +9735,11 @@
       </c>
       <c r="L81" s="49">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="M81" s="50">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>218700</v>
       </c>
     </row>
     <row r="82" spans="7:13" s="30" customFormat="1">
@@ -16571,27 +9748,27 @@
       </c>
       <c r="H82" s="52">
         <f>SUM(H75:H81)</f>
-        <v>109500</v>
+        <v>348540</v>
       </c>
       <c r="I82" s="52">
         <f>SUM(I75:I81)</f>
-        <v>167350</v>
+        <v>173350</v>
       </c>
       <c r="J82" s="52">
         <f>SUM(J75:J81)</f>
-        <v>88140</v>
+        <v>156640</v>
       </c>
       <c r="K82" s="52">
         <f>SUM(K75:K81)</f>
-        <v>0</v>
+        <v>24565</v>
       </c>
       <c r="L82" s="52">
         <f>SUM(L75:L81)</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="M82" s="50">
         <f>SUM(H82:L82)</f>
-        <v>364990</v>
+        <v>718095</v>
       </c>
     </row>
     <row r="83" spans="7:13" s="30" customFormat="1"/>
@@ -16615,12 +9792,322 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="54">
+        <v>1</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="55">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="54">
+        <v>2</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="55">
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="54">
+        <v>3</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="55">
+        <v>25910</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="54">
+        <v>4</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="55">
+        <v>12680</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="54">
+        <v>5</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="55">
+        <v>10190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="54">
+        <v>6</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="55">
+        <v>12890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="54">
+        <v>7</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="55">
+        <v>42780</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="54">
+        <v>8</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="55">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="54">
+        <v>9</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="55">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="54">
+        <v>10</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="55">
+        <v>14940</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="54">
+        <v>11</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="55">
+        <v>26340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="54">
+        <v>12</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="55">
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="54">
+        <v>13</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="55">
+        <v>27360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="54">
+        <v>14</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="55">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="54">
+        <v>15</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="55">
+        <v>9080</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="54">
+        <v>16</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="55">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="54">
+        <v>17</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="55">
+        <v>23600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="54">
+        <v>18</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="55">
+        <v>11930</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="54">
+        <v>19</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="55">
+        <v>33800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="54">
+        <v>20</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="55">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="54">
+        <v>21</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="55">
+        <v>28580</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="54">
+        <v>22</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="55">
+        <v>50530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="54">
+        <v>23</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="55">
+        <v>10110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="54">
+        <v>24</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="55">
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="54">
+        <v>25</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="55">
+        <v>16640</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="54">
+        <v>26</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="55">
+        <v>33800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55">
+        <v>485290</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
